--- a/mdm_z/atherosclerosis_review.xlsx
+++ b/mdm_z/atherosclerosis_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Documents\CodeProjects\ACE\mdm_z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A7A2F1-1109-4734-88A6-9C29BBB07728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B987F-1BCA-4665-9B81-D9028466413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
+    <workbookView xWindow="5460" yWindow="2655" windowWidth="18960" windowHeight="11835" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chol Null" sheetId="2" r:id="rId1"/>
@@ -10144,7 +10144,7 @@
   <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>0.183950949515405</v>
+        <v>0.119467592853033</v>
       </c>
       <c r="B3" s="16">
         <v>0.119216677992623</v>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
-        <v>0.27440793954739701</v>
+        <v>0.16567496718522901</v>
       </c>
       <c r="B4" s="16">
         <v>0.165311568236927</v>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>0.38436459197423101</v>
+        <v>0.17759148857781601</v>
       </c>
       <c r="B5" s="16">
         <v>0.20433837829325699</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>0.40203950808969302</v>
+        <v>0.234556114439678</v>
       </c>
       <c r="B6" s="16">
         <v>0.23210822869911099</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>0.44662961215296099</v>
+        <v>0.27813693178833598</v>
       </c>
       <c r="B7" s="16">
         <v>0.27521663080706799</v>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>0.43928376831671601</v>
+        <v>0.29060090781743703</v>
       </c>
       <c r="B8" s="16">
         <v>0.28959587906393203</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>0.56936456603711305</v>
+        <v>0.35372837090937498</v>
       </c>
       <c r="B9" s="16">
         <v>0.35724301949486198</v>
@@ -10705,7 +10705,7 @@
     </row>
     <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>1.0857575240092801</v>
+        <v>0.69484648624400702</v>
       </c>
       <c r="B10" s="16">
         <v>0.68915117283806204</v>
@@ -10770,7 +10770,7 @@
     </row>
     <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <v>2.0143047983429199</v>
+        <v>1.13419239366617</v>
       </c>
       <c r="B11" s="16">
         <v>0.93512532884303801</v>
@@ -13612,7 +13612,7 @@
   <dimension ref="A1:AK44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
-        <v>0.19558591730595501</v>
+        <v>0.13441159242109799</v>
       </c>
       <c r="B3" s="16">
         <v>0.134149932094661</v>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="4" spans="1:37" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52">
-        <v>0.366311288642309</v>
+        <v>0.17331083773112699</v>
       </c>
       <c r="B4" s="52">
         <v>0.19752813587260601</v>
@@ -13865,7 +13865,7 @@
     </row>
     <row r="5" spans="1:37" s="72" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
-        <v>0.53589812055320896</v>
+        <v>0.26011440433592897</v>
       </c>
       <c r="B5" s="53">
         <v>0.28527523866889698</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>0.50572676643675296</v>
+        <v>0.34268029973736303</v>
       </c>
       <c r="B6" s="16">
         <v>0.33507944644200899</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="7" spans="1:37" s="72" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
-        <v>1.0607975763834501</v>
+        <v>0.64110879117637098</v>
       </c>
       <c r="B7" s="53">
         <v>0.58228513774475699</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="8" spans="1:37" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>1.3397914114497</v>
+        <v>0.85935328542174505</v>
       </c>
       <c r="B8" s="16">
         <v>0.79322921702375204</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>1.62393394477792</v>
+        <v>0.84804146882517595</v>
       </c>
       <c r="B9" s="16">
         <v>0.85499351566446002</v>
@@ -14180,7 +14180,7 @@
     </row>
     <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>1.6927915275881</v>
+        <v>0.86721262376514197</v>
       </c>
       <c r="B10" s="16">
         <v>0.864483188317266</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="11" spans="1:37" s="72" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
-        <v>3.2537959810988299</v>
+        <v>2.6380634815189699</v>
       </c>
       <c r="B11" s="53">
         <v>1.7080133052945301</v>

--- a/mdm_z/atherosclerosis_review.xlsx
+++ b/mdm_z/atherosclerosis_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Documents\CodeProjects\ACE\mdm_z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDD87DF-3092-406A-A5BE-041BB20F4A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518BF09-A042-4C78-B903-48437E9456CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
+    <workbookView xWindow="-19470" yWindow="840" windowWidth="18960" windowHeight="11835" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chol Null" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5143,7 +5142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5383,12 +5382,6 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5407,13 +5400,34 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10180,7 +10194,7 @@
   <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10291,7 +10305,7 @@
     </row>
     <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>0.119467592853033</v>
+        <v>0.121593125828345</v>
       </c>
       <c r="B3" s="30">
         <v>0.41129753907454902</v>
@@ -10309,7 +10323,7 @@
         <v>0.851980223093454</v>
       </c>
       <c r="G3" s="89">
-        <f t="shared" ref="G3:G12" si="0">-(I3-M3)/I3</f>
+        <f t="shared" ref="G3:G11" si="0">-(I3-M3)/I3</f>
         <v>-5.5072463768116052E-2</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -10350,14 +10364,14 @@
       <c r="S3" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="T3" s="102" t="s">
+      <c r="T3" s="100" t="s">
         <v>426</v>
       </c>
       <c r="Y3" s="48"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
-        <v>0.16567496718522901</v>
+        <v>0.17184334993397399</v>
       </c>
       <c r="B4" s="28">
         <v>206.80477186439501</v>
@@ -10414,13 +10428,13 @@
       <c r="S4" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>0.17759148857781601</v>
+        <v>0.219693893758835</v>
       </c>
       <c r="B5" s="30">
         <v>0.467934886291557</v>
@@ -10483,7 +10497,7 @@
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>0.234556114439678</v>
+        <v>0.25081372019273901</v>
       </c>
       <c r="B6" s="30">
         <v>32.727260246574602</v>
@@ -10544,7 +10558,7 @@
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>0.29060090781743703</v>
+        <v>0.30860369698662699</v>
       </c>
       <c r="B7" s="28">
         <v>729.20242348297995</v>
@@ -10601,13 +10615,13 @@
       <c r="S7" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="T7" s="102" t="s">
+      <c r="T7" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>0.32864402272724402</v>
+        <v>0.30345351551815197</v>
       </c>
       <c r="B8" s="30">
         <v>33.980127101269801</v>
@@ -10666,13 +10680,13 @@
       <c r="S8" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="T8" s="102" t="s">
+      <c r="T8" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>0.35372837090937498</v>
+        <v>0.44229019357833699</v>
       </c>
       <c r="B9" s="28">
         <v>476.91943102564102</v>
@@ -10730,13 +10744,13 @@
       <c r="S9" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="T9" s="102" t="s">
+      <c r="T9" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>0.69484648624400602</v>
+        <v>0.79871378003520699</v>
       </c>
       <c r="B10" s="28">
         <v>391.43786617201903</v>
@@ -10799,7 +10813,7 @@
     </row>
     <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <v>1.13419239366617</v>
+        <v>1.5427763928473599</v>
       </c>
       <c r="B11" s="30">
         <v>10.473403683041999</v>
@@ -10856,19 +10870,19 @@
       <c r="S11" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="T11" s="102" t="s">
+      <c r="T11" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="105"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="34"/>
       <c r="G12" s="16"/>
       <c r="H12" s="33"/>
       <c r="J12" s="28"/>
       <c r="L12" s="17"/>
       <c r="N12" s="30"/>
-      <c r="T12" s="102"/>
+      <c r="T12" s="100"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
@@ -10900,7 +10914,7 @@
       <c r="L13" s="17"/>
       <c r="N13" s="28"/>
       <c r="P13" s="29"/>
-      <c r="T13" s="102"/>
+      <c r="T13" s="100"/>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
@@ -12388,10 +12402,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:T8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="569" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="568" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13526,58 +13540,58 @@
     <sortCondition descending="1" ref="A3:A11"/>
   </sortState>
   <conditionalFormatting sqref="Q7:XFD7 N7:O7 Q13:XFD13 N2:XFD6 AB35:XFD35 A13:O13 A31:I31 K31:M31 A15:E15 A29 E29:L29 A18:M28 B1:XFD1 N8:XFD12 A14:XFD14 A32:XFD34 A36:XFD1048576 A35:O35 G15:XFD15 A2:M9 N17:XFD31 A30:M30 A16:XFD16">
-    <cfRule type="expression" dxfId="569" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="38">
+    <cfRule type="expression" dxfId="567" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="566" priority="38">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="567" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="566" priority="14">
+    <cfRule type="expression" dxfId="565" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="564" priority="14">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="565" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="564" priority="12">
+    <cfRule type="expression" dxfId="563" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="562" priority="12">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="563" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="562" priority="10">
+    <cfRule type="expression" dxfId="561" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="560" priority="10">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 E10:L10 A11:M12">
-    <cfRule type="expression" dxfId="561" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="560" priority="6">
+    <cfRule type="expression" dxfId="559" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="558" priority="6">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="expression" dxfId="559" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="558" priority="4">
+    <cfRule type="expression" dxfId="557" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="556" priority="4">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="557" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="2">
+    <cfRule type="expression" dxfId="555" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="554" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13591,7 +13605,7 @@
   <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:T11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
@@ -13717,12 +13731,12 @@
     </row>
     <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
-        <v>0.13441159242109799</v>
+        <v>0.15587183086280601</v>
       </c>
       <c r="B3" s="40">
         <v>6.5599316794289297</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="97">
         <v>0.61999379158845302</v>
       </c>
       <c r="D3" s="15">
@@ -13774,19 +13788,19 @@
       <c r="S3" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="T3" s="102" t="s">
+      <c r="T3" s="100" t="s">
         <v>426</v>
       </c>
-      <c r="U3" s="102"/>
+      <c r="U3" s="100"/>
     </row>
     <row r="4" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
-        <v>0.17331083773112699</v>
+        <v>0.20303818219409001</v>
       </c>
       <c r="B4" s="44">
         <v>132047.55883083699</v>
       </c>
-      <c r="C4" s="100">
+      <c r="C4" s="98">
         <v>3.5713564070074102E-2</v>
       </c>
       <c r="D4" s="44">
@@ -13799,7 +13813,7 @@
         <v>0.42833084817045303</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G11" si="0">(M4-I4)/I4</f>
+        <f>(M4-I4)/I4</f>
         <v>7.1802543006731492E-3</v>
       </c>
       <c r="H4" s="93" t="s">
@@ -13843,12 +13857,12 @@
     </row>
     <row r="5" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51">
-        <v>0.26011440433592897</v>
-      </c>
-      <c r="B5" s="97">
+        <v>0.26359851262496098</v>
+      </c>
+      <c r="B5" s="95">
         <v>104323.157854545</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="99">
         <v>5.0486469068246699E-2</v>
       </c>
       <c r="D5" s="53">
@@ -13861,7 +13875,7 @@
         <v>0.35124519657054598</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="0"/>
+        <f>(M5-I5)/I5</f>
         <v>-1.9669504201611735E-2</v>
       </c>
       <c r="H5" s="52" t="s">
@@ -13900,18 +13914,18 @@
       <c r="S5" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="T5" s="102" t="s">
+      <c r="T5" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>0.34268029973736303</v>
+        <v>0.32910520157054102</v>
       </c>
       <c r="B6" s="28">
         <v>120.628600719123</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="97">
         <v>0.91323124927187205</v>
       </c>
       <c r="D6" s="15">
@@ -13924,7 +13938,7 @@
         <v>1.2343254517573801</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="0"/>
+        <f>(M6-I6)/I6</f>
         <v>-0.18055555555555555</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -13963,18 +13977,18 @@
       <c r="S6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="T6" s="102" t="s">
+      <c r="T6" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51">
-        <v>0.64110879117637098</v>
-      </c>
-      <c r="B7" s="98">
+        <v>0.50762085262478696</v>
+      </c>
+      <c r="B7" s="96">
         <v>13.450786681903899</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="99">
         <v>0.39130715079531098</v>
       </c>
       <c r="D7" s="53">
@@ -13987,7 +14001,7 @@
         <v>0.53185997443182498</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="0"/>
+        <f>(M7-I7)/I7</f>
         <v>-0.16017316017316027</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -14008,7 +14022,7 @@
       <c r="M7" s="53">
         <v>19.399999999999999</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="96">
         <v>7.15</v>
       </c>
       <c r="O7" s="53">
@@ -14026,18 +14040,18 @@
       <c r="S7" s="52" t="s">
         <v>428</v>
       </c>
-      <c r="T7" s="102" t="s">
+      <c r="T7" s="100" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>0.85935328542174505</v>
+        <v>1.0902953689300201</v>
       </c>
       <c r="B8" s="34">
         <v>0.56557243173793503</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="97">
         <v>0.25180073430266697</v>
       </c>
       <c r="D8" s="15">
@@ -14050,7 +14064,7 @@
         <v>0.46608805098768102</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
+        <f>(M8-I8)/I8</f>
         <v>-0.13464235624123419</v>
       </c>
       <c r="H8" s="93" t="s">
@@ -14089,144 +14103,144 @@
       <c r="S8" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="T8" s="102" t="s">
+      <c r="T8" s="100" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>0.84804146882517595</v>
-      </c>
-      <c r="B9" s="28">
+    <row r="9" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51">
+        <v>1.32890473186248</v>
+      </c>
+      <c r="B9" s="96">
+        <v>31.1213947794216</v>
+      </c>
+      <c r="C9" s="99">
+        <v>0.12847995194645101</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.744524617045352</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0.63465869131768005</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0.37030064190211498</v>
+      </c>
+      <c r="G9" s="51">
+        <f>(M9-I9)/I9</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="105">
+        <v>36</v>
+      </c>
+      <c r="J9" s="105">
+        <v>23</v>
+      </c>
+      <c r="K9" s="105">
+        <v>15</v>
+      </c>
+      <c r="L9" s="104" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" s="105">
+        <v>41</v>
+      </c>
+      <c r="N9" s="105">
+        <v>50</v>
+      </c>
+      <c r="O9" s="105">
+        <v>13</v>
+      </c>
+      <c r="P9" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="105">
+        <v>0.05</v>
+      </c>
+      <c r="R9" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="S9" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="T9" s="106" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <v>2.2018381936729998</v>
+      </c>
+      <c r="B10" s="107">
         <v>260591.76365234001</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C10" s="98">
         <v>3.9523876652813497E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="44">
         <v>0.96246605138118502</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="44">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="44">
         <v>0.54470925070932796</v>
       </c>
-      <c r="G9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="50">
+        <f>(M10-I10)/I10</f>
         <v>1.8032205992361904E-2</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H10" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="I9" s="96">
+      <c r="I10" s="109">
         <v>304788</v>
       </c>
-      <c r="J9" s="96">
+      <c r="J10" s="109">
         <v>113425</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K10" s="109">
         <v>4</v>
       </c>
-      <c r="L9" s="95" t="s">
+      <c r="L10" s="108" t="s">
         <v>341</v>
       </c>
-      <c r="M9" s="96">
+      <c r="M10" s="109">
         <v>310284</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N10" s="109">
         <v>160647</v>
       </c>
-      <c r="O9" s="96">
+      <c r="O10" s="109">
         <v>3</v>
       </c>
-      <c r="P9" s="96" t="s">
+      <c r="P10" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="Q9" s="96" t="s">
+      <c r="Q10" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="R9" s="96" t="s">
+      <c r="R10" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="S9" s="95" t="s">
+      <c r="S10" s="108" t="s">
         <v>339</v>
       </c>
-      <c r="T9" s="102" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>0.86721262376514197</v>
-      </c>
-      <c r="B10" s="30">
-        <v>31.1213947794216</v>
-      </c>
-      <c r="C10" s="99">
-        <v>0.12847995194645101</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.744524617045352</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.63465869131768005</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.37030064190211498</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H10" s="93" t="s">
-        <v>424</v>
-      </c>
-      <c r="I10" s="94">
-        <v>36</v>
-      </c>
-      <c r="J10" s="94">
-        <v>23</v>
-      </c>
-      <c r="K10" s="94">
-        <v>15</v>
-      </c>
-      <c r="L10" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="M10" s="94">
-        <v>41</v>
-      </c>
-      <c r="N10" s="94">
-        <v>50</v>
-      </c>
-      <c r="O10" s="94">
-        <v>13</v>
-      </c>
-      <c r="P10" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="94">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="S10" s="93" t="s">
-        <v>313</v>
-      </c>
-      <c r="T10" s="102" t="s">
+      <c r="T10" s="110" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
-        <v>2.6380634815189699</v>
-      </c>
-      <c r="B11" s="97">
+        <v>5.02369447699063</v>
+      </c>
+      <c r="B11" s="95">
         <v>17004.980467512301</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="99">
         <v>0.57883864704215804</v>
       </c>
       <c r="D11" s="53">
@@ -14239,7 +14253,7 @@
         <v>1.0841311155647999</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="0"/>
+        <f>(M11-I11)/I11</f>
         <v>0.72719967858577739</v>
       </c>
       <c r="H11" s="52" t="s">
@@ -14248,7 +14262,7 @@
       <c r="I11" s="53">
         <v>9956</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="95">
         <f>(12545-I11)*SQRT(K11)</f>
         <v>11578.359987493912</v>
       </c>
@@ -14261,7 +14275,7 @@
       <c r="M11" s="53">
         <v>17196</v>
       </c>
-      <c r="N11" s="97">
+      <c r="N11" s="95">
         <f>(20348-M11)*SQRT(O11)</f>
         <v>13372.803445799986</v>
       </c>
@@ -14280,7 +14294,7 @@
       <c r="S11" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="T11" s="102" t="s">
+      <c r="T11" s="100" t="s">
         <v>426</v>
       </c>
     </row>
@@ -14308,11 +14322,7 @@
     <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B14" s="72"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U15" s="73"/>
       <c r="V15" s="73"/>
       <c r="W15" s="73"/>
@@ -14535,15 +14545,15 @@
     </row>
     <row r="21" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="61">
-        <f t="shared" ref="A21:A38" si="1">B21/I21</f>
+        <f t="shared" ref="A21:A38" si="0">B21/I21</f>
         <v>0.30233492648200283</v>
       </c>
       <c r="B21" s="63">
-        <f t="shared" ref="B21:B38" si="2">ABS(M21-I21) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q21)/2))*SQRT(J21^2/K21+N21^2/O21)</f>
+        <f t="shared" ref="B21:B38" si="1">ABS(M21-I21) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q21)/2))*SQRT(J21^2/K21+N21^2/O21)</f>
         <v>110561.76626998305</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" ref="C21:C38" si="3">-(I21-M21)/I21</f>
+        <f t="shared" ref="C21:C38" si="2">-(I21-M21)/I21</f>
         <v>-1.9669504201611735E-2</v>
       </c>
       <c r="D21" s="76"/>
@@ -14605,15 +14615,15 @@
     </row>
     <row r="22" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61">
+        <f t="shared" si="0"/>
+        <v>0.33187378676985985</v>
+      </c>
+      <c r="B22" s="67">
         <f t="shared" si="1"/>
-        <v>0.33187378676985985</v>
-      </c>
-      <c r="B22" s="67">
+        <v>8.5955310773393698</v>
+      </c>
+      <c r="C22" s="61">
         <f t="shared" si="2"/>
-        <v>8.5955310773393698</v>
-      </c>
-      <c r="C22" s="61">
-        <f t="shared" si="3"/>
         <v>-0.1274131274131273</v>
       </c>
       <c r="D22" s="76"/>
@@ -14677,15 +14687,15 @@
     </row>
     <row r="23" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="61">
+        <f t="shared" si="0"/>
+        <v>0.3351756133312177</v>
+      </c>
+      <c r="B23" s="63">
         <f t="shared" si="1"/>
-        <v>0.3351756133312177</v>
-      </c>
-      <c r="B23" s="63">
+        <v>8.7145659466116605</v>
+      </c>
+      <c r="C23" s="61">
         <f t="shared" si="2"/>
-        <v>8.7145659466116605</v>
-      </c>
-      <c r="C23" s="61">
-        <f t="shared" si="3"/>
         <v>4.2307692307692366E-2</v>
       </c>
       <c r="D23" s="76"/>
@@ -14749,15 +14759,15 @@
     </row>
     <row r="24" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61">
+        <f t="shared" si="0"/>
+        <v>0.36468210626768915</v>
+      </c>
+      <c r="B24" s="68">
         <f t="shared" si="1"/>
-        <v>0.36468210626768915</v>
-      </c>
-      <c r="B24" s="68">
+        <v>131.28555825636809</v>
+      </c>
+      <c r="C24" s="61">
         <f t="shared" si="2"/>
-        <v>131.28555825636809</v>
-      </c>
-      <c r="C24" s="61">
-        <f t="shared" si="3"/>
         <v>-0.18055555555555555</v>
       </c>
       <c r="H24" s="58" t="s">
@@ -14799,15 +14809,15 @@
     </row>
     <row r="25" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61">
+        <f t="shared" si="0"/>
+        <v>0.38375612642394952</v>
+      </c>
+      <c r="B25" s="63">
         <f t="shared" si="1"/>
-        <v>0.38375612642394952</v>
-      </c>
-      <c r="B25" s="63">
+        <v>127779.27741538247</v>
+      </c>
+      <c r="C25" s="61">
         <f t="shared" si="2"/>
-        <v>127779.27741538247</v>
-      </c>
-      <c r="C25" s="61">
-        <f t="shared" si="3"/>
         <v>4.5589692765113973E-2</v>
       </c>
       <c r="H25" s="58" t="s">
@@ -14851,15 +14861,15 @@
     </row>
     <row r="26" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61">
+        <f t="shared" si="0"/>
+        <v>0.43866397912473509</v>
+      </c>
+      <c r="B26" s="63">
         <f t="shared" si="1"/>
-        <v>0.43866397912473509</v>
-      </c>
-      <c r="B26" s="63">
+        <v>147.87362736294821</v>
+      </c>
+      <c r="C26" s="61">
         <f t="shared" si="2"/>
-        <v>147.87362736294821</v>
-      </c>
-      <c r="C26" s="61">
-        <f t="shared" si="3"/>
         <v>1.0382675763868287E-2</v>
       </c>
       <c r="H26" s="58" t="s">
@@ -14920,15 +14930,15 @@
     </row>
     <row r="27" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61">
+        <f t="shared" si="0"/>
+        <v>0.54447029123354107</v>
+      </c>
+      <c r="B27" s="63">
         <f t="shared" si="1"/>
-        <v>0.54447029123354107</v>
-      </c>
-      <c r="B27" s="63">
+        <v>65064.199802408162</v>
+      </c>
+      <c r="C27" s="61">
         <f t="shared" si="2"/>
-        <v>65064.199802408162</v>
-      </c>
-      <c r="C27" s="61">
-        <f t="shared" si="3"/>
         <v>-7.364016736401674E-2</v>
       </c>
       <c r="H27" s="58" t="s">
@@ -14989,15 +14999,15 @@
     </row>
     <row r="28" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="61">
+        <f t="shared" si="0"/>
+        <v>0.59465772165882236</v>
+      </c>
+      <c r="B28" s="67">
         <f t="shared" si="1"/>
-        <v>0.59465772165882236</v>
-      </c>
-      <c r="B28" s="67">
+        <v>0.42399095554274036</v>
+      </c>
+      <c r="C28" s="61">
         <f t="shared" si="2"/>
-        <v>0.42399095554274036</v>
-      </c>
-      <c r="C28" s="61">
-        <f t="shared" si="3"/>
         <v>-1.542776998597477E-2</v>
       </c>
       <c r="H28" s="58" t="s">
@@ -15058,15 +15068,15 @@
     </row>
     <row r="29" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="61">
+        <f t="shared" si="0"/>
+        <v>0.62604580322464665</v>
+      </c>
+      <c r="B29" s="67">
         <f t="shared" si="1"/>
-        <v>0.62604580322464665</v>
-      </c>
-      <c r="B29" s="67">
+        <v>5.5718076486993548E-2</v>
+      </c>
+      <c r="C29" s="61">
         <f t="shared" si="2"/>
-        <v>5.5718076486993548E-2</v>
-      </c>
-      <c r="C29" s="61">
-        <f t="shared" si="3"/>
         <v>-0.3146067415730337</v>
       </c>
       <c r="H29" s="58" t="s">
@@ -15110,15 +15120,15 @@
     </row>
     <row r="30" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61">
+        <f t="shared" si="0"/>
+        <v>0.64173877726018158</v>
+      </c>
+      <c r="B30" s="67">
         <f t="shared" si="1"/>
-        <v>0.64173877726018158</v>
-      </c>
-      <c r="B30" s="67">
+        <v>14.824165754710195</v>
+      </c>
+      <c r="C30" s="61">
         <f t="shared" si="2"/>
-        <v>14.824165754710195</v>
-      </c>
-      <c r="C30" s="61">
-        <f t="shared" si="3"/>
         <v>-0.16017316017316027</v>
       </c>
       <c r="H30" s="85" t="s">
@@ -15160,15 +15170,15 @@
     </row>
     <row r="31" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61">
+        <f t="shared" si="0"/>
+        <v>0.72845716036649566</v>
+      </c>
+      <c r="B31" s="63">
         <f t="shared" si="1"/>
-        <v>0.72845716036649566</v>
-      </c>
-      <c r="B31" s="63">
+        <v>47087.470846090277</v>
+      </c>
+      <c r="C31" s="61">
         <f t="shared" si="2"/>
-        <v>47087.470846090277</v>
-      </c>
-      <c r="C31" s="61">
-        <f t="shared" si="3"/>
         <v>-0.16615099009900991</v>
       </c>
       <c r="H31" s="58" t="s">
@@ -15210,15 +15220,15 @@
     </row>
     <row r="32" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61">
+        <f t="shared" si="0"/>
+        <v>0.87193649776221871</v>
+      </c>
+      <c r="B32" s="63">
         <f t="shared" si="1"/>
-        <v>0.87193649776221871</v>
-      </c>
-      <c r="B32" s="63">
+        <v>265755.7812799511</v>
+      </c>
+      <c r="C32" s="61">
         <f t="shared" si="2"/>
-        <v>265755.7812799511</v>
-      </c>
-      <c r="C32" s="61">
-        <f t="shared" si="3"/>
         <v>1.8032205992361904E-2</v>
       </c>
       <c r="H32" s="58" t="s">
@@ -15260,15 +15270,15 @@
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61">
+        <f t="shared" si="0"/>
+        <v>0.90104148622149904</v>
+      </c>
+      <c r="B33" s="63">
         <f t="shared" si="1"/>
-        <v>0.90104148622149904</v>
-      </c>
-      <c r="B33" s="63">
+        <v>202294.53605041257</v>
+      </c>
+      <c r="C33" s="61">
         <f t="shared" si="2"/>
-        <v>202294.53605041257</v>
-      </c>
-      <c r="C33" s="61">
-        <f t="shared" si="3"/>
         <v>-0.22222385539474743</v>
       </c>
       <c r="H33" s="58" t="s">
@@ -15312,15 +15322,15 @@
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61">
+        <f t="shared" si="0"/>
+        <v>0.93271875715240415</v>
+      </c>
+      <c r="B34" s="63">
         <f t="shared" si="1"/>
-        <v>0.93271875715240415</v>
-      </c>
-      <c r="B34" s="63">
+        <v>60253.631712045302</v>
+      </c>
+      <c r="C34" s="61">
         <f t="shared" si="2"/>
-        <v>60253.631712045302</v>
-      </c>
-      <c r="C34" s="61">
-        <f t="shared" si="3"/>
         <v>-0.16563467492260053</v>
       </c>
       <c r="H34" s="58" t="s">
@@ -15366,15 +15376,15 @@
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61">
+        <f t="shared" si="0"/>
+        <v>0.96814672232900045</v>
+      </c>
+      <c r="B35" s="67">
         <f t="shared" si="1"/>
-        <v>0.96814672232900045</v>
-      </c>
-      <c r="B35" s="67">
+        <v>34.853282003844015</v>
+      </c>
+      <c r="C35" s="61">
         <f t="shared" si="2"/>
-        <v>34.853282003844015</v>
-      </c>
-      <c r="C35" s="61">
-        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="H35" s="58" t="s">
@@ -15418,15 +15428,15 @@
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61">
+        <f t="shared" si="0"/>
+        <v>1.0072498831657288</v>
+      </c>
+      <c r="B36" s="63">
         <f t="shared" si="1"/>
-        <v>1.0072498831657288</v>
-      </c>
-      <c r="B36" s="63">
+        <v>391.71947956315188</v>
+      </c>
+      <c r="C36" s="61">
         <f t="shared" si="2"/>
-        <v>391.71947956315188</v>
-      </c>
-      <c r="C36" s="61">
-        <f t="shared" si="3"/>
         <v>-0.25739264592440209</v>
       </c>
       <c r="H36" s="58" t="s">
@@ -15468,15 +15478,15 @@
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="61">
+        <f t="shared" si="0"/>
+        <v>1.0221261204613394</v>
+      </c>
+      <c r="B37" s="63">
         <f t="shared" si="1"/>
-        <v>1.0221261204613394</v>
-      </c>
-      <c r="B37" s="63">
+        <v>38503.49095777866</v>
+      </c>
+      <c r="C37" s="61">
         <f t="shared" si="2"/>
-        <v>38503.49095777866</v>
-      </c>
-      <c r="C37" s="61">
-        <f t="shared" si="3"/>
         <v>-0.2808601008760287</v>
       </c>
       <c r="H37" s="58" t="s">
@@ -15518,15 +15528,15 @@
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="61">
+        <f t="shared" si="0"/>
+        <v>1.0559803904811791</v>
+      </c>
+      <c r="B38" s="63">
         <f t="shared" si="1"/>
-        <v>1.0559803904811791</v>
-      </c>
-      <c r="B38" s="63">
+        <v>68258.572440703414</v>
+      </c>
+      <c r="C38" s="61">
         <f t="shared" si="2"/>
-        <v>68258.572440703414</v>
-      </c>
-      <c r="C38" s="61">
-        <f t="shared" si="3"/>
         <v>-0.45730198019801982</v>
       </c>
       <c r="H38" s="58" t="s">
@@ -15872,1429 +15882,1429 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H23:O26 Q23:Q26 H27:Q27 H28:O28 I29:O29 I31:K31 M31:O31 H32:H33 H33:O33 I35:K35 M35:Q35 H36:O36 I37:K38 Q28 J32:Q32 H22:Q22 Q31 Q36 M37:Q38 Q33:Q34 U39:XFD39 K40:O40 H41:O41 Q40 H42:Q42 S36:S38 S21:S22 S28:S34 T41:XFD1048576 T21:XFD38 S40:XFD40 S19:XFD20 I43:K43 M43:R43 Q44 K44:O44 B12 T15:XFD15 U8:U11 X3:XFD6 X8:AB11 Y7:XFD7 U5:W6 V8:W10 V7 H40:I40 H19:Q20 B1:C1 H1:XFD1 H45:S1048576 H16:XFD18 H39:S39 S5 D3 H6:O7 Q6:Q7 H11:S11 D5:D7 G3:G12 H2:S2 U2:XFD2 V4:W4 H14:XFD14 H12:AB13 AH8:XFD13 A13:C14 A45:C1048576 A16:C19 A39:C40 A3:B3 A5:B11">
-    <cfRule type="expression" dxfId="555" priority="510">
+  <conditionalFormatting sqref="H23:O26 Q23:Q26 H27:Q27 H28:O28 I29:O29 I31:K31 M31:O31 H32:H33 H33:O33 I35:K35 M35:Q35 H36:O36 I37:K38 Q28 J32:Q32 H22:Q22 Q31 Q36 M37:Q38 Q33:Q34 U39:XFD39 K40:O40 H41:O41 Q40 H42:Q42 S36:S38 S21:S22 S28:S34 T41:XFD1048576 T21:XFD38 S40:XFD40 S19:XFD20 I43:K43 M43:R43 Q44 K44:O44 B12 U15:XFD15 U8:U11 X3:XFD6 X8:AB11 Y7:XFD7 U5:W6 V8:W10 V7 H40:I40 H19:Q20 B1:C1 H1:XFD1 H45:S1048576 H16:XFD18 H39:S39 S5 D3 H6:O7 Q6:Q7 H11:S11 D5:D7 H2:S2 U2:XFD2 V4:W4 H14:XFD14 H12:AB13 AH8:XFD13 A45:C1048576 A16:C19 A39:C40 A3:B3 G3:G8 D8:F8 G11:G12 A5:B11 D11:D12 D11:F11 A13:G14 D16:G1048576 D9:G10">
+    <cfRule type="expression" dxfId="553" priority="510">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21 R5:R7 R11 A20:C22 A5:C6 A3:C3 A2:G2">
-    <cfRule type="expression" dxfId="554" priority="504">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="553" priority="505">
+    <cfRule type="expression" dxfId="552" priority="504">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="551" priority="505">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="552" priority="496">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="551" priority="497">
+    <cfRule type="expression" dxfId="550" priority="496">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="549" priority="497">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="550" priority="494">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="549" priority="495">
+    <cfRule type="expression" dxfId="548" priority="494">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="547" priority="495">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="548" priority="492">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="493">
+    <cfRule type="expression" dxfId="546" priority="492">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="545" priority="493">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="546" priority="490">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="545" priority="491">
+    <cfRule type="expression" dxfId="544" priority="490">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="543" priority="491">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="544" priority="488">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="543" priority="489">
+    <cfRule type="expression" dxfId="542" priority="488">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="541" priority="489">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="542" priority="486">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="487">
+    <cfRule type="expression" dxfId="540" priority="486">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="539" priority="487">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="540" priority="484">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="539" priority="485">
+    <cfRule type="expression" dxfId="538" priority="484">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="537" priority="485">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="538" priority="482">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="537" priority="483">
+    <cfRule type="expression" dxfId="536" priority="482">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="535" priority="483">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="536" priority="480">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="481">
+    <cfRule type="expression" dxfId="534" priority="480">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="533" priority="481">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="534" priority="478">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="479">
+    <cfRule type="expression" dxfId="532" priority="478">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="531" priority="479">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="532" priority="476">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="531" priority="477">
+    <cfRule type="expression" dxfId="530" priority="476">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="529" priority="477">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="530" priority="474">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="475">
+    <cfRule type="expression" dxfId="528" priority="474">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="527" priority="475">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="528" priority="472">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="473">
+    <cfRule type="expression" dxfId="526" priority="472">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="525" priority="473">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26">
-    <cfRule type="expression" dxfId="526" priority="470">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="471">
+    <cfRule type="expression" dxfId="524" priority="470">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="471">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="524" priority="468">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="469">
+    <cfRule type="expression" dxfId="522" priority="468">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="521" priority="469">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="522" priority="466">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="467">
+    <cfRule type="expression" dxfId="520" priority="466">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="519" priority="467">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="520" priority="464">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="519" priority="465">
+    <cfRule type="expression" dxfId="518" priority="464">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="465">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="518" priority="462">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="463">
+    <cfRule type="expression" dxfId="516" priority="462">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="515" priority="463">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="expression" dxfId="516" priority="460">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="461">
+    <cfRule type="expression" dxfId="514" priority="460">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="461">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="expression" dxfId="514" priority="458">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="459">
+    <cfRule type="expression" dxfId="512" priority="458">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="511" priority="459">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="512" priority="456">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="457">
+    <cfRule type="expression" dxfId="510" priority="456">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="509" priority="457">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="510" priority="454">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="455">
+    <cfRule type="expression" dxfId="508" priority="454">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="455">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="508" priority="452">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="453">
+    <cfRule type="expression" dxfId="506" priority="452">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="453">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="506" priority="450">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="451">
+    <cfRule type="expression" dxfId="504" priority="450">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="503" priority="451">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="504" priority="448">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="449">
+    <cfRule type="expression" dxfId="502" priority="448">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="449">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="502" priority="446">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="447">
+    <cfRule type="expression" dxfId="500" priority="446">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="447">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="500" priority="444">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="445">
+    <cfRule type="expression" dxfId="498" priority="444">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="497" priority="445">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="498" priority="442">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="443">
+    <cfRule type="expression" dxfId="496" priority="442">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="495" priority="443">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="496" priority="440">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="441">
+    <cfRule type="expression" dxfId="494" priority="440">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="441">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="494" priority="436">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="437">
+    <cfRule type="expression" dxfId="492" priority="436">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="491" priority="437">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="492" priority="434">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="435">
+    <cfRule type="expression" dxfId="490" priority="434">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="435">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="490" priority="432">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="433">
+    <cfRule type="expression" dxfId="488" priority="432">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="487" priority="433">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="488" priority="430">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="431">
+    <cfRule type="expression" dxfId="486" priority="430">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="431">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="486" priority="426">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="427">
+    <cfRule type="expression" dxfId="484" priority="426">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="427">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="484" priority="424">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="425">
+    <cfRule type="expression" dxfId="482" priority="424">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="425">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="482" priority="422">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="423">
+    <cfRule type="expression" dxfId="480" priority="422">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="479" priority="423">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="480" priority="420">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="421">
+    <cfRule type="expression" dxfId="478" priority="420">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="421">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="478" priority="418">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="419">
+    <cfRule type="expression" dxfId="476" priority="418">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="419">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="476" priority="416">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="417">
+    <cfRule type="expression" dxfId="474" priority="416">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="417">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="474" priority="414">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="415">
+    <cfRule type="expression" dxfId="472" priority="414">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="471" priority="415">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="472" priority="412">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="413">
+    <cfRule type="expression" dxfId="470" priority="412">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="413">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="470" priority="410">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="411">
+    <cfRule type="expression" dxfId="468" priority="410">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="467" priority="411">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="468" priority="408">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="409">
+    <cfRule type="expression" dxfId="466" priority="408">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="409">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="466" priority="406">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="407">
+    <cfRule type="expression" dxfId="464" priority="406">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="463" priority="407">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="464" priority="404">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="405">
+    <cfRule type="expression" dxfId="462" priority="404">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="461" priority="405">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="462" priority="402">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="403">
+    <cfRule type="expression" dxfId="460" priority="402">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="459" priority="403">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="460" priority="400">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="401">
+    <cfRule type="expression" dxfId="458" priority="400">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="457" priority="401">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="458" priority="398">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="399">
+    <cfRule type="expression" dxfId="456" priority="398">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="455" priority="399">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="456" priority="396">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="397">
+    <cfRule type="expression" dxfId="454" priority="396">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="453" priority="397">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="454" priority="394">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="395">
+    <cfRule type="expression" dxfId="452" priority="394">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="451" priority="395">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="452" priority="392">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="393">
+    <cfRule type="expression" dxfId="450" priority="392">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="449" priority="393">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="450" priority="390">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="391">
+    <cfRule type="expression" dxfId="448" priority="390">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="391">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="448" priority="388">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="389">
+    <cfRule type="expression" dxfId="446" priority="388">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="389">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="446" priority="386">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="387">
+    <cfRule type="expression" dxfId="444" priority="386">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="443" priority="387">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="444" priority="384">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="385">
+    <cfRule type="expression" dxfId="442" priority="384">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="385">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="442" priority="382">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="383">
+    <cfRule type="expression" dxfId="440" priority="382">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="383">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="440" priority="380">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="381">
+    <cfRule type="expression" dxfId="438" priority="380">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="437" priority="381">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="438" priority="378">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="379">
+    <cfRule type="expression" dxfId="436" priority="378">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="379">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="436" priority="376">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="377">
+    <cfRule type="expression" dxfId="434" priority="376">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="377">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="434" priority="374">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="375">
+    <cfRule type="expression" dxfId="432" priority="374">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="431" priority="375">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:K34 M34:O34">
-    <cfRule type="expression" dxfId="432" priority="364">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="365">
+    <cfRule type="expression" dxfId="430" priority="364">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="365">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="430" priority="362">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="363">
+    <cfRule type="expression" dxfId="428" priority="362">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="363">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="428" priority="360">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="361">
+    <cfRule type="expression" dxfId="426" priority="360">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="425" priority="361">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="426" priority="356">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="425" priority="357">
+    <cfRule type="expression" dxfId="424" priority="356">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="423" priority="357">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="424" priority="358">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="359">
+    <cfRule type="expression" dxfId="422" priority="358">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="421" priority="359">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="expression" dxfId="422" priority="354">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="355">
+    <cfRule type="expression" dxfId="420" priority="354">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="419" priority="355">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="420" priority="352">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="419" priority="353">
+    <cfRule type="expression" dxfId="418" priority="352">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="353">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="418" priority="350">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="351">
+    <cfRule type="expression" dxfId="416" priority="350">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="351">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="416" priority="348">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="349">
+    <cfRule type="expression" dxfId="414" priority="348">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="413" priority="349">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="414" priority="346">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="347">
+    <cfRule type="expression" dxfId="412" priority="346">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="347">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="412" priority="344">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="345">
+    <cfRule type="expression" dxfId="410" priority="344">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="345">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="410" priority="342">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="343">
+    <cfRule type="expression" dxfId="408" priority="342">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="407" priority="343">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="408" priority="338">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="407" priority="339">
+    <cfRule type="expression" dxfId="406" priority="338">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="339">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="406" priority="340">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="341">
+    <cfRule type="expression" dxfId="404" priority="340">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="341">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="404" priority="336">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="337">
+    <cfRule type="expression" dxfId="402" priority="336">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="337">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="402" priority="334">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="335">
+    <cfRule type="expression" dxfId="400" priority="334">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="335">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="400" priority="332">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="333">
+    <cfRule type="expression" dxfId="398" priority="332">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="333">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="398" priority="330">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="331">
+    <cfRule type="expression" dxfId="396" priority="330">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="331">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="396" priority="328">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="329">
+    <cfRule type="expression" dxfId="394" priority="328">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="329">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="394" priority="326">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="327">
+    <cfRule type="expression" dxfId="392" priority="326">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="327">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="392" priority="324">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="325">
+    <cfRule type="expression" dxfId="390" priority="324">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="325">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="390" priority="322">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="323">
+    <cfRule type="expression" dxfId="388" priority="322">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="323">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="388" priority="320">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="321">
+    <cfRule type="expression" dxfId="386" priority="320">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="321">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="386" priority="318">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="319">
+    <cfRule type="expression" dxfId="384" priority="318">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="319">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="384" priority="316">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="317">
+    <cfRule type="expression" dxfId="382" priority="316">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="317">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="382" priority="314">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="315">
+    <cfRule type="expression" dxfId="380" priority="314">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="315">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="380" priority="312">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="313">
+    <cfRule type="expression" dxfId="378" priority="312">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="313">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="378" priority="310">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="311">
+    <cfRule type="expression" dxfId="376" priority="310">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="311">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="376" priority="308">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="309">
+    <cfRule type="expression" dxfId="374" priority="308">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="309">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="374" priority="306">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="307">
+    <cfRule type="expression" dxfId="372" priority="306">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="307">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="372" priority="304">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="305">
+    <cfRule type="expression" dxfId="370" priority="304">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="305">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="370" priority="302">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="303">
+    <cfRule type="expression" dxfId="368" priority="302">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="303">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="368" priority="300">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="301">
+    <cfRule type="expression" dxfId="366" priority="300">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="301">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="366" priority="298">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="299">
+    <cfRule type="expression" dxfId="364" priority="298">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="299">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="364" priority="296">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="297">
+    <cfRule type="expression" dxfId="362" priority="296">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="297">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="362" priority="294">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="295">
+    <cfRule type="expression" dxfId="360" priority="294">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="295">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="expression" dxfId="360" priority="284">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="285">
+    <cfRule type="expression" dxfId="358" priority="284">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="285">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40">
-    <cfRule type="expression" dxfId="358" priority="282">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="283">
+    <cfRule type="expression" dxfId="356" priority="282">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="283">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41">
-    <cfRule type="expression" dxfId="356" priority="280">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="281">
+    <cfRule type="expression" dxfId="354" priority="280">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="281">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="354" priority="278">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="279">
+    <cfRule type="expression" dxfId="352" priority="278">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="279">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="352" priority="276">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="277">
+    <cfRule type="expression" dxfId="350" priority="276">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="277">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="350" priority="274">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="275">
+    <cfRule type="expression" dxfId="348" priority="274">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="275">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="348" priority="270">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="271">
+    <cfRule type="expression" dxfId="346" priority="270">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="271">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="346" priority="268">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="269">
+    <cfRule type="expression" dxfId="344" priority="268">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="269">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="344" priority="266">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="267">
+    <cfRule type="expression" dxfId="342" priority="266">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="267">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42">
-    <cfRule type="expression" dxfId="342" priority="264">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="265">
+    <cfRule type="expression" dxfId="340" priority="264">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="265">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R42 R40 R19:R38">
-    <cfRule type="expression" dxfId="340" priority="262">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="263">
+    <cfRule type="expression" dxfId="338" priority="262">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="263">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43">
-    <cfRule type="expression" dxfId="338" priority="260">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="261">
+    <cfRule type="expression" dxfId="336" priority="260">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="261">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="336" priority="258">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="259">
+    <cfRule type="expression" dxfId="334" priority="258">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="259">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="334" priority="248">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="249">
+    <cfRule type="expression" dxfId="332" priority="248">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="249">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="332" priority="254">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="255">
+    <cfRule type="expression" dxfId="330" priority="254">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="255">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="330" priority="252">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="253">
+    <cfRule type="expression" dxfId="328" priority="252">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="253">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="328" priority="250">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="251">
+    <cfRule type="expression" dxfId="326" priority="250">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="251">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="326" priority="246">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="247">
+    <cfRule type="expression" dxfId="324" priority="246">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="247">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:S44">
-    <cfRule type="expression" dxfId="324" priority="244">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="245">
+    <cfRule type="expression" dxfId="322" priority="244">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="245">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="322" priority="242">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="243">
+    <cfRule type="expression" dxfId="320" priority="242">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="243">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="320" priority="240">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="241">
+    <cfRule type="expression" dxfId="318" priority="240">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="241">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:I44">
-    <cfRule type="expression" dxfId="318" priority="238">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="239">
+    <cfRule type="expression" dxfId="316" priority="238">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="239">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="316" priority="232">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="233">
+    <cfRule type="expression" dxfId="314" priority="232">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="233">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="314" priority="236">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="237">
+    <cfRule type="expression" dxfId="312" priority="236">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="237">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="312" priority="234">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="235">
+    <cfRule type="expression" dxfId="310" priority="234">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="235">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="310" priority="230">
+    <cfRule type="expression" dxfId="308" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="309" priority="227">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="228">
+    <cfRule type="expression" dxfId="307" priority="227">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="228">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="307" priority="137">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="138">
+    <cfRule type="expression" dxfId="305" priority="137">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="138">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:Q6 S6">
-    <cfRule type="expression" dxfId="305" priority="219">
+    <cfRule type="expression" dxfId="303" priority="219">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="304" priority="207">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="208">
+    <cfRule type="expression" dxfId="302" priority="207">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="208">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="302" priority="205">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="206">
+    <cfRule type="expression" dxfId="300" priority="205">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="206">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="300" priority="199">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="200">
+    <cfRule type="expression" dxfId="298" priority="199">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="200">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:K12 M12:R12">
-    <cfRule type="expression" dxfId="298" priority="196">
+    <cfRule type="expression" dxfId="296" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="297" priority="194">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="195">
+    <cfRule type="expression" dxfId="295" priority="194">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="195">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="295" priority="192">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="193">
+    <cfRule type="expression" dxfId="293" priority="192">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="193">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="293" priority="190">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="191">
+    <cfRule type="expression" dxfId="291" priority="190">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="191">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="291" priority="188">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="189">
+    <cfRule type="expression" dxfId="289" priority="188">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="189">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:O11 Q11 S11">
-    <cfRule type="expression" dxfId="289" priority="169">
-      <formula>MOD(ROW(),2)=0</formula>
+    <cfRule type="expression" dxfId="287" priority="169">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="286" priority="157">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="158">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="expression" dxfId="284" priority="151">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="152">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="expression" dxfId="282" priority="149">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="150">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="280" priority="147">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="148">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="278" priority="139">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="140">
+      <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="288" priority="157">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="158">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="286" priority="151">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="152">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="284" priority="149">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="150">
+    <cfRule type="expression" dxfId="276" priority="131">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="132">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="274" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="130">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="272" priority="127">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="128">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="expression" dxfId="270" priority="122">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="269" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="97">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:G1 E5:F7 E7:E8">
+    <cfRule type="expression" dxfId="267" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="266" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="expression" dxfId="265" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="85">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="263" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="83">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="expression" dxfId="261" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="81">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:K11 M11:R11">
+    <cfRule type="expression" dxfId="259" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="expression" dxfId="258" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="78">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="256" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="76">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="expression" dxfId="254" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="74">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="282" priority="147">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="148">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="280" priority="139">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="140">
+    <cfRule type="expression" dxfId="252" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="72">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="250" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="60">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="278" priority="131">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="132">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="276" priority="129">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="130">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="274" priority="127">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="128">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="272" priority="122">
-      <formula>MOD(ROW(),2)=0</formula>
+    <cfRule type="expression" dxfId="248" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="54">
+      <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="271" priority="96">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="97">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:G1048576 D9:D12 D1:G1 E5:F7 D8:F11 E7:E8">
-    <cfRule type="expression" dxfId="269" priority="89">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="268" priority="86">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="267" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="85">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="265" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="83">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="263" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="81">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11 M11:R11">
-    <cfRule type="expression" dxfId="261" priority="79">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="260" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="78">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="258" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="76">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="256" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="74">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="254" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="72">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="252" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="60">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="250" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="54">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="248" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="49">
+    <cfRule type="expression" dxfId="246" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="49">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="246" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="47">
+    <cfRule type="expression" dxfId="244" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="47">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="244" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="45">
+    <cfRule type="expression" dxfId="242" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="45">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="242" priority="29">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="30">
+    <cfRule type="expression" dxfId="240" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="30">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="240" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="28">
+    <cfRule type="expression" dxfId="238" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="28">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="238" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="26">
+    <cfRule type="expression" dxfId="236" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="26">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="236" priority="41">
+    <cfRule type="expression" dxfId="234" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="235" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="40">
+    <cfRule type="expression" dxfId="233" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="40">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="233" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="38">
+    <cfRule type="expression" dxfId="231" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="38">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="231" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="36">
+    <cfRule type="expression" dxfId="229" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="36">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="229" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="34">
+    <cfRule type="expression" dxfId="227" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="34">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="227" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="32">
+    <cfRule type="expression" dxfId="225" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="32">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="expression" dxfId="225" priority="23">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="24">
+    <cfRule type="expression" dxfId="223" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="24">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="expression" dxfId="223" priority="21">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="22">
+    <cfRule type="expression" dxfId="221" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="22">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="221" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="20">
+    <cfRule type="expression" dxfId="219" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="20">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="219" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="18">
+    <cfRule type="expression" dxfId="217" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="18">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="expression" dxfId="217" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="16">
+    <cfRule type="expression" dxfId="215" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="16">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6">
-    <cfRule type="expression" dxfId="215" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="14">
+    <cfRule type="expression" dxfId="213" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="14">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
-    <cfRule type="expression" dxfId="213" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="12">
+    <cfRule type="expression" dxfId="211" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="12">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="211" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="10">
+    <cfRule type="expression" dxfId="209" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="10">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="209" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="8">
+    <cfRule type="expression" dxfId="207" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="8">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="expression" dxfId="205" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="6">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="expression" dxfId="207" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="6">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="205" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="4">
+    <cfRule type="expression" dxfId="203" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="4">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="expression" dxfId="203" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="2">
+    <cfRule type="expression" dxfId="201" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18653,806 +18663,806 @@
     <sortCondition descending="1" ref="A21:A37"/>
   </sortState>
   <conditionalFormatting sqref="P9:XFD9 P15:XFD15 AA35:XFD35 A31:I31 K31:M31 A20:M20 A17:E17 A2:M2 G27:K27 H26:K26 C26:E27 K29:M29 C29:E29 G29:I29 B33 K33:L33 E33:I33 A24:K24 L24:L28 G35:I35 C35:E35 K35:L35 A25:A31 B36:I36 N9 A15:N15 N2:XFD8 N10:XFD12 N19:XFD31 C22:E23 G22:L23 A21:A23 A1:XFD1 A13:XFD14 A16:XFD16 A38:XFD1048576 A18:XFD18 G17:XFD17 N33:XFD34 N35 K36:XFD36 N37:XFD37">
-    <cfRule type="expression" dxfId="201" priority="240">
+    <cfRule type="expression" dxfId="199" priority="240">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="200" priority="230">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="231">
+    <cfRule type="expression" dxfId="198" priority="230">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="231">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 D21:K21 M21">
-    <cfRule type="expression" dxfId="198" priority="228">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="229">
+    <cfRule type="expression" dxfId="196" priority="228">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="229">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="196" priority="226">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="227">
+    <cfRule type="expression" dxfId="194" priority="226">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="227">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="expression" dxfId="194" priority="224">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="225">
+    <cfRule type="expression" dxfId="192" priority="224">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="225">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="192" priority="222">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="223">
+    <cfRule type="expression" dxfId="190" priority="222">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="223">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="190" priority="218">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="219">
+    <cfRule type="expression" dxfId="188" priority="218">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="219">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="188" priority="216">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="217">
+    <cfRule type="expression" dxfId="186" priority="216">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="217">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="186" priority="204">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="205">
+    <cfRule type="expression" dxfId="184" priority="204">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="205">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="184" priority="212">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="213">
+    <cfRule type="expression" dxfId="182" priority="212">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="213">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="182" priority="210">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="211">
+    <cfRule type="expression" dxfId="180" priority="210">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="211">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="180" priority="208">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="209">
+    <cfRule type="expression" dxfId="178" priority="208">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="209">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="178" priority="202">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="203">
+    <cfRule type="expression" dxfId="176" priority="202">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="203">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="176" priority="200">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="201">
+    <cfRule type="expression" dxfId="174" priority="200">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="201">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="174" priority="198">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="199">
+    <cfRule type="expression" dxfId="172" priority="198">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="199">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="172" priority="196">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="197">
+    <cfRule type="expression" dxfId="170" priority="196">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="197">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="170" priority="194">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="195">
+    <cfRule type="expression" dxfId="168" priority="194">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="195">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="expression" dxfId="168" priority="192">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="193">
+    <cfRule type="expression" dxfId="166" priority="192">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="193">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="166" priority="190">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="191">
+    <cfRule type="expression" dxfId="164" priority="190">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="191">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="164" priority="188">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="189">
+    <cfRule type="expression" dxfId="162" priority="188">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="189">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="162" priority="186">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="187">
+    <cfRule type="expression" dxfId="160" priority="186">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="187">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="160" priority="184">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="185">
+    <cfRule type="expression" dxfId="158" priority="184">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="185">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="158" priority="182">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="183">
+    <cfRule type="expression" dxfId="156" priority="182">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="183">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="156" priority="180">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="181">
+    <cfRule type="expression" dxfId="154" priority="180">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="181">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="154" priority="168">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="169">
+    <cfRule type="expression" dxfId="152" priority="168">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="169">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E28 G28:K28 M28">
-    <cfRule type="expression" dxfId="152" priority="176">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="177">
+    <cfRule type="expression" dxfId="150" priority="176">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="177">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="150" priority="174">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="175">
+    <cfRule type="expression" dxfId="148" priority="174">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="175">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="148" priority="172">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="173">
+    <cfRule type="expression" dxfId="146" priority="172">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="173">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="146" priority="170">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="171">
+    <cfRule type="expression" dxfId="144" priority="170">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="171">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="144" priority="166">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="167">
+    <cfRule type="expression" dxfId="142" priority="166">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="167">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="142" priority="164">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="165">
+    <cfRule type="expression" dxfId="140" priority="164">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="165">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="140" priority="162">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="163">
+    <cfRule type="expression" dxfId="138" priority="162">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="163">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="138" priority="158">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="159">
+    <cfRule type="expression" dxfId="136" priority="158">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="159">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="136" priority="160">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="161">
+    <cfRule type="expression" dxfId="134" priority="160">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="161">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:M30">
-    <cfRule type="expression" dxfId="134" priority="156">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="157">
+    <cfRule type="expression" dxfId="132" priority="156">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="157">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:XFD32">
-    <cfRule type="expression" dxfId="132" priority="154">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="155">
+    <cfRule type="expression" dxfId="130" priority="154">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="155">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="130" priority="152">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="153">
+    <cfRule type="expression" dxfId="128" priority="152">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="153">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="128" priority="144">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="145">
+    <cfRule type="expression" dxfId="126" priority="144">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="145">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="126" priority="142">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="143">
+    <cfRule type="expression" dxfId="124" priority="142">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="143">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="124" priority="140">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="141">
+    <cfRule type="expression" dxfId="122" priority="140">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="141">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D33">
-    <cfRule type="expression" dxfId="122" priority="138">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="139">
+    <cfRule type="expression" dxfId="120" priority="138">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="139">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="expression" dxfId="120" priority="136">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="137">
+    <cfRule type="expression" dxfId="118" priority="136">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="137">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="118" priority="128">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="129">
+    <cfRule type="expression" dxfId="116" priority="128">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="129">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:K34">
-    <cfRule type="expression" dxfId="116" priority="132">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="133">
+    <cfRule type="expression" dxfId="114" priority="132">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="133">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="114" priority="130">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="131">
+    <cfRule type="expression" dxfId="112" priority="130">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="131">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="112" priority="126">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="127">
+    <cfRule type="expression" dxfId="110" priority="126">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="127">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="110" priority="124">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="125">
+    <cfRule type="expression" dxfId="108" priority="124">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="125">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="108" priority="122">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="123">
+    <cfRule type="expression" dxfId="106" priority="122">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="123">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="106" priority="120">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="121">
+    <cfRule type="expression" dxfId="104" priority="120">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="121">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="104" priority="118">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="119">
+    <cfRule type="expression" dxfId="102" priority="118">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="119">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="expression" dxfId="102" priority="116">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="117">
+    <cfRule type="expression" dxfId="100" priority="116">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="117">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="100" priority="114">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="115">
+    <cfRule type="expression" dxfId="98" priority="114">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="115">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="98" priority="112">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="113">
+    <cfRule type="expression" dxfId="96" priority="112">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="113">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="96" priority="110">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="111">
+    <cfRule type="expression" dxfId="94" priority="110">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="111">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="94" priority="104">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="105">
+    <cfRule type="expression" dxfId="92" priority="104">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="105">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="92" priority="106">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="107">
+    <cfRule type="expression" dxfId="90" priority="106">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="107">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="90" priority="102">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
+    <cfRule type="expression" dxfId="88" priority="102">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="103">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="88" priority="100">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="101">
+    <cfRule type="expression" dxfId="86" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="101">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="86" priority="98">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="99">
+    <cfRule type="expression" dxfId="84" priority="98">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="99">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="84" priority="96">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="97">
+    <cfRule type="expression" dxfId="82" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="97">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:M37">
-    <cfRule type="expression" dxfId="82" priority="94">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95">
+    <cfRule type="expression" dxfId="80" priority="94">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="95">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4 G4:J4 A3:A4 L4">
-    <cfRule type="expression" dxfId="80" priority="92">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="93">
+    <cfRule type="expression" dxfId="78" priority="92">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="93">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 D3:K3 M3">
-    <cfRule type="expression" dxfId="78" priority="90">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="91">
+    <cfRule type="expression" dxfId="76" priority="90">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="91">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="76" priority="88">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="89">
+    <cfRule type="expression" dxfId="74" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="89">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="74" priority="86">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="87">
+    <cfRule type="expression" dxfId="72" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="87">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="72" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="85">
+    <cfRule type="expression" dxfId="70" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="85">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="70" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="83">
+    <cfRule type="expression" dxfId="68" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="83">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="68" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="81">
+    <cfRule type="expression" dxfId="66" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="81">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8 C8:E8 G8:I8 L7 A7:A8">
-    <cfRule type="expression" dxfId="66" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="64" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="79">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="64" priority="68">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="69">
+    <cfRule type="expression" dxfId="62" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="69">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7 G7:K7 M7">
-    <cfRule type="expression" dxfId="62" priority="76">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="77">
+    <cfRule type="expression" dxfId="60" priority="76">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="77">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="60" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="75">
+    <cfRule type="expression" dxfId="58" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="75">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="58" priority="72">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="73">
+    <cfRule type="expression" dxfId="56" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="73">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="56" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="71">
+    <cfRule type="expression" dxfId="54" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="71">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="54" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="67">
+    <cfRule type="expression" dxfId="52" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="67">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="52" priority="64">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="65">
+    <cfRule type="expression" dxfId="50" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="65">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="50" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="63">
+    <cfRule type="expression" dxfId="48" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="63">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="48" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="59">
+    <cfRule type="expression" dxfId="46" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="59">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="46" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="61">
+    <cfRule type="expression" dxfId="44" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="61">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:M11">
-    <cfRule type="expression" dxfId="44" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="57">
+    <cfRule type="expression" dxfId="42" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="57">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 L10 E10:I10">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:D10">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5 G5:J5 A5 L5">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6 L6">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19485,31 +19495,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="H2" s="103" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="H2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="103"/>
+      <c r="K2" s="102"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="103" t="s">
+      <c r="N2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
     </row>
     <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">

--- a/mdm_z/atherosclerosis_review.xlsx
+++ b/mdm_z/atherosclerosis_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Documents\CodeProjects\ACE\mdm_z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518BF09-A042-4C78-B903-48437E9456CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314BEA1-AE22-4324-9950-AF3888579184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19470" yWindow="840" windowWidth="18960" windowHeight="11835" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
+    <workbookView xWindow="-24465" yWindow="4365" windowWidth="18960" windowHeight="11835" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chol Null" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="437">
   <si>
     <t>Measure</t>
   </si>
@@ -3349,17 +3349,7 @@
   </si>
   <si>
     <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
+      <t>α</t>
     </r>
     <r>
       <rPr>
@@ -3369,13 +3359,14 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rδ</t>
     </r>
     <r>
       <rPr>
@@ -3387,12 +3378,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
     </r>
     <r>
       <rPr>
@@ -3404,8 +3395,284 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <t>Null Results for Total Plasma Cholesterol</t>
+  </si>
+  <si>
+    <t>Positive Results for Total Plasma Cholesterol</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <r>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P2Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LDLr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WTD -IF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LDLr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WTD +IF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LDLr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -IF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LDLr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +IF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rδ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rx̅</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DM</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3413,13 +3680,727 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyp17a1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WTD ♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyp17a1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WTD ♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +0.5% choline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1% choline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ldlr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fxr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ♀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ldlr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fxr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ♀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyp17a1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chow ♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyp17a1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chow ♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chow -Abx ♀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">–/– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chow +Abx ♀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + BM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">–/– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chow -Abx ♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">–/– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chow +Abx ♂</t>
+    </r>
+  </si>
+  <si>
+    <t>21475195, F5E</t>
+  </si>
+  <si>
+    <t>24797634, F1C</t>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>̅</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−/−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cyp17A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cyp17A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−/−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−/−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -3429,13 +4410,14 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -3447,8 +4429,268 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <t>LNA-Control</t>
+  </si>
+  <si>
+    <t>27137489, F1C</t>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Yaa</t>
+    </r>
+  </si>
+  <si>
+    <t>33110193, F1A</t>
+  </si>
+  <si>
+    <r>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>µm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LDLr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fxr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>♀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LDLr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fxr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–/–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>♀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">–/– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+Abx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApoE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">–/– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Abx</t>
+    </r>
+  </si>
+  <si>
+    <t>Prox. -Sten.</t>
+  </si>
+  <si>
+    <t>Prox. +Sten.</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>AOE</t>
+  </si>
+  <si>
+    <t>16825595, F2B</t>
+  </si>
+  <si>
+    <t>Group A</t>
   </si>
   <si>
     <r>
@@ -3464,12 +4706,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>α</t>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
     </r>
     <r>
       <rPr>
@@ -3479,14 +4731,13 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>rδ</t>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -3498,12 +4749,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>δ</t>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -3515,283 +4766,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <t>Null Results for Total Plasma Cholesterol</t>
-  </si>
-  <si>
-    <t>Positive Results for Total Plasma Cholesterol</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <r>
-      <t>mm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P2Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LDLr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WTD -IF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LDLr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WTD +IF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LDLr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -IF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LDLr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +IF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>rδ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>δ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>rx̅</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DM</t>
+      <t>B</t>
     </r>
   </si>
   <si>
@@ -3800,727 +4775,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <b/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>̅</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cyp17a1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WTD ♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cyp17a1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WTD ♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +0.5% choline</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1% choline</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ldlr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Fxr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ♀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ldlr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Fxr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ♀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cyp17a1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Chow ♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cyp17a1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Chow ♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Chow -Abx ♀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">–/– </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chow +Abx ♀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + BM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">–/– </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chow -Abx ♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">–/– </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chow +Abx ♂</t>
-    </r>
-  </si>
-  <si>
-    <t>21475195, F5E</t>
-  </si>
-  <si>
-    <t>24797634, F1C</t>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−/−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD6</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cyp17A</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cyp17A</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−/−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD6</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−/−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -4532,12 +4793,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -4549,265 +4810,109 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <t>LNA-Control</t>
-  </si>
-  <si>
-    <t>27137489, F1C</t>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Yaa</t>
-    </r>
-  </si>
-  <si>
-    <t>33110193, F1A</t>
-  </si>
-  <si>
-    <r>
-      <t>mm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>µm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LDLr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Fxr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>♀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LDLr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Fxr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–/–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>♀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">–/– </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+Abx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApoE</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">–/– </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Abx</t>
-    </r>
-  </si>
-  <si>
-    <t>Prox. -Sten.</t>
-  </si>
-  <si>
-    <t>Prox. +Sten.</t>
-  </si>
-  <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t>AOE</t>
-  </si>
-  <si>
-    <t>16825595, F2B</t>
+      <t>Y</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5142,7 +5247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5361,9 +5466,6 @@
     <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5403,12 +5505,6 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -5430,12 +5526,72 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="595">
+  <dxfs count="601">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10193,8 +10349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F0DCD-E304-4017-B7AF-97A0978AC45D}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10238,69 +10394,69 @@
   <sheetData>
     <row r="1" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>373</v>
-      </c>
-      <c r="G2" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="56" t="s">
+      <c r="H2" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>431</v>
+      </c>
+      <c r="K2" s="108" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" s="109" t="s">
+        <v>430</v>
+      </c>
+      <c r="M2" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="N2" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="O2" s="108" t="s">
+        <v>436</v>
+      </c>
+      <c r="P2" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="J2" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="P2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="56" t="s">
-        <v>427</v>
+      <c r="T2" s="108" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10322,7 +10478,7 @@
       <c r="F3" s="34">
         <v>0.851980223093454</v>
       </c>
-      <c r="G3" s="89">
+      <c r="G3" s="88">
         <f t="shared" ref="G3:G11" si="0">-(I3-M3)/I3</f>
         <v>-5.5072463768116052E-2</v>
       </c>
@@ -10362,10 +10518,10 @@
         <v>308</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="T3" s="100" t="s">
-        <v>426</v>
+        <v>400</v>
+      </c>
+      <c r="T3" s="99" t="s">
+        <v>420</v>
       </c>
       <c r="Y3" s="48"/>
     </row>
@@ -10388,12 +10544,12 @@
       <c r="F4" s="34">
         <v>0.56906030560818099</v>
       </c>
-      <c r="G4" s="89">
+      <c r="G4" s="88">
         <f t="shared" si="0"/>
         <v>-5.7553956834532377E-2</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I4" s="15">
         <v>1251</v>
@@ -10428,8 +10584,8 @@
       <c r="S4" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="100" t="s">
-        <v>426</v>
+      <c r="T4" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10451,12 +10607,12 @@
       <c r="F5" s="34">
         <v>0.45717000666624003</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="88">
         <f t="shared" si="0"/>
         <v>4.3668122270741428E-3</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I5" s="15">
         <v>2.29</v>
@@ -10469,7 +10625,7 @@
         <v>7</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M5" s="15">
         <v>2.2999999999999998</v>
@@ -10514,7 +10670,7 @@
       <c r="F6" s="34">
         <v>0.49667580631239</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="88">
         <f t="shared" si="0"/>
         <v>7.0921985815602842E-2</v>
       </c>
@@ -10558,130 +10714,130 @@
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>0.30860369698662699</v>
-      </c>
-      <c r="B7" s="28">
-        <v>729.20242348297995</v>
+        <v>0.30345351551815197</v>
+      </c>
+      <c r="B7" s="30">
+        <v>33.980127101269801</v>
       </c>
       <c r="C7" s="34">
-        <v>0.89209842929858996</v>
+        <v>-0.40808436225286598</v>
       </c>
       <c r="D7" s="34">
-        <v>0.157069703569087</v>
+        <v>0.27326955878815201</v>
       </c>
       <c r="E7" s="34">
-        <v>0.94722941186061105</v>
+        <v>1</v>
       </c>
       <c r="F7" s="34">
-        <v>1.12553466960461</v>
-      </c>
-      <c r="G7" s="89">
-        <f>-(I7-M7)/I7</f>
-        <v>0.14217633042096903</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2518</v>
-      </c>
-      <c r="J7" s="15">
-        <v>257</v>
+        <v>0.55115140592292</v>
+      </c>
+      <c r="G7" s="88">
+        <f t="shared" ref="G7" si="1">-(I7-M7)/I7</f>
+        <v>-0.11132254995242616</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="28">
+        <v>105.1</v>
+      </c>
+      <c r="J7" s="28">
+        <f>7.2 * SQRT(K7)</f>
+        <v>27.885480092693403</v>
       </c>
       <c r="K7" s="15">
-        <v>8</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>410</v>
+        <v>15</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="M7" s="15">
-        <v>2876</v>
-      </c>
-      <c r="N7" s="15">
-        <v>506</v>
+        <v>93.4</v>
+      </c>
+      <c r="N7" s="28">
+        <f>7.6 * SQRT(O7)</f>
+        <v>29.434673431176368</v>
       </c>
       <c r="O7" s="15">
-        <v>6</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0.05</v>
+        <v>15</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>308</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="T7" s="100" t="s">
-        <v>426</v>
+        <v>187</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>0.30345351551815197</v>
-      </c>
-      <c r="B8" s="30">
-        <v>33.980127101269801</v>
+        <v>0.30860369698662699</v>
+      </c>
+      <c r="B8" s="28">
+        <v>729.20242348297995</v>
       </c>
       <c r="C8" s="34">
-        <v>-0.40808436225286598</v>
+        <v>0.89209842929858996</v>
       </c>
       <c r="D8" s="34">
-        <v>0.27326955878815201</v>
+        <v>0.157069703569087</v>
       </c>
       <c r="E8" s="34">
-        <v>1</v>
+        <v>0.94722941186061105</v>
       </c>
       <c r="F8" s="34">
-        <v>0.55115140592292</v>
-      </c>
-      <c r="G8" s="89">
-        <f t="shared" ref="G8" si="1">-(I8-M8)/I8</f>
-        <v>-0.11132254995242616</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="28">
-        <v>105.1</v>
-      </c>
-      <c r="J8" s="28">
-        <f>7.2 * SQRT(K8)</f>
-        <v>27.885480092693403</v>
+        <v>1.12553466960461</v>
+      </c>
+      <c r="G8" s="88">
+        <f>-(I8-M8)/I8</f>
+        <v>0.14217633042096903</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2518</v>
+      </c>
+      <c r="J8" s="15">
+        <v>257</v>
       </c>
       <c r="K8" s="15">
-        <v>15</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>243</v>
+        <v>8</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="M8" s="15">
-        <v>93.4</v>
-      </c>
-      <c r="N8" s="28">
-        <f>7.6 * SQRT(O8)</f>
-        <v>29.434673431176368</v>
+        <v>2876</v>
+      </c>
+      <c r="N8" s="15">
+        <v>506</v>
       </c>
       <c r="O8" s="15">
-        <v>15</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>359</v>
+        <v>6</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.05</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>308</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="T8" s="100" t="s">
-        <v>426</v>
+        <v>194</v>
+      </c>
+      <c r="T8" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10703,7 +10859,7 @@
       <c r="F9" s="34">
         <v>0.43322506677697697</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="88">
         <v>-2.3970037453183522E-2</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -10744,8 +10900,8 @@
       <c r="S9" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="T9" s="100" t="s">
-        <v>426</v>
+      <c r="T9" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10767,7 +10923,7 @@
       <c r="F10" s="34">
         <v>1.00171580801154</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="88">
         <f t="shared" si="0"/>
         <v>0.30633802816901406</v>
       </c>
@@ -10830,7 +10986,7 @@
       <c r="F11" s="34">
         <v>0.62062434824087698</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="88">
         <f t="shared" si="0"/>
         <v>0.36607142857142871</v>
       </c>
@@ -10870,19 +11026,19 @@
       <c r="S11" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="T11" s="100" t="s">
-        <v>426</v>
+      <c r="T11" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="34"/>
       <c r="G12" s="16"/>
       <c r="H12" s="33"/>
       <c r="J12" s="28"/>
       <c r="L12" s="17"/>
       <c r="N12" s="30"/>
-      <c r="T12" s="100"/>
+      <c r="T12" s="99"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
@@ -10907,14 +11063,14 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="89"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="33"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="L13" s="17"/>
       <c r="N13" s="28"/>
       <c r="P13" s="29"/>
-      <c r="T13" s="100"/>
+      <c r="T13" s="99"/>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
@@ -12300,112 +12456,112 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S11">
     <sortCondition ref="A3:A11"/>
   </sortState>
-  <conditionalFormatting sqref="W6:XFD6 T34:XFD34 T36:XFD36 B1:XFD1 R6:U6 B10:F11 Z3:XFD3 Y9:XFD9 R4:XFD5 T10:XFD11 AD16:XFD21 A34:P34 A35:XFD35 A37:XFD1048576 A3:X3 A2:XFD2 A22:XFD33 A16:X21 A36:G36 A12:XFD12 A14:XFD15 U13:XFD13 U8:XFD8 R7:XFD7 A9:U9 A4:Q7">
-    <cfRule type="expression" dxfId="594" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="593" priority="49">
+  <conditionalFormatting sqref="W6:XFD6 T34:XFD34 T36:XFD36 B1:XFD1 R6:U6 B10:F11 Z3:XFD3 Y9:XFD9 R4:XFD5 T10:XFD11 AD16:XFD21 A34:P34 A35:XFD35 A37:XFD1048576 A3:X3 A2:XFD2 A22:XFD33 A16:X21 A36:G36 A12:XFD12 A9:U9 A4:Q6 A15:XFD15 U13:XFD14 A7:XFD8">
+    <cfRule type="expression" dxfId="600" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="599" priority="49">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:S34">
-    <cfRule type="expression" dxfId="592" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="591" priority="35">
+    <cfRule type="expression" dxfId="598" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="597" priority="35">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="590" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="33">
+    <cfRule type="expression" dxfId="596" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="595" priority="33">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="588" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="587" priority="31">
+    <cfRule type="expression" dxfId="594" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="593" priority="31">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36">
-    <cfRule type="expression" dxfId="586" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="585" priority="29">
+    <cfRule type="expression" dxfId="592" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="591" priority="29">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="584" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="27">
+    <cfRule type="expression" dxfId="590" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="589" priority="27">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="582" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="23">
+    <cfRule type="expression" dxfId="588" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="587" priority="23">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="580" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="21">
+    <cfRule type="expression" dxfId="586" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="585" priority="21">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:S10">
-    <cfRule type="expression" dxfId="578" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="13">
+    <cfRule type="expression" dxfId="584" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="583" priority="13">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="576" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="575" priority="11">
+    <cfRule type="expression" dxfId="582" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="581" priority="11">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11 R11:S11 G10:P11">
-    <cfRule type="expression" dxfId="574" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="573" priority="15">
+    <cfRule type="expression" dxfId="580" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="579" priority="15">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:AC21">
-    <cfRule type="expression" dxfId="572" priority="5">
+    <cfRule type="expression" dxfId="578" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:T13">
-    <cfRule type="expression" dxfId="571" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="570" priority="4">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:T8">
-    <cfRule type="expression" dxfId="569" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="2">
+    <cfRule type="expression" dxfId="577" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="576" priority="4">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:T7">
+    <cfRule type="expression" dxfId="575" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="574" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12418,7 +12574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72E46EB-EFC0-49AE-9709-D9D6BDFCCEF6}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12453,53 +12611,59 @@
     <col min="31" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="109" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+    </row>
+    <row r="3" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>-0.20735117858569715</v>
       </c>
@@ -12540,7 +12704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>-0.28749401054144708</v>
       </c>
@@ -12581,7 +12745,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <f>(G5-C5)/C5</f>
         <v>-0.30037453183520602</v>
@@ -12625,7 +12789,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <f>(G6-C6)/C6</f>
         <v>-0.30962343096234318</v>
@@ -12669,7 +12833,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <f>(G7-C7)/C7</f>
         <v>-0.33069306930693076</v>
@@ -12713,7 +12877,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <f>(G8-C8)/C8</f>
         <v>-0.35714285714285715</v>
@@ -12757,7 +12921,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>-0.45140388768898487</v>
       </c>
@@ -12798,7 +12962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>-0.55919003115264798</v>
       </c>
@@ -12839,7 +13003,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>-0.57999999999999996</v>
       </c>
@@ -12880,17 +13044,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="F12" s="17"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="24"/>
       <c r="C14" s="22"/>
@@ -12905,7 +13069,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -12919,7 +13083,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="24"/>
       <c r="C16" s="22"/>
@@ -13539,59 +13703,67 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M11">
     <sortCondition descending="1" ref="A3:A11"/>
   </sortState>
-  <conditionalFormatting sqref="Q7:XFD7 N7:O7 Q13:XFD13 N2:XFD6 AB35:XFD35 A13:O13 A31:I31 K31:M31 A15:E15 A29 E29:L29 A18:M28 B1:XFD1 N8:XFD12 A14:XFD14 A32:XFD34 A36:XFD1048576 A35:O35 G15:XFD15 A2:M9 N17:XFD31 A30:M30 A16:XFD16">
-    <cfRule type="expression" dxfId="567" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="566" priority="38">
+  <conditionalFormatting sqref="Q7:XFD7 N7:O7 Q13:XFD13 N2:XFD6 AB35:XFD35 A13:O13 A31:I31 K31:M31 A15:E15 A29 E29:L29 A18:M28 B1:XFD1 N8:XFD12 A14:XFD14 A32:XFD34 A36:XFD1048576 A35:O35 G15:XFD15 A3:M9 N17:XFD31 A30:M30 A16:XFD16 A2 J2:M2">
+    <cfRule type="expression" dxfId="573" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="572" priority="40">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="565" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="564" priority="14">
+    <cfRule type="expression" dxfId="571" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="570" priority="16">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="563" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="562" priority="12">
+    <cfRule type="expression" dxfId="569" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="568" priority="14">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="561" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="560" priority="10">
+    <cfRule type="expression" dxfId="567" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="566" priority="12">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 E10:L10 A11:M12">
-    <cfRule type="expression" dxfId="559" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="558" priority="6">
+    <cfRule type="expression" dxfId="565" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="564" priority="8">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="expression" dxfId="557" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="4">
+    <cfRule type="expression" dxfId="563" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="562" priority="6">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="555" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="554" priority="2">
+    <cfRule type="expression" dxfId="561" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="560" priority="4">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="expression" dxfId="559" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="558" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13604,8 +13776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B673FAB6-1E3C-4258-9C8D-D9DBE685A34B}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
@@ -13667,57 +13839,57 @@
       <c r="R1" s="15"/>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:36" s="88" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>361</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>169</v>
+        <v>430</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="O2" s="56" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="P2" s="56" t="s">
         <v>47</v>
       </c>
       <c r="Q2" s="56" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="R2" s="56" t="s">
         <v>303</v>
@@ -13726,7 +13898,7 @@
         <v>172</v>
       </c>
       <c r="T2" s="56" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -13736,7 +13908,7 @@
       <c r="B3" s="40">
         <v>6.5599316794289297</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="96">
         <v>0.61999379158845302</v>
       </c>
       <c r="D3" s="15">
@@ -13749,49 +13921,49 @@
         <v>0.75065005931402995</v>
       </c>
       <c r="G3" s="16">
-        <f>(M3-I3)/I3</f>
+        <f t="shared" ref="G3:G11" si="0">(M3-I3)/I3</f>
         <v>5.5214723926380431E-2</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="92">
+      <c r="I3" s="91">
         <v>48.9</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="91">
         <v>3.3</v>
       </c>
-      <c r="K3" s="92">
+      <c r="K3" s="91">
         <v>9</v>
       </c>
-      <c r="L3" s="91" t="s">
-        <v>413</v>
-      </c>
-      <c r="M3" s="92">
+      <c r="L3" s="90" t="s">
+        <v>407</v>
+      </c>
+      <c r="M3" s="91">
         <v>51.6</v>
       </c>
-      <c r="N3" s="92">
+      <c r="N3" s="91">
         <v>5.2</v>
       </c>
-      <c r="O3" s="92">
+      <c r="O3" s="91">
         <v>13</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="R3" s="92" t="s">
+      <c r="R3" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="S3" s="91" t="s">
-        <v>414</v>
-      </c>
-      <c r="T3" s="100" t="s">
-        <v>426</v>
-      </c>
-      <c r="U3" s="100"/>
+      <c r="S3" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="T3" s="99" t="s">
+        <v>420</v>
+      </c>
+      <c r="U3" s="99"/>
     </row>
     <row r="4" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
@@ -13800,7 +13972,7 @@
       <c r="B4" s="44">
         <v>132047.55883083699</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="97">
         <v>3.5713564070074102E-2</v>
       </c>
       <c r="D4" s="44">
@@ -13813,44 +13985,44 @@
         <v>0.42833084817045303</v>
       </c>
       <c r="G4" s="16">
-        <f>(M4-I4)/I4</f>
+        <f t="shared" si="0"/>
         <v>7.1802543006731492E-3</v>
       </c>
-      <c r="H4" s="93" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" s="94">
+      <c r="H4" s="92" t="s">
+        <v>409</v>
+      </c>
+      <c r="I4" s="93">
         <v>668500</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="93">
         <v>106700</v>
       </c>
-      <c r="K4" s="94">
+      <c r="K4" s="93">
         <v>8</v>
       </c>
-      <c r="L4" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="M4" s="94">
+      <c r="L4" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="M4" s="93">
         <v>673300</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <v>157300</v>
       </c>
-      <c r="O4" s="94">
+      <c r="O4" s="93">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="Q4" s="93">
         <v>0.05</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="S4" s="93" t="s">
-        <v>417</v>
+      <c r="S4" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -13859,10 +14031,10 @@
       <c r="A5" s="51">
         <v>0.26359851262496098</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="94">
         <v>104323.157854545</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="98">
         <v>5.0486469068246699E-2</v>
       </c>
       <c r="D5" s="53">
@@ -13875,7 +14047,7 @@
         <v>0.35124519657054598</v>
       </c>
       <c r="G5" s="16">
-        <f>(M5-I5)/I5</f>
+        <f t="shared" si="0"/>
         <v>-1.9669504201611735E-2</v>
       </c>
       <c r="H5" s="52" t="s">
@@ -13914,8 +14086,8 @@
       <c r="S5" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="T5" s="100" t="s">
-        <v>426</v>
+      <c r="T5" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -13925,7 +14097,7 @@
       <c r="B6" s="28">
         <v>120.628600719123</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="96">
         <v>0.91323124927187205</v>
       </c>
       <c r="D6" s="15">
@@ -13938,7 +14110,7 @@
         <v>1.2343254517573801</v>
       </c>
       <c r="G6" s="16">
-        <f>(M6-I6)/I6</f>
+        <f t="shared" si="0"/>
         <v>-0.18055555555555555</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -13977,18 +14149,18 @@
       <c r="S6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="T6" s="100" t="s">
-        <v>426</v>
+      <c r="T6" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51">
         <v>0.50762085262478696</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="95">
         <v>13.450786681903899</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="98">
         <v>0.39130715079531098</v>
       </c>
       <c r="D7" s="53">
@@ -14001,11 +14173,11 @@
         <v>0.53185997443182498</v>
       </c>
       <c r="G7" s="16">
-        <f>(M7-I7)/I7</f>
+        <f t="shared" si="0"/>
         <v>-0.16017316017316027</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I7" s="53">
         <v>23.1</v>
@@ -14017,12 +14189,12 @@
         <v>7</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M7" s="53">
         <v>19.399999999999999</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="95">
         <v>7.15</v>
       </c>
       <c r="O7" s="53">
@@ -14038,10 +14210,10 @@
         <v>308</v>
       </c>
       <c r="S7" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="T7" s="100" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -14051,7 +14223,7 @@
       <c r="B8" s="34">
         <v>0.56557243173793503</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="96">
         <v>0.25180073430266697</v>
       </c>
       <c r="D8" s="15">
@@ -14064,57 +14236,57 @@
         <v>0.46608805098768102</v>
       </c>
       <c r="G8" s="16">
-        <f>(M8-I8)/I8</f>
+        <f t="shared" si="0"/>
         <v>-0.13464235624123419</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="93">
         <v>0.71299999999999997</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="93">
         <v>0.29699999999999999</v>
       </c>
-      <c r="K8" s="94">
+      <c r="K8" s="93">
         <v>8</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="93">
         <v>0.61699999999999999</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <v>0.45</v>
       </c>
-      <c r="O8" s="94">
+      <c r="O8" s="93">
         <v>8</v>
       </c>
-      <c r="P8" s="94" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q8" s="94" t="s">
+      <c r="P8" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="R8" s="94" t="s">
+      <c r="R8" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="S8" s="93" t="s">
+      <c r="S8" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="T8" s="100" t="s">
-        <v>426</v>
+      <c r="T8" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>1.32890473186248</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="95">
         <v>31.1213947794216</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="98">
         <v>0.12847995194645101</v>
       </c>
       <c r="D9" s="53">
@@ -14127,57 +14299,57 @@
         <v>0.37030064190211498</v>
       </c>
       <c r="G9" s="51">
-        <f>(M9-I9)/I9</f>
+        <f t="shared" si="0"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="H9" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="I9" s="105">
+      <c r="H9" s="101" t="s">
+        <v>418</v>
+      </c>
+      <c r="I9" s="102">
         <v>36</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="102">
         <v>23</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="102">
         <v>15</v>
       </c>
-      <c r="L9" s="104" t="s">
-        <v>425</v>
-      </c>
-      <c r="M9" s="105">
+      <c r="L9" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="M9" s="102">
         <v>41</v>
       </c>
-      <c r="N9" s="105">
+      <c r="N9" s="102">
         <v>50</v>
       </c>
-      <c r="O9" s="105">
+      <c r="O9" s="102">
         <v>13</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="102">
         <v>0.05</v>
       </c>
-      <c r="R9" s="105" t="s">
+      <c r="R9" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="S9" s="104" t="s">
+      <c r="S9" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="T9" s="106" t="s">
-        <v>426</v>
+      <c r="T9" s="103" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>2.2018381936729998</v>
       </c>
-      <c r="B10" s="107">
+      <c r="B10" s="104">
         <v>260591.76365234001</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="97">
         <v>3.9523876652813497E-2</v>
       </c>
       <c r="D10" s="44">
@@ -14190,57 +14362,57 @@
         <v>0.54470925070932796</v>
       </c>
       <c r="G10" s="50">
-        <f>(M10-I10)/I10</f>
+        <f t="shared" si="0"/>
         <v>1.8032205992361904E-2</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="105" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="106">
         <v>304788</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="106">
         <v>113425</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="106">
         <v>4</v>
       </c>
-      <c r="L10" s="108" t="s">
+      <c r="L10" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="M10" s="109">
+      <c r="M10" s="106">
         <v>310284</v>
       </c>
-      <c r="N10" s="109">
+      <c r="N10" s="106">
         <v>160647</v>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="106">
         <v>3</v>
       </c>
-      <c r="P10" s="109" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q10" s="109" t="s">
+      <c r="P10" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q10" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="R10" s="109" t="s">
+      <c r="R10" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="S10" s="108" t="s">
+      <c r="S10" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="T10" s="110" t="s">
-        <v>426</v>
+      <c r="T10" s="107" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
         <v>5.02369447699063</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="94">
         <v>17004.980467512301</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="98">
         <v>0.57883864704215804</v>
       </c>
       <c r="D11" s="53">
@@ -14253,16 +14425,16 @@
         <v>1.0841311155647999</v>
       </c>
       <c r="G11" s="16">
-        <f>(M11-I11)/I11</f>
+        <f t="shared" si="0"/>
         <v>0.72719967858577739</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I11" s="53">
         <v>9956</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="94">
         <f>(12545-I11)*SQRT(K11)</f>
         <v>11578.359987493912</v>
       </c>
@@ -14270,12 +14442,12 @@
         <v>20</v>
       </c>
       <c r="L11" s="52" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M11" s="53">
         <v>17196</v>
       </c>
-      <c r="N11" s="95">
+      <c r="N11" s="94">
         <f>(20348-M11)*SQRT(O11)</f>
         <v>13372.803445799986</v>
       </c>
@@ -14292,15 +14464,15 @@
         <v>308</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="T11" s="100" t="s">
-        <v>426</v>
+        <v>399</v>
+      </c>
+      <c r="T11" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="64"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="64"/>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -14308,11 +14480,11 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
       <c r="I12" s="66"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="89"/>
       <c r="K12" s="66"/>
       <c r="L12" s="65"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="90"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="66"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
@@ -14409,13 +14581,13 @@
     </row>
     <row r="19" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
@@ -14425,25 +14597,25 @@
         <v>168</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K19" s="75" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L19" s="78" t="s">
         <v>169</v>
       </c>
       <c r="M19" s="75" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="N19" s="75" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="O19" s="75" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P19" s="75" t="s">
         <v>47</v>
@@ -14515,7 +14687,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="59" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="59">
         <v>7</v>
@@ -14545,15 +14717,15 @@
     </row>
     <row r="21" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="61">
-        <f t="shared" ref="A21:A38" si="0">B21/I21</f>
+        <f t="shared" ref="A21:A38" si="1">B21/I21</f>
         <v>0.30233492648200283</v>
       </c>
       <c r="B21" s="63">
-        <f t="shared" ref="B21:B38" si="1">ABS(M21-I21) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q21)/2))*SQRT(J21^2/K21+N21^2/O21)</f>
+        <f t="shared" ref="B21:B38" si="2">ABS(M21-I21) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q21)/2))*SQRT(J21^2/K21+N21^2/O21)</f>
         <v>110561.76626998305</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" ref="C21:C38" si="2">-(I21-M21)/I21</f>
+        <f t="shared" ref="C21:C38" si="3">-(I21-M21)/I21</f>
         <v>-1.9669504201611735E-2</v>
       </c>
       <c r="D21" s="76"/>
@@ -14585,7 +14757,7 @@
         <v>15</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q21" s="59">
         <v>1</v>
@@ -14615,15 +14787,15 @@
     </row>
     <row r="22" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33187378676985985</v>
       </c>
       <c r="B22" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5955310773393698</v>
       </c>
       <c r="C22" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.1274131274131273</v>
       </c>
       <c r="D22" s="76"/>
@@ -14631,7 +14803,7 @@
       <c r="F22" s="76"/>
       <c r="G22" s="79"/>
       <c r="H22" s="58" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I22" s="59">
         <v>25.9</v>
@@ -14644,7 +14816,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="58" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M22" s="59">
         <v>22.6</v>
@@ -14687,15 +14859,15 @@
     </row>
     <row r="23" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3351756133312177</v>
       </c>
       <c r="B23" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7145659466116605</v>
       </c>
       <c r="C23" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2307692307692366E-2</v>
       </c>
       <c r="D23" s="76"/>
@@ -14759,19 +14931,19 @@
     </row>
     <row r="24" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36468210626768915</v>
       </c>
       <c r="B24" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131.28555825636809</v>
       </c>
       <c r="C24" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.18055555555555555</v>
       </c>
       <c r="H24" s="58" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I24" s="69">
         <v>360</v>
@@ -14783,7 +14955,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="58" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M24" s="59">
         <v>295</v>
@@ -14795,7 +14967,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="59" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="59">
         <v>1</v>
@@ -14809,19 +14981,19 @@
     </row>
     <row r="25" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38375612642394952</v>
       </c>
       <c r="B25" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127779.27741538247</v>
       </c>
       <c r="C25" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5589692765113973E-2</v>
       </c>
       <c r="H25" s="58" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I25" s="59">
         <v>332970</v>
@@ -14834,7 +15006,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="58" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M25" s="59">
         <v>348150</v>
@@ -14847,7 +15019,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="59">
         <v>12</v>
@@ -14861,15 +15033,15 @@
     </row>
     <row r="26" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43866397912473509</v>
       </c>
       <c r="B26" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147.87362736294821</v>
       </c>
       <c r="C26" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0382675763868287E-2</v>
       </c>
       <c r="H26" s="58" t="s">
@@ -14899,7 +15071,7 @@
         <v>8</v>
       </c>
       <c r="P26" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q26" s="59">
         <v>15</v>
@@ -14930,19 +15102,19 @@
     </row>
     <row r="27" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54447029123354107</v>
       </c>
       <c r="B27" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65064.199802408162</v>
       </c>
       <c r="C27" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.364016736401674E-2</v>
       </c>
       <c r="H27" s="58" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I27" s="59">
         <v>119500</v>
@@ -14955,7 +15127,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="58" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M27" s="59">
         <v>110700</v>
@@ -14968,7 +15140,7 @@
         <v>22</v>
       </c>
       <c r="P27" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q27" s="59">
         <v>6</v>
@@ -14999,15 +15171,15 @@
     </row>
     <row r="28" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59465772165882236</v>
       </c>
       <c r="B28" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42399095554274036</v>
       </c>
       <c r="C28" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.542776998597477E-2</v>
       </c>
       <c r="H28" s="58" t="s">
@@ -15037,7 +15209,7 @@
         <v>8</v>
       </c>
       <c r="P28" s="59" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="59">
         <v>7</v>
@@ -15068,19 +15240,19 @@
     </row>
     <row r="29" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62604580322464665</v>
       </c>
       <c r="B29" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5718076486993548E-2</v>
       </c>
       <c r="C29" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.3146067415730337</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I29" s="59">
         <v>8.8999999999999996E-2</v>
@@ -15093,7 +15265,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="58" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M29" s="59">
         <v>6.0999999999999999E-2</v>
@@ -15106,7 +15278,7 @@
         <v>14</v>
       </c>
       <c r="P29" s="59" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="59">
         <v>1</v>
@@ -15120,19 +15292,19 @@
     </row>
     <row r="30" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64173877726018158</v>
       </c>
       <c r="B30" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.824165754710195</v>
       </c>
       <c r="C30" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.16017316017316027</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I30" s="66">
         <v>23.1</v>
@@ -15144,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M30" s="66">
         <v>19.399999999999999</v>
@@ -15170,15 +15342,15 @@
     </row>
     <row r="31" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72845716036649566</v>
       </c>
       <c r="B31" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47087.470846090277</v>
       </c>
       <c r="C31" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.16615099009900991</v>
       </c>
       <c r="H31" s="58" t="s">
@@ -15206,7 +15378,7 @@
         <v>10</v>
       </c>
       <c r="P31" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q31" s="59">
         <v>21</v>
@@ -15220,15 +15392,15 @@
     </row>
     <row r="32" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87193649776221871</v>
       </c>
       <c r="B32" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>265755.7812799511</v>
       </c>
       <c r="C32" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8032205992361904E-2</v>
       </c>
       <c r="H32" s="58" t="s">
@@ -15256,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="P32" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q32" s="59">
         <v>3</v>
@@ -15270,19 +15442,19 @@
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90104148622149904</v>
       </c>
       <c r="B33" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>202294.53605041257</v>
       </c>
       <c r="C33" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.22222385539474743</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="I33" s="59">
         <v>224511.9</v>
@@ -15295,7 +15467,7 @@
         <v>6</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M33" s="59">
         <v>174620</v>
@@ -15308,7 +15480,7 @@
         <v>7</v>
       </c>
       <c r="P33" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q33" s="59">
         <v>12</v>
@@ -15322,15 +15494,15 @@
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93271875715240415</v>
       </c>
       <c r="B34" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60253.631712045302</v>
       </c>
       <c r="C34" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.16563467492260053</v>
       </c>
       <c r="H34" s="58" t="s">
@@ -15362,7 +15534,7 @@
         <v>9</v>
       </c>
       <c r="P34" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q34" s="59">
         <v>21</v>
@@ -15376,15 +15548,15 @@
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96814672232900045</v>
       </c>
       <c r="B35" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.853282003844015</v>
       </c>
       <c r="C35" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="H35" s="58" t="s">
@@ -15428,19 +15600,19 @@
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0072498831657288</v>
       </c>
       <c r="B36" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>391.71947956315188</v>
       </c>
       <c r="C36" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.25739264592440209</v>
       </c>
       <c r="H36" s="58" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I36" s="59">
         <v>388.9</v>
@@ -15452,7 +15624,7 @@
         <v>6</v>
       </c>
       <c r="L36" s="58" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M36" s="59">
         <v>288.8</v>
@@ -15464,7 +15636,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="59" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q36" s="59">
         <v>1</v>
@@ -15478,15 +15650,15 @@
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0221261204613394</v>
       </c>
       <c r="B37" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38503.49095777866</v>
       </c>
       <c r="C37" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.2808601008760287</v>
       </c>
       <c r="H37" s="58" t="s">
@@ -15514,7 +15686,7 @@
         <v>8</v>
       </c>
       <c r="P37" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q37" s="59">
         <v>1</v>
@@ -15528,15 +15700,15 @@
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0559803904811791</v>
       </c>
       <c r="B38" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68258.572440703414</v>
       </c>
       <c r="C38" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.45730198019801982</v>
       </c>
       <c r="H38" s="58" t="s">
@@ -15564,7 +15736,7 @@
         <v>11</v>
       </c>
       <c r="P38" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q38" s="59">
         <v>21</v>
@@ -15587,7 +15759,7 @@
         <v>0.36167664670658684</v>
       </c>
       <c r="H39" s="58" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I39" s="59">
         <v>25050</v>
@@ -15599,7 +15771,7 @@
         <v>24</v>
       </c>
       <c r="L39" s="58" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M39" s="59">
         <v>34110</v>
@@ -15637,7 +15809,7 @@
         <v>-0.34211764705882353</v>
       </c>
       <c r="H40" s="58" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I40" s="59">
         <v>21.25</v>
@@ -15650,7 +15822,7 @@
         <v>6</v>
       </c>
       <c r="L40" s="58" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M40" s="59">
         <v>13.98</v>
@@ -15715,7 +15887,7 @@
         <v>8</v>
       </c>
       <c r="P41" s="59" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q41" s="59">
         <v>6</v>
@@ -15791,7 +15963,7 @@
         <v>0.72719967858577739</v>
       </c>
       <c r="H43" s="58" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I43" s="59">
         <v>9956</v>
@@ -15804,7 +15976,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="58" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M43" s="59">
         <v>17196</v>
@@ -15817,7 +15989,7 @@
         <v>18</v>
       </c>
       <c r="P43" s="59" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q43" s="59">
         <v>6</v>
@@ -15843,7 +16015,7 @@
         <v>-0.30706521739130427</v>
       </c>
       <c r="H44" s="58" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I44" s="59">
         <v>11.04</v>
@@ -15856,7 +16028,7 @@
         <v>6</v>
       </c>
       <c r="L44" s="58" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M44" s="59">
         <v>7.65</v>
@@ -15882,516 +16054,532 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H23:O26 Q23:Q26 H27:Q27 H28:O28 I29:O29 I31:K31 M31:O31 H32:H33 H33:O33 I35:K35 M35:Q35 H36:O36 I37:K38 Q28 J32:Q32 H22:Q22 Q31 Q36 M37:Q38 Q33:Q34 U39:XFD39 K40:O40 H41:O41 Q40 H42:Q42 S36:S38 S21:S22 S28:S34 T41:XFD1048576 T21:XFD38 S40:XFD40 S19:XFD20 I43:K43 M43:R43 Q44 K44:O44 B12 U15:XFD15 U8:U11 X3:XFD6 X8:AB11 Y7:XFD7 U5:W6 V8:W10 V7 H40:I40 H19:Q20 B1:C1 H1:XFD1 H45:S1048576 H16:XFD18 H39:S39 S5 D3 H6:O7 Q6:Q7 H11:S11 D5:D7 H2:S2 U2:XFD2 V4:W4 H14:XFD14 H12:AB13 AH8:XFD13 A45:C1048576 A16:C19 A39:C40 A3:B3 G3:G8 D8:F8 G11:G12 A5:B11 D11:D12 D11:F11 A13:G14 D16:G1048576 D9:G10">
-    <cfRule type="expression" dxfId="553" priority="510">
+  <conditionalFormatting sqref="H23:O26 Q23:Q26 H27:Q27 H28:O28 I29:O29 I31:K31 M31:O31 H32:H33 H33:O33 I35:K35 M35:Q35 H36:O36 I37:K38 Q28 J32:Q32 H22:Q22 Q31 Q36 M37:Q38 Q33:Q34 U39:XFD39 K40:O40 H41:O41 Q40 H42:Q42 S36:S38 S21:S22 S28:S34 T41:XFD1048576 T21:XFD38 S40:XFD40 S19:XFD20 I43:K43 M43:R43 Q44 K44:O44 B12 U15:XFD15 U8:U11 X3:XFD6 X8:AB11 Y7:XFD7 U5:W6 V8:W10 V7 H40:I40 H19:Q20 B1:C1 H1:XFD1 H45:S1048576 H16:XFD18 H39:S39 S5 D3 H6:O7 Q6:Q7 H11:S11 D5:D7 P2:S2 U2:XFD2 V4:W4 H14:XFD14 H12:AB13 AH8:XFD13 A45:C1048576 A16:C19 A39:C40 A3:B3 G3:G8 D8:F8 G11:G12 A5:B11 D11:D12 D11:F11 A13:G14 D16:G1048576 D9:G10">
+    <cfRule type="expression" dxfId="557" priority="512">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21 R5:R7 R11 A20:C22 A5:C6 A3:C3 A2:G2">
-    <cfRule type="expression" dxfId="552" priority="504">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="551" priority="505">
+    <cfRule type="expression" dxfId="556" priority="506">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="555" priority="507">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="550" priority="496">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="549" priority="497">
+    <cfRule type="expression" dxfId="554" priority="498">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="553" priority="499">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="548" priority="494">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="495">
+    <cfRule type="expression" dxfId="552" priority="496">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="551" priority="497">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="546" priority="492">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="545" priority="493">
+    <cfRule type="expression" dxfId="550" priority="494">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="549" priority="495">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="544" priority="490">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="543" priority="491">
+    <cfRule type="expression" dxfId="548" priority="492">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="547" priority="493">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="542" priority="488">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="489">
+    <cfRule type="expression" dxfId="546" priority="490">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="545" priority="491">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="540" priority="486">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="539" priority="487">
+    <cfRule type="expression" dxfId="544" priority="488">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="543" priority="489">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="538" priority="484">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="537" priority="485">
+    <cfRule type="expression" dxfId="542" priority="486">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="541" priority="487">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="536" priority="482">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="483">
+    <cfRule type="expression" dxfId="540" priority="484">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="539" priority="485">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="534" priority="480">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="481">
+    <cfRule type="expression" dxfId="538" priority="482">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="537" priority="483">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="532" priority="478">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="531" priority="479">
+    <cfRule type="expression" dxfId="536" priority="480">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="535" priority="481">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="530" priority="476">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="477">
+    <cfRule type="expression" dxfId="534" priority="478">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="533" priority="479">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="528" priority="474">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="475">
+    <cfRule type="expression" dxfId="532" priority="476">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="531" priority="477">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="526" priority="472">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="473">
+    <cfRule type="expression" dxfId="530" priority="474">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="529" priority="475">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26">
-    <cfRule type="expression" dxfId="524" priority="470">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="471">
+    <cfRule type="expression" dxfId="528" priority="472">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="527" priority="473">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="522" priority="468">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="469">
+    <cfRule type="expression" dxfId="526" priority="470">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="525" priority="471">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="520" priority="466">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="519" priority="467">
+    <cfRule type="expression" dxfId="524" priority="468">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="469">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="518" priority="464">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="465">
+    <cfRule type="expression" dxfId="522" priority="466">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="521" priority="467">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="516" priority="462">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="463">
+    <cfRule type="expression" dxfId="520" priority="464">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="519" priority="465">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="expression" dxfId="514" priority="460">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="461">
+    <cfRule type="expression" dxfId="518" priority="462">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="463">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="expression" dxfId="512" priority="458">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="459">
+    <cfRule type="expression" dxfId="516" priority="460">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="515" priority="461">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="510" priority="456">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="457">
+    <cfRule type="expression" dxfId="514" priority="458">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="459">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="508" priority="454">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="455">
+    <cfRule type="expression" dxfId="512" priority="456">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="511" priority="457">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="506" priority="452">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="453">
+    <cfRule type="expression" dxfId="510" priority="454">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="509" priority="455">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="504" priority="450">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="451">
+    <cfRule type="expression" dxfId="508" priority="452">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="453">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="502" priority="448">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="449">
+    <cfRule type="expression" dxfId="506" priority="450">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="451">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="500" priority="446">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="447">
+    <cfRule type="expression" dxfId="504" priority="448">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="503" priority="449">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="498" priority="444">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="445">
+    <cfRule type="expression" dxfId="502" priority="446">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="447">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="496" priority="442">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="443">
+    <cfRule type="expression" dxfId="500" priority="444">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="445">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="494" priority="440">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="441">
+    <cfRule type="expression" dxfId="498" priority="442">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="497" priority="443">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="492" priority="436">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="437">
+    <cfRule type="expression" dxfId="496" priority="438">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="495" priority="439">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="490" priority="434">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="435">
+    <cfRule type="expression" dxfId="494" priority="436">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="437">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="488" priority="432">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="433">
+    <cfRule type="expression" dxfId="492" priority="434">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="491" priority="435">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="486" priority="430">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="431">
+    <cfRule type="expression" dxfId="490" priority="432">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="433">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="484" priority="426">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="427">
+    <cfRule type="expression" dxfId="488" priority="428">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="487" priority="429">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="482" priority="424">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="425">
+    <cfRule type="expression" dxfId="486" priority="426">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="427">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="480" priority="422">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="423">
+    <cfRule type="expression" dxfId="484" priority="424">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="425">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="478" priority="420">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="421">
+    <cfRule type="expression" dxfId="482" priority="422">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="423">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="476" priority="418">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="419">
+    <cfRule type="expression" dxfId="480" priority="420">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="479" priority="421">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="474" priority="416">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="417">
+    <cfRule type="expression" dxfId="478" priority="418">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="419">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="472" priority="414">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="415">
+    <cfRule type="expression" dxfId="476" priority="416">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="417">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="470" priority="412">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="413">
+    <cfRule type="expression" dxfId="474" priority="414">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="415">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="468" priority="410">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="411">
+    <cfRule type="expression" dxfId="472" priority="412">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="471" priority="413">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="466" priority="408">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="409">
+    <cfRule type="expression" dxfId="470" priority="410">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="411">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="464" priority="406">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="407">
+    <cfRule type="expression" dxfId="468" priority="408">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="467" priority="409">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="462" priority="404">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="405">
+    <cfRule type="expression" dxfId="466" priority="406">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="407">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="460" priority="402">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="403">
+    <cfRule type="expression" dxfId="464" priority="404">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="463" priority="405">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="458" priority="400">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="401">
+    <cfRule type="expression" dxfId="462" priority="402">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="461" priority="403">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="456" priority="398">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="399">
+    <cfRule type="expression" dxfId="460" priority="400">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="459" priority="401">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="454" priority="396">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="397">
+    <cfRule type="expression" dxfId="458" priority="398">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="457" priority="399">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="452" priority="394">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="395">
+    <cfRule type="expression" dxfId="456" priority="396">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="455" priority="397">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="450" priority="392">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="393">
+    <cfRule type="expression" dxfId="454" priority="394">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="453" priority="395">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="448" priority="390">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="391">
+    <cfRule type="expression" dxfId="452" priority="392">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="451" priority="393">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="446" priority="388">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="389">
+    <cfRule type="expression" dxfId="450" priority="390">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="449" priority="391">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="444" priority="386">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="387">
+    <cfRule type="expression" dxfId="448" priority="388">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="389">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="442" priority="384">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="385">
+    <cfRule type="expression" dxfId="446" priority="386">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="387">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="440" priority="382">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="383">
+    <cfRule type="expression" dxfId="444" priority="384">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="443" priority="385">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="438" priority="380">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="381">
+    <cfRule type="expression" dxfId="442" priority="382">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="383">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="436" priority="378">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="379">
+    <cfRule type="expression" dxfId="440" priority="380">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="381">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="434" priority="376">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="377">
+    <cfRule type="expression" dxfId="438" priority="378">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="437" priority="379">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="432" priority="374">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="375">
+    <cfRule type="expression" dxfId="436" priority="376">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="377">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:K34 M34:O34">
-    <cfRule type="expression" dxfId="430" priority="364">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="365">
+    <cfRule type="expression" dxfId="434" priority="366">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="367">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="428" priority="362">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="363">
+    <cfRule type="expression" dxfId="432" priority="364">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="431" priority="365">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="430" priority="362">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="363">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="expression" dxfId="428" priority="358">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="359">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
     <cfRule type="expression" dxfId="426" priority="360">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -16399,7 +16587,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="P34">
     <cfRule type="expression" dxfId="424" priority="356">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -16407,63 +16595,63 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="422" priority="358">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="359">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34">
-    <cfRule type="expression" dxfId="420" priority="354">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="419" priority="355">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="418" priority="352">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="353">
+    <cfRule type="expression" dxfId="422" priority="354">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="421" priority="355">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="416" priority="350">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="351">
+    <cfRule type="expression" dxfId="420" priority="352">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="419" priority="353">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="414" priority="348">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="349">
+    <cfRule type="expression" dxfId="418" priority="350">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="351">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="412" priority="346">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="347">
+    <cfRule type="expression" dxfId="416" priority="348">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="349">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="410" priority="344">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="345">
+    <cfRule type="expression" dxfId="414" priority="346">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="413" priority="347">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="412" priority="344">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="345">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="expression" dxfId="410" priority="340">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="341">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
     <cfRule type="expression" dxfId="408" priority="342">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -16471,7 +16659,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="406" priority="338">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -16479,359 +16667,359 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="404" priority="340">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="341">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="402" priority="336">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="337">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="400" priority="334">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="335">
+    <cfRule type="expression" dxfId="404" priority="336">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="337">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="398" priority="332">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="333">
+    <cfRule type="expression" dxfId="402" priority="334">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="335">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="396" priority="330">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="331">
+    <cfRule type="expression" dxfId="400" priority="332">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="333">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="394" priority="328">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="329">
+    <cfRule type="expression" dxfId="398" priority="330">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="331">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="392" priority="326">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="327">
+    <cfRule type="expression" dxfId="396" priority="328">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="329">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="390" priority="324">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="325">
+    <cfRule type="expression" dxfId="394" priority="326">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="327">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="388" priority="322">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="323">
+    <cfRule type="expression" dxfId="392" priority="324">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="325">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="386" priority="320">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="321">
+    <cfRule type="expression" dxfId="390" priority="322">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="323">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="384" priority="318">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="319">
+    <cfRule type="expression" dxfId="388" priority="320">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="321">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="382" priority="316">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="317">
+    <cfRule type="expression" dxfId="386" priority="318">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="319">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="380" priority="314">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="315">
+    <cfRule type="expression" dxfId="384" priority="316">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="317">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="378" priority="312">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="313">
+    <cfRule type="expression" dxfId="382" priority="314">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="315">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="376" priority="310">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="311">
+    <cfRule type="expression" dxfId="380" priority="312">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="313">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="374" priority="308">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="309">
+    <cfRule type="expression" dxfId="378" priority="310">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="311">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="372" priority="306">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="307">
+    <cfRule type="expression" dxfId="376" priority="308">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="309">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="370" priority="304">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="305">
+    <cfRule type="expression" dxfId="374" priority="306">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="307">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="368" priority="302">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="303">
+    <cfRule type="expression" dxfId="372" priority="304">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="305">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="366" priority="300">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="301">
+    <cfRule type="expression" dxfId="370" priority="302">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="303">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="364" priority="298">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="299">
+    <cfRule type="expression" dxfId="368" priority="300">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="301">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="362" priority="296">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="297">
+    <cfRule type="expression" dxfId="366" priority="298">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="299">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="360" priority="294">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="295">
+    <cfRule type="expression" dxfId="364" priority="296">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="297">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="expression" dxfId="358" priority="284">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="285">
+    <cfRule type="expression" dxfId="362" priority="286">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="287">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40">
-    <cfRule type="expression" dxfId="356" priority="282">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="283">
+    <cfRule type="expression" dxfId="360" priority="284">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="285">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41">
-    <cfRule type="expression" dxfId="354" priority="280">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="281">
+    <cfRule type="expression" dxfId="358" priority="282">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="283">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="352" priority="278">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="279">
+    <cfRule type="expression" dxfId="356" priority="280">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="281">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="350" priority="276">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="277">
+    <cfRule type="expression" dxfId="354" priority="278">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="279">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="348" priority="274">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="275">
+    <cfRule type="expression" dxfId="352" priority="276">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="277">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="346" priority="270">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="271">
+    <cfRule type="expression" dxfId="350" priority="272">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="273">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="344" priority="268">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="269">
+    <cfRule type="expression" dxfId="348" priority="270">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="271">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="342" priority="266">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="267">
+    <cfRule type="expression" dxfId="346" priority="268">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="269">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42">
-    <cfRule type="expression" dxfId="340" priority="264">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="265">
+    <cfRule type="expression" dxfId="344" priority="266">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="267">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R42 R40 R19:R38">
-    <cfRule type="expression" dxfId="338" priority="262">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="263">
+    <cfRule type="expression" dxfId="342" priority="264">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="265">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43">
-    <cfRule type="expression" dxfId="336" priority="260">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="261">
+    <cfRule type="expression" dxfId="340" priority="262">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="263">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="334" priority="258">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="259">
+    <cfRule type="expression" dxfId="338" priority="260">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="261">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="332" priority="248">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="249">
+    <cfRule type="expression" dxfId="336" priority="250">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="251">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="330" priority="254">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="255">
+    <cfRule type="expression" dxfId="334" priority="256">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="257">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="328" priority="252">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="253">
+    <cfRule type="expression" dxfId="332" priority="254">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="255">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="326" priority="250">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="251">
+    <cfRule type="expression" dxfId="330" priority="252">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="253">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="324" priority="246">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="247">
+    <cfRule type="expression" dxfId="328" priority="248">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="249">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:S44">
-    <cfRule type="expression" dxfId="322" priority="244">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="245">
+    <cfRule type="expression" dxfId="326" priority="246">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="247">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="320" priority="242">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="243">
+    <cfRule type="expression" dxfId="324" priority="244">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="245">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="318" priority="240">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="241">
+    <cfRule type="expression" dxfId="322" priority="242">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="243">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:I44">
+    <cfRule type="expression" dxfId="320" priority="240">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="241">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="expression" dxfId="318" priority="234">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="235">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="316" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -16839,472 +17027,464 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="314" priority="232">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="233">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="312" priority="236">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="237">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="310" priority="234">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="235">
+    <cfRule type="expression" dxfId="314" priority="236">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="237">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="308" priority="230">
+    <cfRule type="expression" dxfId="312" priority="232">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="307" priority="227">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="228">
+    <cfRule type="expression" dxfId="311" priority="229">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="230">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="305" priority="137">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="138">
+    <cfRule type="expression" dxfId="309" priority="139">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="140">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:Q6 S6">
-    <cfRule type="expression" dxfId="303" priority="219">
+    <cfRule type="expression" dxfId="307" priority="221">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="302" priority="207">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="208">
+    <cfRule type="expression" dxfId="306" priority="209">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="210">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="300" priority="205">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="206">
+    <cfRule type="expression" dxfId="304" priority="207">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="208">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="298" priority="199">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="200">
+    <cfRule type="expression" dxfId="302" priority="201">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="202">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:K12 M12:R12">
-    <cfRule type="expression" dxfId="296" priority="196">
+    <cfRule type="expression" dxfId="300" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="295" priority="194">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="195">
+    <cfRule type="expression" dxfId="299" priority="196">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="197">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="293" priority="192">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="193">
+    <cfRule type="expression" dxfId="297" priority="194">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="195">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="291" priority="190">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="191">
+    <cfRule type="expression" dxfId="295" priority="192">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="193">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="289" priority="188">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="189">
+    <cfRule type="expression" dxfId="293" priority="190">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="191">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:O11 Q11 S11">
-    <cfRule type="expression" dxfId="287" priority="169">
+    <cfRule type="expression" dxfId="291" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="286" priority="157">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="158">
+    <cfRule type="expression" dxfId="290" priority="159">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="160">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="284" priority="151">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="152">
+    <cfRule type="expression" dxfId="288" priority="153">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="154">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="282" priority="149">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="150">
+    <cfRule type="expression" dxfId="286" priority="151">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="152">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="280" priority="147">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="148">
+    <cfRule type="expression" dxfId="284" priority="149">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="150">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="278" priority="139">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="140">
+    <cfRule type="expression" dxfId="282" priority="141">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="142">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="276" priority="131">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="132">
+    <cfRule type="expression" dxfId="280" priority="133">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="134">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="274" priority="129">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="130">
+    <cfRule type="expression" dxfId="278" priority="131">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="132">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="272" priority="127">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="128">
+    <cfRule type="expression" dxfId="276" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="130">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="270" priority="122">
+    <cfRule type="expression" dxfId="274" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="269" priority="96">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="97">
+    <cfRule type="expression" dxfId="273" priority="98">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="99">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:G1 E5:F7 E7:E8">
-    <cfRule type="expression" dxfId="267" priority="89">
+    <cfRule type="expression" dxfId="271" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="266" priority="86">
+    <cfRule type="expression" dxfId="270" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="265" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="85">
+    <cfRule type="expression" dxfId="269" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="87">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="263" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="83">
+    <cfRule type="expression" dxfId="267" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="85">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
+    <cfRule type="expression" dxfId="265" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="83">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:K11 M11:R11">
+    <cfRule type="expression" dxfId="263" priority="81">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="expression" dxfId="262" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="261" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="81">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11 M11:R11">
-    <cfRule type="expression" dxfId="259" priority="79">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="258" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="78">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="256" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="76">
+    <cfRule type="expression" dxfId="260" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="78">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="254" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="74">
+    <cfRule type="expression" dxfId="258" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="76">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="252" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="72">
+    <cfRule type="expression" dxfId="256" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="74">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="250" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="60">
+    <cfRule type="expression" dxfId="254" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="62">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="248" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="54">
+    <cfRule type="expression" dxfId="252" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="56">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="246" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="49">
+    <cfRule type="expression" dxfId="250" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="51">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="244" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="47">
+    <cfRule type="expression" dxfId="248" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="49">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="242" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="45">
+    <cfRule type="expression" dxfId="246" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="47">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="240" priority="29">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="30">
+    <cfRule type="expression" dxfId="244" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="32">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="238" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="28">
+    <cfRule type="expression" dxfId="242" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="30">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="236" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="26">
+    <cfRule type="expression" dxfId="240" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="28">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="234" priority="41">
+    <cfRule type="expression" dxfId="238" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="233" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="40">
+    <cfRule type="expression" dxfId="237" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="42">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="231" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="38">
+    <cfRule type="expression" dxfId="235" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="40">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="229" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="36">
+    <cfRule type="expression" dxfId="233" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="38">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="227" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="34">
+    <cfRule type="expression" dxfId="231" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="36">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="225" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="32">
+    <cfRule type="expression" dxfId="229" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="34">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="expression" dxfId="223" priority="23">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="24">
+    <cfRule type="expression" dxfId="227" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="26">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="expression" dxfId="221" priority="21">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="22">
+    <cfRule type="expression" dxfId="225" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="24">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="219" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="20">
+    <cfRule type="expression" dxfId="223" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="22">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="217" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="18">
+    <cfRule type="expression" dxfId="221" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="20">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="expression" dxfId="215" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="16">
+    <cfRule type="expression" dxfId="219" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="18">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6">
-    <cfRule type="expression" dxfId="213" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="14">
+    <cfRule type="expression" dxfId="217" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="16">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
-    <cfRule type="expression" dxfId="211" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="12">
+    <cfRule type="expression" dxfId="215" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="14">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="209" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="10">
+    <cfRule type="expression" dxfId="213" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="12">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="207" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="8">
+    <cfRule type="expression" dxfId="211" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="10">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="205" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="6">
+    <cfRule type="expression" dxfId="209" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="8">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="expression" dxfId="203" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="4">
+    <cfRule type="expression" dxfId="207" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="6">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="expression" dxfId="201" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="2">
+    <cfRule type="expression" dxfId="205" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="4">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:O2">
+    <cfRule type="expression" dxfId="203" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17318,7 +17498,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17359,44 +17539,44 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:15" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="109" t="s">
         <v>172</v>
       </c>
     </row>
@@ -18662,12 +18842,20 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:M37">
     <sortCondition descending="1" ref="A21:A37"/>
   </sortState>
-  <conditionalFormatting sqref="P9:XFD9 P15:XFD15 AA35:XFD35 A31:I31 K31:M31 A20:M20 A17:E17 A2:M2 G27:K27 H26:K26 C26:E27 K29:M29 C29:E29 G29:I29 B33 K33:L33 E33:I33 A24:K24 L24:L28 G35:I35 C35:E35 K35:L35 A25:A31 B36:I36 N9 A15:N15 N2:XFD8 N10:XFD12 N19:XFD31 C22:E23 G22:L23 A21:A23 A1:XFD1 A13:XFD14 A16:XFD16 A38:XFD1048576 A18:XFD18 G17:XFD17 N33:XFD34 N35 K36:XFD36 N37:XFD37">
-    <cfRule type="expression" dxfId="199" priority="240">
+  <conditionalFormatting sqref="P9:XFD9 P15:XFD15 AA35:XFD35 A31:I31 K31:M31 A20:M20 A17:E17 A2 G27:K27 H26:K26 C26:E27 K29:M29 C29:E29 G29:I29 B33 K33:L33 E33:I33 A24:K24 L24:L28 G35:I35 C35:E35 K35:L35 A25:A31 B36:I36 N9 A15:N15 N2:XFD8 N10:XFD12 N19:XFD31 C22:E23 G22:L23 A21:A23 A1:XFD1 A13:XFD14 A16:XFD16 A38:XFD1048576 A18:XFD18 G17:XFD17 N33:XFD34 N35 K36:XFD36 N37:XFD37 J2:M2">
+    <cfRule type="expression" dxfId="201" priority="242">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="200" priority="232">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="233">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21 D21:K21 M21">
     <cfRule type="expression" dxfId="198" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18675,7 +18863,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21 D21:K21 M21">
+  <conditionalFormatting sqref="M22">
     <cfRule type="expression" dxfId="196" priority="228">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18683,7 +18871,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
+  <conditionalFormatting sqref="M23">
     <cfRule type="expression" dxfId="194" priority="226">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18691,7 +18879,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
+  <conditionalFormatting sqref="M24">
     <cfRule type="expression" dxfId="192" priority="224">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18699,15 +18887,15 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="190" priority="222">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="223">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M26">
+    <cfRule type="expression" dxfId="190" priority="220">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="221">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
     <cfRule type="expression" dxfId="188" priority="218">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18715,23 +18903,23 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="186" priority="216">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="217">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="184" priority="204">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="205">
+    <cfRule type="expression" dxfId="186" priority="206">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="207">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="184" priority="214">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="215">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" dxfId="182" priority="212">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18739,7 +18927,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="J31">
     <cfRule type="expression" dxfId="180" priority="210">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18747,15 +18935,15 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="178" priority="208">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="209">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="178" priority="204">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="205">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="expression" dxfId="176" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18763,7 +18951,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="J24">
     <cfRule type="expression" dxfId="174" priority="200">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18771,7 +18959,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="172" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18779,7 +18967,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="F24">
     <cfRule type="expression" dxfId="170" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18787,7 +18975,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="M25">
     <cfRule type="expression" dxfId="168" priority="194">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18795,7 +18983,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="166" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18811,7 +18999,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="F25">
     <cfRule type="expression" dxfId="162" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18827,7 +19015,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="J25">
     <cfRule type="expression" dxfId="158" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18843,23 +19031,23 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="154" priority="180">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="181">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="152" priority="168">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="169">
+    <cfRule type="expression" dxfId="154" priority="170">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="171">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E28 G28:K28 M28">
+    <cfRule type="expression" dxfId="152" priority="178">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="179">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
     <cfRule type="expression" dxfId="150" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18875,7 +19063,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="F28">
     <cfRule type="expression" dxfId="146" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18883,15 +19071,15 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="144" priority="170">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="171">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="144" priority="168">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="169">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
     <cfRule type="expression" dxfId="142" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18907,31 +19095,31 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="138" priority="162">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="163">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="136" priority="158">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="159">
+    <cfRule type="expression" dxfId="138" priority="160">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="161">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="134" priority="160">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="161">
+    <cfRule type="expression" dxfId="136" priority="162">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="163">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:M30">
+    <cfRule type="expression" dxfId="134" priority="158">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="159">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:XFD32">
     <cfRule type="expression" dxfId="132" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18939,7 +19127,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P32:XFD32">
+  <conditionalFormatting sqref="J32">
     <cfRule type="expression" dxfId="130" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18947,15 +19135,15 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="128" priority="152">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="153">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="128" priority="146">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="147">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
     <cfRule type="expression" dxfId="126" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18963,7 +19151,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
+  <conditionalFormatting sqref="J33">
     <cfRule type="expression" dxfId="124" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18971,7 +19159,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="C33:D33">
     <cfRule type="expression" dxfId="122" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18979,7 +19167,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33">
+  <conditionalFormatting sqref="A33:A34">
     <cfRule type="expression" dxfId="120" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -18987,23 +19175,23 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A34">
-    <cfRule type="expression" dxfId="118" priority="136">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="137">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="116" priority="128">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="129">
+    <cfRule type="expression" dxfId="118" priority="130">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:K34">
+    <cfRule type="expression" dxfId="116" priority="134">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="135">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
     <cfRule type="expression" dxfId="114" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19011,15 +19199,15 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="112" priority="130">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="131">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L21">
+    <cfRule type="expression" dxfId="112" priority="128">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="129">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
     <cfRule type="expression" dxfId="110" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19027,7 +19215,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="108" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19035,7 +19223,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" dxfId="106" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19043,7 +19231,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="J35">
     <cfRule type="expression" dxfId="104" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19051,7 +19239,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="A35:A36">
     <cfRule type="expression" dxfId="102" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19059,7 +19247,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
+  <conditionalFormatting sqref="J22">
     <cfRule type="expression" dxfId="100" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19067,7 +19255,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="98" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19075,7 +19263,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="B22">
     <cfRule type="expression" dxfId="96" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19083,27 +19271,27 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="94" priority="110">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="111">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="92" priority="104">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="105">
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="107">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="90" priority="106">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="107">
+    <cfRule type="expression" dxfId="92" priority="108">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="109">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="90" priority="104">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="105">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19115,7 +19303,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="F23">
     <cfRule type="expression" dxfId="86" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19131,7 +19319,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="A37:M37">
     <cfRule type="expression" dxfId="82" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19139,7 +19327,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:M37">
+  <conditionalFormatting sqref="C4:E4 G4:J4 A3:A4 L4">
     <cfRule type="expression" dxfId="80" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19147,7 +19335,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E4 G4:J4 A3:A4 L4">
+  <conditionalFormatting sqref="B3 D3:K3 M3">
     <cfRule type="expression" dxfId="78" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19155,7 +19343,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3 D3:K3 M3">
+  <conditionalFormatting sqref="M4">
     <cfRule type="expression" dxfId="76" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19163,7 +19351,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  <conditionalFormatting sqref="L3">
     <cfRule type="expression" dxfId="74" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19171,7 +19359,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="J4">
     <cfRule type="expression" dxfId="72" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19179,7 +19367,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="expression" dxfId="70" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19187,7 +19375,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="B4">
     <cfRule type="expression" dxfId="68" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19195,7 +19383,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="K8:M8 C8:E8 G8:I8 L7 A7:A8">
     <cfRule type="expression" dxfId="66" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19203,23 +19391,23 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8 C8:E8 G8:I8 L7 A7:A8">
-    <cfRule type="expression" dxfId="64" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="79">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="62" priority="68">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="69">
+    <cfRule type="expression" dxfId="64" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7 G7:K7 M7">
+    <cfRule type="expression" dxfId="62" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="79">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="60" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19235,7 +19423,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="56" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19243,15 +19431,15 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="54" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="71">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="54" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="69">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="52" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19267,39 +19455,39 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="48" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="63">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="46" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="59">
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="61">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="44" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="61">
+    <cfRule type="expression" dxfId="46" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:M11">
-    <cfRule type="expression" dxfId="42" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="57">
+    <cfRule type="expression" dxfId="44" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="59">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="45">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="40" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19307,20 +19495,20 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B10 L10 E10:I10">
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="40">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
     <cfRule type="expression" dxfId="35" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19328,7 +19516,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="C10:D10">
     <cfRule type="expression" dxfId="33" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19336,7 +19524,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:D10">
+  <conditionalFormatting sqref="A10">
     <cfRule type="expression" dxfId="31" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19344,20 +19532,20 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5 G5:J5 A5 L5">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
     <cfRule type="expression" dxfId="26" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19373,7 +19561,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="F5">
     <cfRule type="expression" dxfId="22" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19389,20 +19577,20 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6 L6">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
     <cfRule type="expression" dxfId="15" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19410,7 +19598,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19418,7 +19606,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19426,7 +19614,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="K4">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19434,7 +19622,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="K5">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19442,7 +19630,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="K6">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19450,7 +19638,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
+  <conditionalFormatting sqref="K10">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -19458,11 +19646,11 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19475,7 +19663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401FEE15-D30F-479E-B29C-3933DF4300A0}">
   <dimension ref="B2:V80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
@@ -19495,31 +19683,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="H2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="102" t="s">
+      <c r="N2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
     </row>
     <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">

--- a/mdm_z/atherosclerosis_review.xlsx
+++ b/mdm_z/atherosclerosis_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Documents\CodeProjects\ACE\mdm_z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314BEA1-AE22-4324-9950-AF3888579184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A887F96F-A7A1-43D3-9E05-48A04DBC1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24465" yWindow="4365" windowWidth="18960" windowHeight="11835" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
+    <workbookView xWindow="-27975" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chol Null" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="431">
   <si>
     <t>Measure</t>
   </si>
@@ -4684,9 +4684,6 @@
     <t>ü</t>
   </si>
   <si>
-    <t>AOE</t>
-  </si>
-  <si>
     <t>16825595, F2B</t>
   </si>
   <si>
@@ -4817,102 +4814,7 @@
     <t>Group B</t>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Y</t>
-    </r>
+    <t>AE</t>
   </si>
 </sst>
 </file>
@@ -5247,7 +5149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5538,6 +5440,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5549,133 +5475,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="601">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="583">
     <dxf>
       <fill>
         <patternFill>
@@ -10347,699 +10147,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F0DCD-E304-4017-B7AF-97A0978AC45D}">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="15" customWidth="1"/>
-    <col min="3" max="4" width="4.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14" style="15" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="4" style="15" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7" style="15" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="15" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="14" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="4.140625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="14" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" style="14" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" style="14" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" style="14" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="14" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" style="14" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" style="14" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" style="14" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="14" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" style="14" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="14" customWidth="1"/>
-    <col min="36" max="36" width="3.85546875" style="14" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="1.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="15" customWidth="1"/>
+    <col min="4" max="5" width="4.5703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14" style="15" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="4" style="15" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="7" style="15" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="15" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="14" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" style="14" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" style="14" customWidth="1"/>
+    <col min="28" max="29" width="4.7109375" style="14" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" style="14" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="14" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="14" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" style="14" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="14" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="14" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="14" customWidth="1"/>
+    <col min="37" max="37" width="3.85546875" style="14" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53"/>
+      <c r="B1" s="49" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="114" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="C2" s="114" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="D2" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="E2" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="F2" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="G2" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="H2" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="I2" s="115" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="116" t="s">
+        <v>427</v>
+      </c>
+      <c r="K2" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="L2" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="I2" s="108" t="s">
-        <v>433</v>
-      </c>
-      <c r="J2" s="108" t="s">
-        <v>431</v>
-      </c>
-      <c r="K2" s="108" t="s">
-        <v>432</v>
-      </c>
-      <c r="L2" s="109" t="s">
+      <c r="M2" s="115" t="s">
+        <v>429</v>
+      </c>
+      <c r="N2" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="116" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q2" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="S2" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="U2" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="M2" s="108" t="s">
-        <v>434</v>
-      </c>
-      <c r="N2" s="108" t="s">
-        <v>435</v>
-      </c>
-      <c r="O2" s="108" t="s">
-        <v>436</v>
-      </c>
-      <c r="P2" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="108" t="s">
-        <v>362</v>
-      </c>
-      <c r="R2" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="S2" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="108" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    </row>
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
         <v>0.121593125828345</v>
       </c>
-      <c r="B3" s="30">
-        <v>0.41129753907454902</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="C3" s="30">
+        <v>0.43489703122732398</v>
+      </c>
+      <c r="D3" s="34">
         <v>-0.81536804330346402</v>
       </c>
-      <c r="D3" s="34">
+      <c r="E3" s="34">
         <v>0.18855435662543199</v>
       </c>
-      <c r="E3" s="34">
+      <c r="F3" s="34">
         <v>0.90616119107821502</v>
       </c>
-      <c r="F3" s="34">
+      <c r="G3" s="34">
         <v>0.851980223093454</v>
       </c>
-      <c r="G3" s="88">
-        <f t="shared" ref="G3:G11" si="0">-(I3-M3)/I3</f>
+      <c r="H3" s="88">
+        <f t="shared" ref="H3:H11" si="0">-(J3-N3)/J3</f>
         <v>-5.5072463768116052E-2</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>3.45</v>
       </c>
-      <c r="J3" s="34">
-        <f>(3.55-I3)*SQRT(K3)</f>
+      <c r="K3" s="34">
+        <f>(3.55-J3)*SQRT(L3)</f>
         <v>0.24494897427831691</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="15">
         <v>6</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="M3" s="15">
+      <c r="N3" s="15">
         <v>3.26</v>
       </c>
-      <c r="N3" s="34">
-        <f>(3.35-M3)*SQRT(O3)</f>
+      <c r="O3" s="34">
+        <f>(3.35-N3)*SQRT(P3)</f>
         <v>0.22045407685048674</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>6</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="R3" s="15">
         <v>0.05</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="T3" s="99" t="s">
+      <c r="U3" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="Y3" s="48"/>
-    </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="Z3" s="48"/>
+    </row>
+    <row r="4" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50">
         <v>0.17184334993397399</v>
       </c>
-      <c r="B4" s="28">
-        <v>206.80477186439501</v>
-      </c>
-      <c r="C4" s="34">
+      <c r="C4" s="104">
+        <v>224.70797058015799</v>
+      </c>
+      <c r="D4" s="118">
         <v>-0.47254624603545098</v>
       </c>
-      <c r="D4" s="34">
+      <c r="E4" s="118">
         <v>0.40148668462064402</v>
       </c>
-      <c r="E4" s="34">
+      <c r="F4" s="118">
         <v>0.79351932236539702</v>
       </c>
-      <c r="F4" s="34">
+      <c r="G4" s="118">
         <v>0.56906030560818099</v>
       </c>
-      <c r="G4" s="88">
+      <c r="H4" s="119">
         <f t="shared" si="0"/>
         <v>-5.7553956834532377E-2</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="44">
         <v>1251</v>
       </c>
-      <c r="J4" s="28">
+      <c r="K4" s="104">
         <v>161.1</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="44">
         <v>10</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="M4" s="15">
+      <c r="N4" s="44">
         <v>1179</v>
       </c>
-      <c r="N4" s="28">
+      <c r="O4" s="104">
         <v>143.1</v>
       </c>
-      <c r="O4" s="15">
+      <c r="P4" s="44">
         <v>5</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="R4" s="44">
         <v>0.05</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="99" t="s">
+      <c r="U4" s="107" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
         <v>0.219693893758835</v>
       </c>
-      <c r="B5" s="30">
-        <v>0.467934886291557</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="C5" s="30">
+        <v>0.53182707887899106</v>
+      </c>
+      <c r="D5" s="34">
         <v>2.28994290098559E-2</v>
       </c>
-      <c r="D5" s="34">
+      <c r="E5" s="34">
         <v>0.967386033470928</v>
       </c>
-      <c r="E5" s="34">
+      <c r="F5" s="34">
         <v>0.51417218723659397</v>
       </c>
-      <c r="F5" s="34">
+      <c r="G5" s="34">
         <v>0.45717000666624003</v>
       </c>
-      <c r="G5" s="88">
+      <c r="H5" s="88">
         <f t="shared" si="0"/>
         <v>4.3668122270741428E-3</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>2.29</v>
       </c>
-      <c r="J5" s="34">
-        <f>0.2*SQRT(K5)</f>
+      <c r="K5" s="34">
+        <f>0.2*SQRT(L5)</f>
         <v>0.52915026221291817</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="15">
         <v>7</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="M5" s="15">
+      <c r="N5" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N5" s="34">
-        <f>0.13 * SQRT(O5)</f>
+      <c r="O5" s="34">
+        <f>0.13 * SQRT(P5)</f>
         <v>0.31843366656181316</v>
       </c>
-      <c r="O5" s="15">
+      <c r="P5" s="15">
         <v>6</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="R5" s="15">
         <v>0.05</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="T5" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50">
         <v>0.25081372019273901</v>
       </c>
-      <c r="B6" s="30">
-        <v>32.727260246574602</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="C6" s="120">
+        <v>35.198852708612897</v>
+      </c>
+      <c r="D6" s="118">
         <v>0.339813833015292</v>
       </c>
-      <c r="D6" s="34">
+      <c r="E6" s="118">
         <v>0.481528550865643</v>
       </c>
-      <c r="E6" s="34">
+      <c r="F6" s="118">
         <v>0.78112699963690202</v>
       </c>
-      <c r="F6" s="34">
+      <c r="G6" s="118">
         <v>0.49667580631239</v>
       </c>
-      <c r="G6" s="88">
+      <c r="H6" s="119">
         <f t="shared" si="0"/>
         <v>7.0921985815602842E-2</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="44">
         <v>141</v>
       </c>
-      <c r="J6" s="28">
+      <c r="K6" s="104">
         <v>34</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="44">
         <v>8</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="44">
         <v>151</v>
       </c>
-      <c r="N6" s="28">
+      <c r="O6" s="104">
         <v>24</v>
       </c>
-      <c r="O6" s="15">
+      <c r="P6" s="44">
         <v>13</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="R6" s="44">
         <v>0.05</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="T6" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="U6" s="44"/>
+    </row>
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
         <v>0.30345351551815197</v>
       </c>
-      <c r="B7" s="30">
-        <v>33.980127101269801</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="C7" s="30">
+        <v>35.153294791160398</v>
+      </c>
+      <c r="D7" s="34">
         <v>-0.40808436225286598</v>
       </c>
-      <c r="D7" s="34">
+      <c r="E7" s="34">
         <v>0.27326955878815201</v>
       </c>
-      <c r="E7" s="34">
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="F7" s="34">
+      <c r="G7" s="34">
         <v>0.55115140592292</v>
       </c>
-      <c r="G7" s="88">
-        <f t="shared" ref="G7" si="1">-(I7-M7)/I7</f>
+      <c r="H7" s="88">
+        <f t="shared" ref="H7" si="1">-(J7-N7)/J7</f>
         <v>-0.11132254995242616</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="I7" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="28">
+      <c r="J7" s="28">
         <v>105.1</v>
       </c>
-      <c r="J7" s="28">
-        <f>7.2 * SQRT(K7)</f>
+      <c r="K7" s="28">
+        <f>7.2 * SQRT(L7)</f>
         <v>27.885480092693403</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="15">
         <v>15</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="15">
         <v>93.4</v>
       </c>
-      <c r="N7" s="28">
-        <f>7.6 * SQRT(O7)</f>
+      <c r="O7" s="28">
+        <f>7.6 * SQRT(P7)</f>
         <v>29.434673431176368</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="15">
         <v>15</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="Q7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="S7" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="T7" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="T7" s="99" t="s">
+      <c r="U7" s="99" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+    <row r="8" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50">
         <v>0.30860369698662699</v>
       </c>
-      <c r="B8" s="28">
-        <v>729.20242348297995</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="C8" s="104">
+        <v>788.42874293045998</v>
+      </c>
+      <c r="D8" s="118">
         <v>0.89209842929858996</v>
       </c>
-      <c r="D8" s="34">
+      <c r="E8" s="118">
         <v>0.157069703569087</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F8" s="118">
         <v>0.94722941186061105</v>
       </c>
-      <c r="F8" s="34">
+      <c r="G8" s="118">
         <v>1.12553466960461</v>
       </c>
-      <c r="G8" s="88">
-        <f>-(I8-M8)/I8</f>
+      <c r="H8" s="119">
+        <f>-(J8-N8)/J8</f>
         <v>0.14217633042096903</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="44">
         <v>2518</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="44">
         <v>257</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="44">
         <v>8</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="44">
         <v>2876</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="44">
         <v>506</v>
       </c>
-      <c r="O8" s="15">
+      <c r="P8" s="44">
         <v>6</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="R8" s="44">
         <v>0.05</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="S8" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="T8" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="T8" s="99" t="s">
+      <c r="U8" s="107" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
         <v>0.44229019357833699</v>
       </c>
-      <c r="B9" s="28">
-        <v>476.91943102564102</v>
-      </c>
-      <c r="C9" s="34">
+      <c r="C9" s="28">
+        <v>575.65772240748095</v>
+      </c>
+      <c r="D9" s="34">
         <v>-9.7892748415847802E-2</v>
       </c>
-      <c r="D9" s="34">
+      <c r="E9" s="34">
         <v>0.84788369866973301</v>
       </c>
-      <c r="E9" s="34">
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="F9" s="34">
+      <c r="G9" s="34">
         <v>0.43322506677697697</v>
       </c>
-      <c r="G9" s="88">
+      <c r="H9" s="88">
         <v>-2.3970037453183522E-2</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="15">
         <v>1335</v>
       </c>
-      <c r="J9" s="28">
-        <f>(1430-I9)*SQRT(K9)</f>
+      <c r="K9" s="28">
+        <f>(1430-J9)*SQRT(L9)</f>
         <v>268.70057685088807</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="15">
         <v>8</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="15">
         <v>1303</v>
       </c>
-      <c r="N9" s="28">
-        <f>-(1170-M9)*SQRT(O9)</f>
+      <c r="O9" s="28">
+        <f>-(1170-N9)*SQRT(P9)</f>
         <v>376.18080759124331</v>
       </c>
-      <c r="O9" s="15">
+      <c r="P9" s="15">
         <v>8</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="R9" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="S9" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="T9" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="T9" s="99" t="s">
+      <c r="U9" s="99" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50">
         <v>0.79871378003520699</v>
       </c>
-      <c r="B10" s="28">
-        <v>391.43786617201903</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="C10" s="104">
+        <v>486.60516347500698</v>
+      </c>
+      <c r="D10" s="118">
         <v>0.91661505293428103</v>
       </c>
-      <c r="D10" s="34">
+      <c r="E10" s="118">
         <v>0.269707626815824</v>
       </c>
-      <c r="E10" s="34">
+      <c r="F10" s="118">
         <v>0.92710580411542498</v>
       </c>
-      <c r="F10" s="34">
+      <c r="G10" s="118">
         <v>1.00171580801154</v>
       </c>
-      <c r="G10" s="88">
+      <c r="H10" s="119">
         <f t="shared" si="0"/>
         <v>0.30633802816901406</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="44">
         <v>568</v>
       </c>
-      <c r="J10" s="28">
-        <f>(601-I10)*SQRT(K10)</f>
+      <c r="K10" s="104">
+        <f>(601-J10)*SQRT(L10)</f>
         <v>80.833161511844864</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="44">
         <v>6</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="44">
         <v>742</v>
       </c>
-      <c r="N10" s="15">
-        <f>(870-M10)*SQRT(O10)</f>
+      <c r="O10" s="44">
+        <f>(870-N10)*SQRT(P10)</f>
         <v>256</v>
       </c>
-      <c r="O10" s="15">
+      <c r="P10" s="44">
         <v>4</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="Q10" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="R10" s="44">
         <v>0.05</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="S10" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="T10" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="T10" s="15"/>
-    </row>
-    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="U10" s="44"/>
+    </row>
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
         <v>1.5427763928473599</v>
       </c>
-      <c r="B11" s="30">
-        <v>10.473403683041999</v>
-      </c>
-      <c r="C11" s="34">
-        <v>0.52932779470774405</v>
+      <c r="C11" s="30">
+        <v>11.002317590911201</v>
       </c>
       <c r="D11" s="34">
+        <v>0.52932779470774505</v>
+      </c>
+      <c r="E11" s="34">
         <v>0.30910619071141399</v>
       </c>
-      <c r="E11" s="34">
+      <c r="F11" s="34">
         <v>0.84668918359110501</v>
       </c>
-      <c r="F11" s="34">
+      <c r="G11" s="34">
         <v>0.62062434824087698</v>
       </c>
-      <c r="G11" s="88">
+      <c r="H11" s="88">
         <f t="shared" si="0"/>
         <v>0.36607142857142871</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
         <v>11.2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="15">
         <v>8.7799999999999994</v>
       </c>
-      <c r="K11" s="15">
+      <c r="L11" s="15">
         <v>8</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="M11" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N11" s="15">
         <v>15.3</v>
       </c>
-      <c r="N11" s="15">
+      <c r="O11" s="15">
         <v>6.55</v>
       </c>
-      <c r="O11" s="15">
+      <c r="P11" s="15">
         <v>8</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="Q11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="R11" s="15">
         <v>0.05</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="S11" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="T11" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="T11" s="99" t="s">
+      <c r="U11" s="99" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="100"/>
-      <c r="B12" s="34"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="33"/>
-      <c r="J12" s="28"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="30"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="23"/>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="34"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="33"/>
+      <c r="K12" s="28"/>
+      <c r="M12" s="17"/>
+      <c r="O12" s="30"/>
+      <c r="U12" s="99"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
@@ -11055,23 +10885,23 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
       <c r="AJ12" s="23"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="34"/>
+      <c r="AK12" s="23"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="28"/>
-      <c r="L13" s="17"/>
-      <c r="N13" s="28"/>
-      <c r="P13" s="29"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="23"/>
+      <c r="K13" s="28"/>
+      <c r="M13" s="17"/>
+      <c r="O13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -11087,9 +10917,9 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
       <c r="AJ13" s="23"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="U14" s="23"/>
+      <c r="AK13" s="23"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
@@ -11105,17 +10935,17 @@
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="23"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="H15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="31"/>
+      <c r="AK14" s="23"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="I15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="U15" s="33"/>
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
-      <c r="Z15" s="23"/>
+      <c r="Z15" s="31"/>
       <c r="AA15" s="23"/>
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
@@ -11126,556 +10956,556 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
       <c r="AJ15" s="23"/>
-    </row>
-    <row r="16" spans="1:36" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="AK15" s="23"/>
+    </row>
+    <row r="16" spans="1:37" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="K16" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="L16" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="O16" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="P16" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="Q16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="R16" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="21" t="s">
+      <c r="S16" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="T16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="22"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
-      <c r="Y16" s="85"/>
+      <c r="Y16" s="22"/>
       <c r="Z16" s="85"/>
       <c r="AA16" s="85"/>
       <c r="AB16" s="85"/>
       <c r="AC16" s="85"/>
-      <c r="AD16" s="22"/>
+      <c r="AD16" s="85"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="22"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="23"/>
-    </row>
-    <row r="17" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <f>B17/I17</f>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="23"/>
+    </row>
+    <row r="17" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16">
+        <f>C17/J17</f>
         <v>0.76246262632891626</v>
       </c>
-      <c r="B17" s="30">
-        <f>ABS(M17-I17) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q17)/2))*SQRT(J17^2/K17+N17^2/O17)</f>
+      <c r="C17" s="30">
+        <f>ABS(N17-J17) + ABS(_xlfn.NORM.S.INV(1-(0.05/R17)/2))*SQRT(K17^2/L17+O17^2/P17)</f>
         <v>433.07877175482446</v>
       </c>
-      <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="16">
-        <f t="shared" ref="G17:G30" si="2">-(I17-M17)/I17</f>
+      <c r="G17" s="30"/>
+      <c r="H17" s="16">
+        <f t="shared" ref="H17:H30" si="2">-(J17-N17)/J17</f>
         <v>0.30633802816901406</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="I17" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="15">
+      <c r="J17" s="15">
         <v>568</v>
       </c>
-      <c r="J17" s="28">
-        <f>(601-I17)*SQRT(K17)</f>
+      <c r="K17" s="28">
+        <f>(601-J17)*SQRT(L17)</f>
         <v>80.833161511844864</v>
       </c>
-      <c r="K17" s="15">
+      <c r="L17" s="15">
         <v>6</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="M17" s="15">
+      <c r="N17" s="15">
         <v>742</v>
       </c>
-      <c r="N17" s="15">
-        <f>(870-M17)*SQRT(O17)</f>
+      <c r="O17" s="15">
+        <f>(870-N17)*SQRT(P17)</f>
         <v>256</v>
       </c>
-      <c r="O17" s="15">
+      <c r="P17" s="15">
         <v>4</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="Q17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="R17" s="15">
         <v>1</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="S17" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="T17" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="U17" s="22"/>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="60"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="35"/>
       <c r="Z17" s="60"/>
       <c r="AA17" s="60"/>
       <c r="AB17" s="60"/>
       <c r="AC17" s="60"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="22"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="36"/>
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="22"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="23"/>
-    </row>
-    <row r="18" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <f>B18/I18</f>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="23"/>
+    </row>
+    <row r="18" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="16">
+        <f>C18/J18</f>
         <v>0.19838637870243786</v>
       </c>
-      <c r="B18" s="30">
-        <f t="shared" ref="B18:B33" si="3">ABS(M18-I18) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q18)/2))*SQRT(J18^2/K18+N18^2/O18)</f>
+      <c r="C18" s="30">
+        <f t="shared" ref="C18:C33" si="3">ABS(N18-J18) + ABS(_xlfn.NORM.S.INV(1-(0.05/R18)/2))*SQRT(K18^2/L18+O18^2/P18)</f>
         <v>192.23640096266229</v>
       </c>
-      <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="16">
+      <c r="G18" s="30"/>
+      <c r="H18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I18" s="15">
+      <c r="J18" s="15">
         <v>969</v>
       </c>
-      <c r="J18" s="28">
-        <f>(1061-I18)*SQRT(K18)</f>
+      <c r="K18" s="28">
+        <f>(1061-J18)*SQRT(L18)</f>
         <v>225.35305633605236</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="15">
         <v>6</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="M18" s="15">
+      <c r="N18" s="15">
         <v>969</v>
       </c>
-      <c r="N18" s="30">
-        <f>(1003-M18)*SQRT(O18)</f>
+      <c r="O18" s="30">
+        <f>(1003-N18)*SQRT(P18)</f>
         <v>83.28265125462805</v>
       </c>
-      <c r="O18" s="15">
+      <c r="P18" s="15">
         <v>6</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="Q18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="R18" s="15">
         <v>1</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="S18" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="T18" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="60"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="35"/>
       <c r="Z18" s="60"/>
       <c r="AA18" s="60"/>
       <c r="AB18" s="60"/>
       <c r="AC18" s="60"/>
-      <c r="AD18" s="22"/>
+      <c r="AD18" s="60"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="23"/>
-    </row>
-    <row r="19" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <f>B19/I19</f>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="23"/>
+    </row>
+    <row r="19" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16">
+        <f>C19/J19</f>
         <v>0.37214289377666876</v>
       </c>
-      <c r="B19" s="30">
+      <c r="C19" s="30">
         <f t="shared" si="3"/>
         <v>355.8430350292507</v>
       </c>
-      <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="16">
+      <c r="G19" s="30"/>
+      <c r="H19" s="16">
         <f t="shared" si="2"/>
         <v>-0.19472913616398246</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="I19" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I19" s="28">
+      <c r="J19" s="28">
         <v>956.2</v>
       </c>
-      <c r="J19" s="28">
+      <c r="K19" s="28">
         <v>181</v>
       </c>
-      <c r="K19" s="15">
+      <c r="L19" s="15">
         <v>5</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="M19" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="15">
+      <c r="N19" s="15">
         <v>770</v>
       </c>
-      <c r="N19" s="15">
+      <c r="O19" s="15">
         <v>61.3</v>
       </c>
-      <c r="O19" s="15">
+      <c r="P19" s="15">
         <v>4</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="Q19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="R19" s="15">
         <v>1</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="S19" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="T19" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="U19" s="22"/>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="70"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="35"/>
       <c r="Z19" s="70"/>
       <c r="AA19" s="70"/>
       <c r="AB19" s="70"/>
       <c r="AC19" s="70"/>
-      <c r="AD19" s="22"/>
+      <c r="AD19" s="70"/>
       <c r="AE19" s="22"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="22"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="23"/>
-    </row>
-    <row r="20" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <f t="shared" ref="A20:A23" si="4">B20/I20</f>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="23"/>
+    </row>
+    <row r="20" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <f t="shared" ref="B20:B23" si="4">C20/J20</f>
         <v>0.37638216882612341</v>
       </c>
-      <c r="B20" s="30">
+      <c r="C20" s="30">
         <f t="shared" si="3"/>
         <v>642.4843621861927</v>
       </c>
-      <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="16">
+      <c r="G20" s="30"/>
+      <c r="H20" s="16">
         <f t="shared" si="2"/>
         <v>-6.5026362038664326E-2</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="I20" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
         <v>1707</v>
       </c>
-      <c r="J20" s="28">
+      <c r="K20" s="28">
         <v>379</v>
       </c>
-      <c r="K20" s="15">
+      <c r="L20" s="15">
         <v>6</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="M20" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="M20" s="15">
+      <c r="N20" s="15">
         <v>1596</v>
       </c>
-      <c r="N20" s="15">
+      <c r="O20" s="15">
         <v>172</v>
       </c>
-      <c r="O20" s="15">
+      <c r="P20" s="15">
         <v>8</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="Q20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="R20" s="15">
         <v>36</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="S20" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S20" s="17" t="s">
+      <c r="T20" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="85"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="35"/>
       <c r="Z20" s="85"/>
       <c r="AA20" s="85"/>
       <c r="AB20" s="85"/>
       <c r="AC20" s="85"/>
-      <c r="AD20" s="22"/>
+      <c r="AD20" s="85"/>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="22"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="23"/>
-    </row>
-    <row r="21" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="23"/>
+    </row>
+    <row r="21" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16">
         <f t="shared" si="4"/>
         <v>0.32802541757023052</v>
       </c>
-      <c r="B21" s="30">
+      <c r="C21" s="30">
         <f t="shared" si="3"/>
         <v>46.251583877402503</v>
       </c>
-      <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="16">
+      <c r="G21" s="30"/>
+      <c r="H21" s="16">
         <f t="shared" si="2"/>
         <v>7.0921985815602842E-2</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>141</v>
       </c>
-      <c r="J21" s="30">
+      <c r="K21" s="30">
         <v>34</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="15">
         <v>8</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="M21" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="15">
+      <c r="N21" s="15">
         <v>151</v>
       </c>
-      <c r="N21" s="30">
+      <c r="O21" s="30">
         <v>24</v>
       </c>
-      <c r="O21" s="15">
+      <c r="P21" s="15">
         <v>13</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="R21" s="15">
         <v>6</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="S21" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="T21" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="U21" s="22"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="60"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="35"/>
       <c r="Z21" s="60"/>
       <c r="AA21" s="60"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
-      <c r="AD21" s="22"/>
+      <c r="AD21" s="60"/>
       <c r="AE21" s="22"/>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="22"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="23"/>
-    </row>
-    <row r="22" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="23"/>
+    </row>
+    <row r="22" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
         <f t="shared" si="4"/>
         <v>0.55319477898724823</v>
       </c>
-      <c r="B22" s="30">
+      <c r="C22" s="30">
         <f t="shared" si="3"/>
         <v>245.6184818703382</v>
       </c>
-      <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="16">
+      <c r="G22" s="30"/>
+      <c r="H22" s="16">
         <f t="shared" si="2"/>
         <v>-0.27027027027027029</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="I22" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J22" s="15">
         <v>444</v>
       </c>
-      <c r="J22" s="28">
+      <c r="K22" s="28">
         <v>109</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="15">
         <v>9</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="M22" s="15">
+      <c r="N22" s="15">
         <v>324</v>
       </c>
-      <c r="N22" s="30">
+      <c r="O22" s="30">
         <v>88</v>
       </c>
-      <c r="O22" s="15">
+      <c r="P22" s="15">
         <v>9</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="Q22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="R22" s="15">
         <v>7</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="S22" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="T22" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="U22" s="22"/>
       <c r="V22" s="22"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="24"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="24"/>
       <c r="AE22" s="22"/>
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="22"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="23"/>
-    </row>
-    <row r="23" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="23"/>
+    </row>
+    <row r="23" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
         <f t="shared" si="4"/>
         <v>0.25241768129024467</v>
       </c>
-      <c r="B23" s="30">
+      <c r="C23" s="30">
         <f t="shared" si="3"/>
         <v>147.66434355479313</v>
       </c>
-      <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="16">
+      <c r="G23" s="30"/>
+      <c r="H23" s="16">
         <f t="shared" si="2"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="I23" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="15">
         <v>585</v>
       </c>
-      <c r="J23" s="28">
+      <c r="K23" s="28">
         <v>131</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="15">
         <v>11</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="M23" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="M23" s="15">
+      <c r="N23" s="15">
         <v>598</v>
       </c>
-      <c r="N23" s="15">
+      <c r="O23" s="15">
         <v>102</v>
       </c>
-      <c r="O23" s="15">
+      <c r="P23" s="15">
         <v>11</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="Q23" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="R23" s="15">
         <v>7</v>
       </c>
-      <c r="R23" s="15" t="s">
+      <c r="S23" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="T23" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="U23" s="22"/>
       <c r="V23" s="22"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="23"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="41"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
@@ -11683,888 +11513,780 @@
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
-      <c r="AG23" s="22"/>
+      <c r="AG23" s="23"/>
       <c r="AH23" s="22"/>
-      <c r="AI23" s="23"/>
+      <c r="AI23" s="22"/>
       <c r="AJ23" s="23"/>
-    </row>
-    <row r="24" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
-        <f t="shared" ref="A24:A33" si="5">B24/I24</f>
+      <c r="AK23" s="23"/>
+    </row>
+    <row r="24" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
+        <f t="shared" ref="B24:B33" si="5">C24/J24</f>
         <v>0.30655439205386198</v>
       </c>
-      <c r="B24" s="30">
+      <c r="C24" s="30">
         <f t="shared" si="3"/>
         <v>32.218866604860892</v>
       </c>
-      <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="16">
+      <c r="G24" s="30"/>
+      <c r="H24" s="16">
         <f t="shared" si="2"/>
         <v>-0.11132254995242616</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="I24" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
         <v>105.1</v>
       </c>
-      <c r="J24" s="15">
-        <f>7.2 * SQRT(K24)</f>
+      <c r="K24" s="15">
+        <f>7.2 * SQRT(L24)</f>
         <v>27.885480092693403</v>
       </c>
-      <c r="K24" s="15">
+      <c r="L24" s="15">
         <v>15</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="M24" s="15">
+      <c r="N24" s="15">
         <v>93.4</v>
       </c>
-      <c r="N24" s="15">
-        <f>7.6 * SQRT(O24)</f>
+      <c r="O24" s="15">
+        <f>7.6 * SQRT(P24)</f>
         <v>29.434673431176368</v>
       </c>
-      <c r="O24" s="15">
+      <c r="P24" s="15">
         <v>15</v>
       </c>
-      <c r="P24" s="29" t="s">
+      <c r="Q24" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="R24" s="15">
         <v>1</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="S24" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S24" s="17" t="s">
+      <c r="T24" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="V24" s="15"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="43"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="15"/>
-    </row>
-    <row r="25" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="W24" s="15"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="15"/>
+    </row>
+    <row r="25" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16">
         <f t="shared" si="5"/>
         <v>0.20852591191889538</v>
       </c>
-      <c r="B25" s="30">
+      <c r="C25" s="30">
         <f t="shared" si="3"/>
         <v>0.47752433829427043</v>
       </c>
-      <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="16">
+      <c r="G25" s="30"/>
+      <c r="H25" s="16">
         <f t="shared" si="2"/>
         <v>4.3668122270741428E-3</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="I25" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="I25" s="15">
+      <c r="J25" s="15">
         <v>2.29</v>
       </c>
-      <c r="J25" s="15">
-        <f>0.2*SQRT(K25)</f>
+      <c r="K25" s="15">
+        <f>0.2*SQRT(L25)</f>
         <v>0.52915026221291817</v>
       </c>
-      <c r="K25" s="15">
+      <c r="L25" s="15">
         <v>7</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="M25" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="M25" s="15">
+      <c r="N25" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N25" s="15">
-        <f>0.13 * SQRT(O25)</f>
+      <c r="O25" s="15">
+        <f>0.13 * SQRT(P25)</f>
         <v>0.31843366656181316</v>
       </c>
-      <c r="O25" s="15">
+      <c r="P25" s="15">
         <v>6</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="Q25" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="R25" s="15">
         <v>1</v>
       </c>
-      <c r="R25" s="15" t="s">
+      <c r="S25" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="T25" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+    <row r="26" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
         <f t="shared" si="5"/>
         <v>0.13150324230088839</v>
       </c>
-      <c r="B26" s="30">
+      <c r="C26" s="30">
         <f t="shared" si="3"/>
         <v>0.45368618593806492</v>
       </c>
-      <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="16">
+      <c r="G26" s="30"/>
+      <c r="H26" s="16">
         <f t="shared" si="2"/>
         <v>-5.5072463768116052E-2</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="15">
+      <c r="J26" s="15">
         <v>3.45</v>
       </c>
-      <c r="J26" s="15">
-        <f>(3.55-I26)*SQRT(K26)</f>
+      <c r="K26" s="15">
+        <f>(3.55-J26)*SQRT(L26)</f>
         <v>0.24494897427831691</v>
       </c>
-      <c r="K26" s="15">
+      <c r="L26" s="15">
         <v>6</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="M26" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="M26" s="15">
+      <c r="N26" s="15">
         <v>3.26</v>
       </c>
-      <c r="N26" s="15">
-        <f>(3.35-M26)*SQRT(O26)</f>
+      <c r="O26" s="15">
+        <f>(3.35-N26)*SQRT(P26)</f>
         <v>0.22045407685048674</v>
       </c>
-      <c r="O26" s="15">
+      <c r="P26" s="15">
         <v>6</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="Q26" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="R26" s="15">
         <v>1</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="S26" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S26" s="17" t="s">
+      <c r="T26" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+    <row r="27" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
         <f t="shared" si="5"/>
         <v>0.31783680485099841</v>
       </c>
-      <c r="B27" s="30">
+      <c r="C27" s="30">
         <f t="shared" si="3"/>
         <v>800.31307461481401</v>
       </c>
-      <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="16">
+      <c r="G27" s="30"/>
+      <c r="H27" s="16">
         <f t="shared" si="2"/>
         <v>0.14217633042096903</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="I27" s="15">
+      <c r="J27" s="15">
         <v>2518</v>
       </c>
-      <c r="J27" s="15">
+      <c r="K27" s="15">
         <v>257</v>
       </c>
-      <c r="K27" s="15">
+      <c r="L27" s="15">
         <v>8</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="M27" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="M27" s="15">
+      <c r="N27" s="15">
         <v>2876</v>
       </c>
-      <c r="N27" s="15">
+      <c r="O27" s="15">
         <v>506</v>
       </c>
-      <c r="O27" s="15">
+      <c r="P27" s="15">
         <v>6</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="Q27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="R27" s="15">
         <v>1</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="S27" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S27" s="17" t="s">
+      <c r="T27" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    <row r="28" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
         <f t="shared" si="5"/>
         <v>0.18570767203637512</v>
       </c>
-      <c r="B28" s="30">
+      <c r="C28" s="30">
         <f t="shared" si="3"/>
         <v>232.32029771750527</v>
       </c>
-      <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="16">
+      <c r="G28" s="30"/>
+      <c r="H28" s="16">
         <f t="shared" si="2"/>
         <v>-5.7553956834532377E-2</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="I28" s="15">
+      <c r="J28" s="15">
         <v>1251</v>
       </c>
-      <c r="J28" s="15">
+      <c r="K28" s="15">
         <v>161.1</v>
       </c>
-      <c r="K28" s="15">
+      <c r="L28" s="15">
         <v>10</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="M28" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="M28" s="15">
+      <c r="N28" s="15">
         <v>1179</v>
       </c>
-      <c r="N28" s="15">
+      <c r="O28" s="15">
         <v>143.1</v>
       </c>
-      <c r="O28" s="15">
+      <c r="P28" s="15">
         <v>5</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="Q28" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="R28" s="15">
         <v>1</v>
       </c>
-      <c r="R28" s="15" t="s">
+      <c r="S28" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="T28" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+    <row r="29" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
         <f t="shared" si="5"/>
         <v>0.30437436585636163</v>
       </c>
-      <c r="B29" s="30">
+      <c r="C29" s="30">
         <f t="shared" si="3"/>
         <v>711.62726737217349</v>
       </c>
-      <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="16">
+      <c r="G29" s="30"/>
+      <c r="H29" s="16">
         <f t="shared" si="2"/>
         <v>-0.12745936698032506</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="I29" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="I29" s="15">
+      <c r="J29" s="15">
         <v>2338</v>
       </c>
-      <c r="J29" s="15">
+      <c r="K29" s="15">
         <v>332.4</v>
       </c>
-      <c r="K29" s="15">
+      <c r="L29" s="15">
         <v>5</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="M29" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="M29" s="15">
+      <c r="N29" s="15">
         <v>2040</v>
       </c>
-      <c r="N29" s="15">
+      <c r="O29" s="15">
         <v>473.7</v>
       </c>
-      <c r="O29" s="15">
+      <c r="P29" s="15">
         <v>10</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="Q29" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="R29" s="15">
         <v>1</v>
       </c>
-      <c r="R29" s="15" t="s">
+      <c r="S29" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="T29" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+    <row r="30" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
         <f t="shared" si="5"/>
         <v>0.2457489064823086</v>
       </c>
-      <c r="B30" s="30">
+      <c r="C30" s="30">
         <f t="shared" si="3"/>
         <v>261.47683649717635</v>
       </c>
-      <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="16">
+      <c r="G30" s="30"/>
+      <c r="H30" s="16">
         <f t="shared" si="2"/>
         <v>5.921052631578947E-2</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="I30" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="I30" s="15">
+      <c r="J30" s="15">
         <v>1064</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K30" s="15">
         <v>159.80000000000001</v>
       </c>
-      <c r="K30" s="15">
+      <c r="L30" s="15">
         <v>13</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="M30" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="15">
+      <c r="N30" s="15">
         <v>1127</v>
       </c>
-      <c r="N30" s="15">
+      <c r="O30" s="15">
         <v>240.9</v>
       </c>
-      <c r="O30" s="15">
+      <c r="P30" s="15">
         <v>7</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="Q30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="R30" s="15">
         <v>1</v>
       </c>
-      <c r="R30" s="15" t="s">
+      <c r="S30" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="T30" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <f>B31/I31</f>
+    <row r="31" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <f>C31/J31</f>
         <v>1.3070247279545484</v>
       </c>
-      <c r="B31" s="30">
-        <f t="shared" ref="B31" si="6">ABS(M31-I31) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q31)/2))*SQRT(J31^2/K31+N31^2/O31)</f>
+      <c r="C31" s="30">
+        <f t="shared" ref="C31" si="6">ABS(N31-J31) + ABS(_xlfn.NORM.S.INV(1-(0.05/R31)/2))*SQRT(K31^2/L31+O31^2/P31)</f>
         <v>1209.9127906675255</v>
       </c>
-      <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="16">
-        <f t="shared" ref="G31:G36" si="7">-(I31-M31)/I31</f>
+      <c r="G31" s="30"/>
+      <c r="H31" s="16">
+        <f t="shared" ref="H31:H36" si="7">-(J31-N31)/J31</f>
         <v>0.39105541752187534</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="I31" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="I31" s="32">
+      <c r="J31" s="32">
         <v>925.7</v>
       </c>
-      <c r="J31" s="15">
-        <f>407.2*SQRT(K31)</f>
+      <c r="K31" s="15">
+        <f>407.2*SQRT(L31)</f>
         <v>1909.9372974001005</v>
       </c>
-      <c r="K31" s="32">
+      <c r="L31" s="32">
         <v>22</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="M31" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="M31" s="32">
+      <c r="N31" s="32">
         <v>1287.7</v>
       </c>
-      <c r="N31" s="15">
-        <f>146.1*SQRT(O31)</f>
+      <c r="O31" s="15">
+        <f>146.1*SQRT(P31)</f>
         <v>685.26974251020306</v>
       </c>
-      <c r="O31" s="15">
+      <c r="P31" s="15">
         <v>22</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="Q31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="R31" s="15">
         <v>1</v>
       </c>
-      <c r="R31" s="15" t="s">
+      <c r="S31" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="T31" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
-        <f>B32/I32</f>
+    <row r="32" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <f>C32/J32</f>
         <v>0.52262782931344631</v>
       </c>
-      <c r="B32" s="30">
+      <c r="C32" s="30">
         <f t="shared" si="3"/>
         <v>541.96505899804379</v>
       </c>
-      <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="16">
+      <c r="G32" s="30"/>
+      <c r="H32" s="16">
         <f t="shared" si="7"/>
         <v>-0.10077145612343298</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="I32" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="I32" s="32">
+      <c r="J32" s="32">
         <v>1037</v>
       </c>
-      <c r="J32" s="15">
-        <f>183.2*SQRT(K32)</f>
+      <c r="K32" s="15">
+        <f>183.2*SQRT(L32)</f>
         <v>634.6234158932366</v>
       </c>
-      <c r="K32" s="32">
+      <c r="L32" s="32">
         <v>12</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="M32" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="M32" s="32">
+      <c r="N32" s="32">
         <v>932.5</v>
       </c>
-      <c r="N32" s="15">
-        <f>127.5*SQRT(O32)</f>
+      <c r="O32" s="15">
+        <f>127.5*SQRT(P32)</f>
         <v>441.67295593006367</v>
       </c>
-      <c r="O32" s="15">
+      <c r="P32" s="15">
         <v>12</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="Q32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="R32" s="15">
         <v>1</v>
       </c>
-      <c r="R32" s="15" t="s">
+      <c r="S32" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S32" s="17" t="s">
+      <c r="T32" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+    <row r="33" spans="2:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
         <f t="shared" si="5"/>
         <v>0.34916741888978198</v>
       </c>
-      <c r="B33" s="30">
+      <c r="C33" s="30">
         <f t="shared" si="3"/>
         <v>36.66257898342711</v>
       </c>
-      <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="16">
+      <c r="G33" s="30"/>
+      <c r="H33" s="16">
         <f t="shared" si="7"/>
         <v>-0.11047619047619042</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="I33" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="I33" s="15">
+      <c r="J33" s="15">
         <v>105</v>
       </c>
-      <c r="J33" s="15">
-        <f>7.2*SQRT(K33)</f>
+      <c r="K33" s="15">
+        <f>7.2*SQRT(L33)</f>
         <v>27.885480092693403</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <v>15</v>
       </c>
-      <c r="L33" s="33" t="s">
+      <c r="M33" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N33" s="15">
         <v>93.4</v>
       </c>
-      <c r="N33" s="15">
-        <f>7.6*SQRT(O33)</f>
+      <c r="O33" s="15">
+        <f>7.6*SQRT(P33)</f>
         <v>29.434673431176368</v>
       </c>
-      <c r="O33" s="15">
+      <c r="P33" s="15">
         <v>15</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="Q33" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="R33" s="15">
         <v>3</v>
       </c>
-      <c r="R33" s="15" t="s">
+      <c r="S33" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="T33" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
-        <f t="shared" ref="A34" si="8">B34/I34</f>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <f t="shared" ref="B34" si="8">C34/J34</f>
         <v>0.37476412762919364</v>
       </c>
-      <c r="B34" s="30">
-        <f t="shared" ref="B34" si="9">ABS(M34-I34) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q34)/2))*SQRT(J34^2/K34+N34^2/O34)</f>
+      <c r="C34" s="30">
+        <f t="shared" ref="C34" si="9">ABS(N34-J34) + ABS(_xlfn.NORM.S.INV(1-(0.05/R34)/2))*SQRT(K34^2/L34+O34^2/P34)</f>
         <v>500.31011038497354</v>
       </c>
-      <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="16">
+      <c r="G34" s="30"/>
+      <c r="H34" s="16">
         <f t="shared" si="7"/>
         <v>-2.3970037453183522E-2</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="I34" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="I34" s="15">
+      <c r="J34" s="15">
         <v>1335</v>
       </c>
-      <c r="J34" s="28">
-        <f>(1430-I34)*SQRT(K34)</f>
+      <c r="K34" s="28">
+        <f>(1430-J34)*SQRT(L34)</f>
         <v>268.70057685088807</v>
       </c>
-      <c r="K34" s="15">
+      <c r="L34" s="15">
         <v>8</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="M34" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="M34" s="15">
+      <c r="N34" s="15">
         <v>1303</v>
       </c>
-      <c r="N34" s="28">
-        <f>-(1170-M34)*SQRT(O34)</f>
+      <c r="O34" s="28">
+        <f>-(1170-N34)*SQRT(P34)</f>
         <v>376.18080759124331</v>
       </c>
-      <c r="O34" s="15">
+      <c r="P34" s="15">
         <v>8</v>
       </c>
-      <c r="P34" s="15" t="s">
+      <c r="Q34" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="R34" s="15">
         <v>12</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="S34" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="S34" s="17" t="s">
+      <c r="T34" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
-        <f t="shared" ref="A35" si="10">B35/I35</f>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B35" s="16">
+        <f t="shared" ref="B35" si="10">C35/J35</f>
         <v>1.043805361063364</v>
       </c>
-      <c r="B35" s="30">
-        <f t="shared" ref="B35" si="11">ABS(M35-I35) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q35)/2))*SQRT(J35^2/K35+N35^2/O35)</f>
+      <c r="C35" s="30">
+        <f t="shared" ref="C35" si="11">ABS(N35-J35) + ABS(_xlfn.NORM.S.INV(1-(0.05/R35)/2))*SQRT(K35^2/L35+O35^2/P35)</f>
         <v>11.690620043909675</v>
       </c>
-      <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="16">
+      <c r="G35" s="30"/>
+      <c r="H35" s="16">
         <f t="shared" si="7"/>
         <v>0.36607142857142871</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="I35" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="15">
+      <c r="J35" s="15">
         <v>11.2</v>
       </c>
-      <c r="J35" s="15">
+      <c r="K35" s="15">
         <v>8.7799999999999994</v>
       </c>
-      <c r="K35" s="15">
+      <c r="L35" s="15">
         <v>8</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="M35" s="15">
+      <c r="N35" s="15">
         <v>15.3</v>
       </c>
-      <c r="N35" s="15">
+      <c r="O35" s="15">
         <v>6.55</v>
       </c>
-      <c r="O35" s="15">
+      <c r="P35" s="15">
         <v>8</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="Q35" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="R35" s="15">
         <v>1</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="S35" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="T35" s="17" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <f t="shared" ref="A36" si="12">B36/I36</f>
+    <row r="36" spans="2:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="16">
+        <f t="shared" ref="B36" si="12">C36/J36</f>
         <v>0.30940876188920674</v>
       </c>
-      <c r="B36" s="30">
-        <f t="shared" ref="B36" si="13">ABS(M36-I36) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q36)/2))*SQRT(J36^2/K36+N36^2/O36)</f>
+      <c r="C36" s="30">
+        <f t="shared" ref="C36" si="13">ABS(N36-J36) + ABS(_xlfn.NORM.S.INV(1-(0.05/R36)/2))*SQRT(K36^2/L36+O36^2/P36)</f>
         <v>584.16374244682231</v>
       </c>
-      <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="16">
+      <c r="G36" s="30"/>
+      <c r="H36" s="16">
         <f t="shared" si="7"/>
         <v>5.2966101694915252E-2</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="I36" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="I36" s="15">
+      <c r="J36" s="15">
         <v>1888</v>
       </c>
-      <c r="J36" s="15">
-        <f>(2062-I36)*SQRT(K36)</f>
+      <c r="K36" s="15">
+        <f>(2062-J36)*SQRT(L36)</f>
         <v>627.36592193073409</v>
       </c>
-      <c r="K36" s="15">
+      <c r="L36" s="15">
         <v>13</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="M36" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="M36" s="15">
+      <c r="N36" s="15">
         <v>1988</v>
       </c>
-      <c r="N36" s="15">
-        <f>(2116-M36)*SQRT(O36)</f>
+      <c r="O36" s="15">
+        <f>(2116-N36)*SQRT(P36)</f>
         <v>461.51056325939061</v>
       </c>
-      <c r="O36" s="15">
+      <c r="P36" s="15">
         <v>13</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="Q36" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="R36" s="15">
         <v>2</v>
       </c>
-      <c r="R36" s="15" t="s">
+      <c r="S36" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S36" s="17" t="s">
+      <c r="T36" s="17" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="V38" s="16"/>
-      <c r="W38" s="15"/>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="W38" s="16"/>
       <c r="X38" s="15"/>
-      <c r="Z38" s="15"/>
+      <c r="Y38" s="15"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
-      <c r="AD38" s="15"/>
+      <c r="AC38" s="15"/>
       <c r="AE38" s="15"/>
-      <c r="AF38" s="17"/>
+      <c r="AF38" s="15"/>
       <c r="AG38" s="17"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
+      <c r="AH38" s="17"/>
+    </row>
+    <row r="39" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S11">
-    <sortCondition ref="A3:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:T11">
+    <sortCondition ref="B3:B11"/>
   </sortState>
-  <conditionalFormatting sqref="W6:XFD6 T34:XFD34 T36:XFD36 B1:XFD1 R6:U6 B10:F11 Z3:XFD3 Y9:XFD9 R4:XFD5 T10:XFD11 AD16:XFD21 A34:P34 A35:XFD35 A37:XFD1048576 A3:X3 A2:XFD2 A22:XFD33 A16:X21 A36:G36 A12:XFD12 A9:U9 A4:Q6 A15:XFD15 U13:XFD14 A7:XFD8">
-    <cfRule type="expression" dxfId="600" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="599" priority="49">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q34:S34">
-    <cfRule type="expression" dxfId="598" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="597" priority="35">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="596" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="595" priority="33">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="594" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="593" priority="31">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36">
-    <cfRule type="expression" dxfId="592" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="591" priority="29">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="590" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="27">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="588" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="587" priority="23">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="586" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="585" priority="21">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:S10">
-    <cfRule type="expression" dxfId="584" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="13">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="582" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="11">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A11 R11:S11 G10:P11">
-    <cfRule type="expression" dxfId="580" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="15">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:AC21">
-    <cfRule type="expression" dxfId="578" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:T13">
-    <cfRule type="expression" dxfId="577" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="576" priority="4">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:T7">
-    <cfRule type="expression" dxfId="575" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="574" priority="2">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12621,28 +12343,28 @@
         <v>361</v>
       </c>
       <c r="B2" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="108" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="108" t="s">
+      <c r="F2" s="109" t="s">
         <v>429</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="G2" s="108" t="s">
         <v>424</v>
       </c>
-      <c r="F2" s="109" t="s">
-        <v>430</v>
-      </c>
-      <c r="G2" s="108" t="s">
+      <c r="H2" s="108" t="s">
         <v>425</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="I2" s="108" t="s">
         <v>426</v>
-      </c>
-      <c r="I2" s="108" t="s">
-        <v>427</v>
       </c>
       <c r="J2" s="108" t="s">
         <v>47</v>
@@ -13704,66 +13426,66 @@
     <sortCondition descending="1" ref="A3:A11"/>
   </sortState>
   <conditionalFormatting sqref="Q7:XFD7 N7:O7 Q13:XFD13 N2:XFD6 AB35:XFD35 A13:O13 A31:I31 K31:M31 A15:E15 A29 E29:L29 A18:M28 B1:XFD1 N8:XFD12 A14:XFD14 A32:XFD34 A36:XFD1048576 A35:O35 G15:XFD15 A3:M9 N17:XFD31 A30:M30 A16:XFD16 A2 J2:M2">
-    <cfRule type="expression" dxfId="573" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="572" priority="40">
+    <cfRule type="expression" dxfId="582" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="581" priority="40">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="571" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="570" priority="16">
+    <cfRule type="expression" dxfId="580" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="579" priority="16">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="569" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="14">
+    <cfRule type="expression" dxfId="578" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="577" priority="14">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="567" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="566" priority="12">
+    <cfRule type="expression" dxfId="576" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="575" priority="12">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 E10:L10 A11:M12">
-    <cfRule type="expression" dxfId="565" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="564" priority="8">
+    <cfRule type="expression" dxfId="574" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="573" priority="8">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="expression" dxfId="563" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="562" priority="6">
+    <cfRule type="expression" dxfId="572" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="571" priority="6">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="561" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="560" priority="4">
+    <cfRule type="expression" dxfId="570" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="569" priority="4">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:I2">
-    <cfRule type="expression" dxfId="559" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="558" priority="2">
+    <cfRule type="expression" dxfId="568" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="567" priority="2">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13774,728 +13496,767 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B673FAB6-1E3C-4258-9C8D-D9DBE685A34B}">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="4" style="59" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="59" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="59" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="59" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="58" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="59" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="59" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="59" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" style="59" customWidth="1"/>
-    <col min="17" max="17" width="5" style="59" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="59" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="58" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" style="60" customWidth="1"/>
-    <col min="21" max="25" width="4.85546875" style="60" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" style="60" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" style="60" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="60" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" style="60" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" style="60" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" style="60" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="60" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" style="60" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="60" customWidth="1"/>
-    <col min="36" max="36" width="3.85546875" style="60" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="1" width="1.5703125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="4" style="59" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="59" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="59" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="59" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="58" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="59" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="59" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="59" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="59" customWidth="1"/>
+    <col min="18" max="18" width="5" style="59" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" style="59" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="60" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" style="60" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="60" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" style="60" customWidth="1"/>
+    <col min="28" max="29" width="4.7109375" style="60" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" style="60" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="60" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="60" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" style="60" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="60" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="60" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="60" customWidth="1"/>
+    <col min="37" max="37" width="3.85546875" style="60" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
-      <c r="S1" s="17"/>
-    </row>
-    <row r="2" spans="1:36" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="17"/>
+    </row>
+    <row r="2" spans="1:37" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="D2" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="I2" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="L2" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="I2" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="J2" s="56" t="s">
+      <c r="M2" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="N2" s="56" t="s">
         <v>424</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="O2" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="U2" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="M2" s="56" t="s">
-        <v>425</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="P2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="R2" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="S2" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="56" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    </row>
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="112">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
         <v>0.15587183086280601</v>
       </c>
-      <c r="B3" s="40">
-        <v>6.5599316794289297</v>
-      </c>
-      <c r="C3" s="96">
+      <c r="C3" s="34">
+        <v>6.8478424111484504</v>
+      </c>
+      <c r="D3" s="96">
         <v>0.61999379158845302</v>
       </c>
-      <c r="D3" s="15">
+      <c r="E3" s="15">
         <v>0.152269870685557</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>0.75065005931402995</v>
       </c>
-      <c r="G3" s="16">
-        <f t="shared" ref="G3:G11" si="0">(M3-I3)/I3</f>
+      <c r="H3" s="16">
+        <f t="shared" ref="H3:H11" si="0">(N3-J3)/J3</f>
         <v>5.5214723926380431E-2</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="I3" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="91">
+      <c r="J3" s="91">
         <v>48.9</v>
       </c>
-      <c r="J3" s="91">
+      <c r="K3" s="91">
         <v>3.3</v>
       </c>
-      <c r="K3" s="91">
+      <c r="L3" s="91">
         <v>9</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="M3" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="M3" s="91">
+      <c r="N3" s="91">
         <v>51.6</v>
       </c>
-      <c r="N3" s="91">
+      <c r="O3" s="91">
         <v>5.2</v>
       </c>
-      <c r="O3" s="91">
+      <c r="P3" s="91">
         <v>13</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="Q3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="91" t="s">
+      <c r="R3" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="S3" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="S3" s="90" t="s">
+      <c r="T3" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="T3" s="99" t="s">
+      <c r="U3" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="U3" s="99"/>
-    </row>
-    <row r="4" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="V3" s="99"/>
+      <c r="Z3" s="40"/>
+    </row>
+    <row r="4" spans="1:37" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="112">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50">
         <v>0.20303818219409001</v>
       </c>
-      <c r="B4" s="44">
-        <v>132047.55883083699</v>
-      </c>
-      <c r="C4" s="97">
+      <c r="C4" s="44">
+        <v>146293.86068285399</v>
+      </c>
+      <c r="D4" s="97">
         <v>3.5713564070074102E-2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="E4" s="44">
         <v>0.94420461601463701</v>
       </c>
-      <c r="E4" s="44">
+      <c r="F4" s="44">
         <v>0.52799925897395805</v>
       </c>
-      <c r="F4" s="44">
+      <c r="G4" s="44">
         <v>0.42833084817045303</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
         <v>7.1802543006731492E-3</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="I4" s="92" t="s">
         <v>409</v>
       </c>
-      <c r="I4" s="93">
+      <c r="J4" s="93">
         <v>668500</v>
       </c>
-      <c r="J4" s="93">
+      <c r="K4" s="93">
         <v>106700</v>
       </c>
-      <c r="K4" s="93">
+      <c r="L4" s="93">
         <v>8</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="M4" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="M4" s="93">
+      <c r="N4" s="93">
         <v>673300</v>
       </c>
-      <c r="N4" s="93">
+      <c r="O4" s="93">
         <v>157300</v>
       </c>
-      <c r="O4" s="93">
+      <c r="P4" s="93">
         <v>8</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="R4" s="93">
         <v>0.05</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="S4" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="T4" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-    </row>
-    <row r="5" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
+      <c r="V4" s="15"/>
+      <c r="Z4" s="44"/>
+    </row>
+    <row r="5" spans="1:37" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="112">
+        <v>3</v>
+      </c>
+      <c r="B5" s="51">
         <v>0.26359851262496098</v>
       </c>
-      <c r="B5" s="94">
-        <v>104323.157854545</v>
-      </c>
-      <c r="C5" s="98">
+      <c r="C5" s="94">
+        <v>109228.62148842</v>
+      </c>
+      <c r="D5" s="98">
         <v>5.0486469068246699E-2</v>
       </c>
-      <c r="D5" s="53">
+      <c r="E5" s="53">
         <v>0.89255209995396501</v>
       </c>
-      <c r="E5" s="53">
+      <c r="F5" s="53">
         <v>0.55332797401924605</v>
       </c>
-      <c r="F5" s="53">
+      <c r="G5" s="53">
         <v>0.35124519657054598</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>-1.9669504201611735E-2</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="I5" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="I5" s="53">
+      <c r="J5" s="53">
         <v>365693</v>
       </c>
-      <c r="J5" s="53">
+      <c r="K5" s="53">
         <v>125513</v>
       </c>
-      <c r="K5" s="53">
+      <c r="L5" s="53">
         <v>14</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="M5" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="M5" s="53">
+      <c r="N5" s="53">
         <v>358500</v>
       </c>
-      <c r="N5" s="53">
+      <c r="O5" s="53">
         <v>157620</v>
       </c>
-      <c r="O5" s="53">
+      <c r="P5" s="53">
         <v>15</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="Q5" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="R5" s="53" t="s">
         <v>357</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="S5" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="T5" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="T5" s="99" t="s">
+      <c r="U5" s="99" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="Z5" s="94"/>
+    </row>
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="112">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
         <v>0.32910520157054102</v>
       </c>
-      <c r="B6" s="28">
-        <v>120.628600719123</v>
-      </c>
-      <c r="C6" s="96">
+      <c r="C6" s="28">
+        <v>126.021317239962</v>
+      </c>
+      <c r="D6" s="96">
         <v>0.91323124927187205</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="15">
         <v>8.20683916746308E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>0.95737296396212801</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>1.2343254517573801</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>-0.18055555555555555</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="39">
+      <c r="J6" s="39">
         <v>360</v>
       </c>
-      <c r="J6" s="28">
+      <c r="K6" s="28">
         <v>94</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="15">
         <v>9</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="15">
         <v>295</v>
       </c>
-      <c r="N6" s="30">
+      <c r="O6" s="30">
         <v>36</v>
       </c>
-      <c r="O6" s="15">
+      <c r="P6" s="15">
         <v>8</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="T6" s="99" t="s">
+      <c r="U6" s="99" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
+      <c r="Z6" s="28"/>
+    </row>
+    <row r="7" spans="1:37" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="112">
+        <v>5</v>
+      </c>
+      <c r="B7" s="51">
         <v>0.50762085262478696</v>
       </c>
-      <c r="B7" s="95">
-        <v>13.450786681903899</v>
-      </c>
-      <c r="C7" s="98">
+      <c r="C7" s="95">
+        <v>15.0016629188304</v>
+      </c>
+      <c r="D7" s="98">
         <v>0.39130715079531098</v>
       </c>
-      <c r="D7" s="53">
+      <c r="E7" s="53">
         <v>0.47329322505174598</v>
       </c>
-      <c r="E7" s="53">
+      <c r="F7" s="53">
         <v>1</v>
       </c>
-      <c r="F7" s="53">
+      <c r="G7" s="53">
         <v>0.53185997443182498</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>-0.16017316017316027</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="I7" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="I7" s="53">
+      <c r="J7" s="53">
         <v>23.1</v>
       </c>
-      <c r="J7" s="53">
+      <c r="K7" s="53">
         <v>11.3</v>
       </c>
-      <c r="K7" s="53">
+      <c r="L7" s="53">
         <v>7</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="M7" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="M7" s="53">
+      <c r="N7" s="53">
         <v>19.399999999999999</v>
       </c>
-      <c r="N7" s="95">
+      <c r="O7" s="95">
         <v>7.15</v>
       </c>
-      <c r="O7" s="53">
+      <c r="P7" s="53">
         <v>8</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="Q7" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="53" t="s">
+      <c r="R7" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="S7" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="S7" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="T7" s="99" t="s">
+      <c r="T7" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="U7" s="99" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="Z7" s="95"/>
+    </row>
+    <row r="8" spans="1:37" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="112">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
         <v>1.0902953689300201</v>
       </c>
-      <c r="B8" s="34">
-        <v>0.56557243173793503</v>
-      </c>
-      <c r="C8" s="96">
+      <c r="C8" s="34">
+        <v>0.655449359381305</v>
+      </c>
+      <c r="D8" s="96">
         <v>0.25180073430266697</v>
       </c>
-      <c r="D8" s="15">
+      <c r="E8" s="15">
         <v>0.62356527119917304</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>0.46608805098768102</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>-0.13464235624123419</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="I8" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="I8" s="93">
+      <c r="J8" s="93">
         <v>0.71299999999999997</v>
       </c>
-      <c r="J8" s="93">
+      <c r="K8" s="93">
         <v>0.29699999999999999</v>
       </c>
-      <c r="K8" s="93">
+      <c r="L8" s="93">
         <v>8</v>
       </c>
-      <c r="L8" s="92" t="s">
+      <c r="M8" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="M8" s="93">
+      <c r="N8" s="93">
         <v>0.61699999999999999</v>
       </c>
-      <c r="N8" s="93">
+      <c r="O8" s="93">
         <v>0.45</v>
       </c>
-      <c r="O8" s="93">
+      <c r="P8" s="93">
         <v>8</v>
       </c>
-      <c r="P8" s="93" t="s">
+      <c r="Q8" s="93" t="s">
         <v>412</v>
       </c>
-      <c r="Q8" s="93" t="s">
+      <c r="R8" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="S8" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="T8" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="T8" s="99" t="s">
+      <c r="U8" s="99" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="Z8" s="34"/>
+    </row>
+    <row r="9" spans="1:37" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="112">
+        <v>7</v>
+      </c>
+      <c r="B9" s="51">
         <v>1.32890473186248</v>
       </c>
-      <c r="B9" s="95">
-        <v>31.1213947794216</v>
-      </c>
-      <c r="C9" s="98">
+      <c r="C9" s="94">
+        <v>33.3235397238236</v>
+      </c>
+      <c r="D9" s="98">
         <v>0.12847995194645101</v>
       </c>
-      <c r="D9" s="53">
+      <c r="E9" s="53">
         <v>0.744524617045352</v>
       </c>
-      <c r="E9" s="53">
+      <c r="F9" s="53">
         <v>0.63465869131768005</v>
       </c>
-      <c r="F9" s="53">
+      <c r="G9" s="53">
         <v>0.37030064190211498</v>
       </c>
-      <c r="G9" s="51">
+      <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="H9" s="101" t="s">
+      <c r="I9" s="101" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="102">
+      <c r="J9" s="102">
         <v>36</v>
       </c>
-      <c r="J9" s="102">
+      <c r="K9" s="102">
         <v>23</v>
       </c>
-      <c r="K9" s="102">
+      <c r="L9" s="102">
         <v>15</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="M9" s="101" t="s">
         <v>419</v>
       </c>
-      <c r="M9" s="102">
+      <c r="N9" s="102">
         <v>41</v>
       </c>
-      <c r="N9" s="102">
+      <c r="O9" s="102">
         <v>50</v>
       </c>
-      <c r="O9" s="102">
+      <c r="P9" s="102">
         <v>13</v>
       </c>
-      <c r="P9" s="102" t="s">
+      <c r="Q9" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="102">
+      <c r="R9" s="102">
         <v>0.05</v>
       </c>
-      <c r="R9" s="102" t="s">
+      <c r="S9" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="S9" s="101" t="s">
+      <c r="T9" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="T9" s="103" t="s">
+      <c r="U9" s="103" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="X9" s="94"/>
+      <c r="Z9" s="95"/>
+    </row>
+    <row r="10" spans="1:37" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="112">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50">
         <v>2.2018381936729998</v>
       </c>
-      <c r="B10" s="104">
-        <v>260591.76365234001</v>
-      </c>
-      <c r="C10" s="97">
+      <c r="C10" s="94">
+        <v>473501.849983714</v>
+      </c>
+      <c r="D10" s="97">
         <v>3.9523876652813497E-2</v>
       </c>
-      <c r="D10" s="44">
+      <c r="E10" s="44">
         <v>0.96246605138118502</v>
       </c>
-      <c r="E10" s="44">
+      <c r="F10" s="44">
         <v>1</v>
       </c>
-      <c r="F10" s="44">
+      <c r="G10" s="44">
         <v>0.54470925070932796</v>
       </c>
-      <c r="G10" s="50">
+      <c r="H10" s="50">
         <f t="shared" si="0"/>
         <v>1.8032205992361904E-2</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="I10" s="105" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="106">
+      <c r="J10" s="106">
         <v>304788</v>
       </c>
-      <c r="J10" s="106">
+      <c r="K10" s="106">
         <v>113425</v>
       </c>
-      <c r="K10" s="106">
+      <c r="L10" s="106">
         <v>4</v>
       </c>
-      <c r="L10" s="105" t="s">
+      <c r="M10" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="M10" s="106">
+      <c r="N10" s="106">
         <v>310284</v>
       </c>
-      <c r="N10" s="106">
+      <c r="O10" s="106">
         <v>160647</v>
       </c>
-      <c r="O10" s="106">
+      <c r="P10" s="106">
         <v>3</v>
       </c>
-      <c r="P10" s="106" t="s">
+      <c r="Q10" s="106" t="s">
         <v>413</v>
       </c>
-      <c r="Q10" s="106" t="s">
+      <c r="R10" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="R10" s="106" t="s">
+      <c r="S10" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="S10" s="105" t="s">
+      <c r="T10" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="T10" s="107" t="s">
+      <c r="U10" s="107" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="Z10" s="104"/>
+    </row>
+    <row r="11" spans="1:37" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="112">
+        <v>9</v>
+      </c>
+      <c r="B11" s="51">
         <v>5.02369447699063</v>
       </c>
-      <c r="B11" s="94">
-        <v>17004.980467512301</v>
-      </c>
-      <c r="C11" s="98">
+      <c r="C11" s="94">
+        <v>17513.883164908399</v>
+      </c>
+      <c r="D11" s="98">
         <v>0.57883864704215804</v>
       </c>
-      <c r="D11" s="53">
+      <c r="E11" s="53">
         <v>8.4891062144469995E-2</v>
       </c>
-      <c r="E11" s="53">
+      <c r="F11" s="53">
         <v>1</v>
       </c>
-      <c r="F11" s="53">
+      <c r="G11" s="53">
         <v>1.0841311155647999</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>0.72719967858577739</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="I11" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="I11" s="53">
+      <c r="J11" s="53">
         <v>9956</v>
       </c>
-      <c r="J11" s="94">
-        <f>(12545-I11)*SQRT(K11)</f>
+      <c r="K11" s="94">
+        <f>(12545-J11)*SQRT(L11)</f>
         <v>11578.359987493912</v>
       </c>
-      <c r="K11" s="53">
+      <c r="L11" s="53">
         <v>20</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="M11" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="M11" s="53">
+      <c r="N11" s="53">
         <v>17196</v>
       </c>
-      <c r="N11" s="94">
-        <f>(20348-M11)*SQRT(O11)</f>
+      <c r="O11" s="94">
+        <f>(20348-N11)*SQRT(P11)</f>
         <v>13372.803445799986</v>
       </c>
-      <c r="O11" s="53">
+      <c r="P11" s="53">
         <v>18</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="Q11" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="Q11" s="53" t="s">
+      <c r="R11" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="R11" s="53" t="s">
+      <c r="S11" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="T11" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="T11" s="99" t="s">
+      <c r="U11" s="99" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" s="85" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
+      <c r="Z11" s="94"/>
+    </row>
+    <row r="12" spans="1:37" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="64"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="89"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
-      <c r="S12" s="65"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B14" s="72"/>
-    </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U15" s="73"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="65"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C14" s="72"/>
+    </row>
+    <row r="15" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V15" s="73"/>
       <c r="W15" s="73"/>
       <c r="X15" s="73"/>
@@ -14511,13 +14272,13 @@
       <c r="AH15" s="73"/>
       <c r="AI15" s="73"/>
       <c r="AJ15" s="73"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="D16" s="76"/>
+      <c r="AK15" s="73"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
       <c r="G16" s="76"/>
-      <c r="U16" s="73"/>
+      <c r="H16" s="76"/>
       <c r="V16" s="73"/>
       <c r="W16" s="73"/>
       <c r="X16" s="73"/>
@@ -14533,13 +14294,13 @@
       <c r="AH16" s="73"/>
       <c r="AI16" s="73"/>
       <c r="AJ16" s="73"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="D17" s="76"/>
+      <c r="AK16" s="73"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.15">
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="76"/>
-      <c r="U17" s="73"/>
+      <c r="H17" s="76"/>
       <c r="V17" s="73"/>
       <c r="W17" s="73"/>
       <c r="X17" s="73"/>
@@ -14555,19 +14316,19 @@
       <c r="AH17" s="73"/>
       <c r="AI17" s="73"/>
       <c r="AJ17" s="73"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="D18" s="76"/>
+      <c r="AK17" s="73"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.15">
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="74"/>
+      <c r="H18" s="76"/>
+      <c r="U18" s="71"/>
       <c r="V18" s="74"/>
       <c r="W18" s="74"/>
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
-      <c r="Z18" s="73"/>
+      <c r="Z18" s="74"/>
       <c r="AA18" s="73"/>
       <c r="AB18" s="73"/>
       <c r="AC18" s="73"/>
@@ -14578,511 +14339,511 @@
       <c r="AH18" s="73"/>
       <c r="AI18" s="73"/>
       <c r="AJ18" s="73"/>
-    </row>
-    <row r="19" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75" t="s">
+      <c r="AK18" s="73"/>
+    </row>
+    <row r="19" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="C19" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="D19" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="76"/>
+      <c r="I19" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="J19" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="K19" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="L19" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="M19" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="N19" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="N19" s="75" t="s">
+      <c r="O19" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="O19" s="75" t="s">
+      <c r="P19" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="P19" s="75" t="s">
+      <c r="Q19" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="75" t="s">
+      <c r="R19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="R19" s="75" t="s">
+      <c r="S19" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="S19" s="78" t="s">
+      <c r="T19" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="U19" s="73"/>
-      <c r="V19" s="76"/>
+      <c r="V19" s="73"/>
       <c r="W19" s="76"/>
       <c r="X19" s="76"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="77"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="77"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="73"/>
-    </row>
-    <row r="20" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61">
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="73"/>
+    </row>
+    <row r="20" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="61">
         <v>0.22021648333308816</v>
       </c>
-      <c r="B20" s="67">
+      <c r="C20" s="67">
         <v>0.15701435261649185</v>
       </c>
-      <c r="C20" s="59">
+      <c r="D20" s="59">
         <v>-1.542776998597477E-2</v>
       </c>
-      <c r="D20" s="76"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="58" t="s">
+      <c r="G20" s="76"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="I20" s="59">
+      <c r="J20" s="59">
         <v>0.71299999999999997</v>
       </c>
-      <c r="J20" s="62">
-        <f>0.105*SQRT(K20)</f>
+      <c r="K20" s="62">
+        <f>0.105*SQRT(L20)</f>
         <v>0.29698484809834996</v>
       </c>
-      <c r="K20" s="59">
+      <c r="L20" s="59">
         <v>8</v>
       </c>
-      <c r="L20" s="58" t="s">
+      <c r="M20" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="59">
+      <c r="N20" s="59">
         <v>0.61699999999999999</v>
       </c>
-      <c r="N20" s="62">
-        <f>0.159*SQRT(O20)</f>
+      <c r="O20" s="62">
+        <f>0.159*SQRT(P20)</f>
         <v>0.44971991283464424</v>
       </c>
-      <c r="O20" s="59">
+      <c r="P20" s="59">
         <v>8</v>
       </c>
-      <c r="P20" s="59" t="s">
+      <c r="Q20" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="R20" s="59">
         <v>7</v>
       </c>
-      <c r="R20" s="59" t="s">
+      <c r="S20" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="S20" s="58" t="s">
+      <c r="T20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="U20" s="76"/>
       <c r="V20" s="76"/>
       <c r="W20" s="76"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="76"/>
-      <c r="AI20" s="83"/>
-      <c r="AJ20" s="73"/>
-    </row>
-    <row r="21" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61">
-        <f t="shared" ref="A21:A38" si="1">B21/I21</f>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="73"/>
+    </row>
+    <row r="21" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="61">
+        <f t="shared" ref="B21:B38" si="1">C21/J21</f>
         <v>0.30233492648200283</v>
       </c>
-      <c r="B21" s="63">
-        <f t="shared" ref="B21:B38" si="2">ABS(M21-I21) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q21)/2))*SQRT(J21^2/K21+N21^2/O21)</f>
+      <c r="C21" s="63">
+        <f t="shared" ref="C21:C38" si="2">ABS(N21-J21) + ABS(_xlfn.NORM.S.INV(1-(0.05/R21)/2))*SQRT(K21^2/L21+O21^2/P21)</f>
         <v>110561.76626998305</v>
       </c>
-      <c r="C21" s="61">
-        <f t="shared" ref="C21:C38" si="3">-(I21-M21)/I21</f>
+      <c r="D21" s="61">
+        <f t="shared" ref="D21:D38" si="3">-(J21-N21)/J21</f>
         <v>-1.9669504201611735E-2</v>
       </c>
-      <c r="D21" s="76"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="58" t="s">
+      <c r="G21" s="76"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="I21" s="59">
+      <c r="J21" s="59">
         <v>365693</v>
       </c>
-      <c r="J21" s="59">
+      <c r="K21" s="59">
         <v>125513</v>
       </c>
-      <c r="K21" s="59">
+      <c r="L21" s="59">
         <v>14</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="M21" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="M21" s="59">
+      <c r="N21" s="59">
         <v>358500</v>
       </c>
-      <c r="N21" s="59">
+      <c r="O21" s="59">
         <v>157620</v>
       </c>
-      <c r="O21" s="59">
+      <c r="P21" s="59">
         <v>15</v>
       </c>
-      <c r="P21" s="59" t="s">
+      <c r="Q21" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="R21" s="59">
         <v>1</v>
       </c>
-      <c r="R21" s="59" t="s">
+      <c r="S21" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S21" s="58" t="s">
+      <c r="T21" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="U21" s="76"/>
       <c r="V21" s="76"/>
       <c r="W21" s="76"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="77"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="77"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="73"/>
-    </row>
-    <row r="22" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61">
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="73"/>
+    </row>
+    <row r="22" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="61">
         <f t="shared" si="1"/>
         <v>0.33187378676985985</v>
       </c>
-      <c r="B22" s="67">
+      <c r="C22" s="67">
         <f t="shared" si="2"/>
         <v>8.5955310773393698</v>
       </c>
-      <c r="C22" s="61">
+      <c r="D22" s="61">
         <f t="shared" si="3"/>
         <v>-0.1274131274131273</v>
       </c>
-      <c r="D22" s="76"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="58" t="s">
+      <c r="G22" s="76"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="I22" s="59">
+      <c r="J22" s="59">
         <v>25.9</v>
       </c>
-      <c r="J22" s="59">
-        <f>1.7*SQRT(K22)</f>
+      <c r="K22" s="59">
+        <f>1.7*SQRT(L22)</f>
         <v>6.8</v>
       </c>
-      <c r="K22" s="59">
+      <c r="L22" s="59">
         <v>16</v>
       </c>
-      <c r="L22" s="58" t="s">
+      <c r="M22" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="M22" s="59">
+      <c r="N22" s="59">
         <v>22.6</v>
       </c>
-      <c r="N22" s="68">
-        <f>2.1*SQRT(O22)</f>
+      <c r="O22" s="68">
+        <f>2.1*SQRT(P22)</f>
         <v>8.1332650270355753</v>
       </c>
-      <c r="O22" s="59">
+      <c r="P22" s="59">
         <v>15</v>
       </c>
-      <c r="P22" s="59" t="s">
+      <c r="Q22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q22" s="59">
+      <c r="R22" s="59">
         <v>1</v>
       </c>
-      <c r="R22" s="59" t="s">
+      <c r="S22" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S22" s="58" t="s">
+      <c r="T22" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="U22" s="76"/>
       <c r="V22" s="76"/>
       <c r="W22" s="76"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="77"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="77"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="73"/>
-    </row>
-    <row r="23" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61">
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="73"/>
+    </row>
+    <row r="23" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="61">
         <f t="shared" si="1"/>
         <v>0.3351756133312177</v>
       </c>
-      <c r="B23" s="63">
+      <c r="C23" s="63">
         <f t="shared" si="2"/>
         <v>8.7145659466116605</v>
       </c>
-      <c r="C23" s="61">
+      <c r="D23" s="61">
         <f t="shared" si="3"/>
         <v>4.2307692307692366E-2</v>
       </c>
-      <c r="D23" s="76"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="58" t="s">
+      <c r="F23" s="76"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="I23" s="59">
+      <c r="J23" s="59">
         <v>26</v>
       </c>
-      <c r="J23" s="68">
-        <f>(28.3-I23)*SQRT(K23)</f>
+      <c r="K23" s="68">
+        <f>(28.3-J23)*SQRT(L23)</f>
         <v>6.5053823869162395</v>
       </c>
-      <c r="K23" s="59">
+      <c r="L23" s="59">
         <v>8</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="M23" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="M23" s="59">
+      <c r="N23" s="59">
         <v>27.1</v>
       </c>
-      <c r="N23" s="68">
-        <f>(28.3-M23)*SQRT(O23)</f>
+      <c r="O23" s="68">
+        <f>(28.3-N23)*SQRT(P23)</f>
         <v>3.3941125496954263</v>
       </c>
-      <c r="O23" s="59">
+      <c r="P23" s="59">
         <v>8</v>
       </c>
-      <c r="P23" s="59" t="s">
+      <c r="Q23" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="R23" s="59">
         <v>15</v>
       </c>
-      <c r="R23" s="59" t="s">
+      <c r="S23" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S23" s="58" t="s">
+      <c r="T23" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="U23" s="76"/>
       <c r="V23" s="76"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="77"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="77"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="73"/>
-    </row>
-    <row r="24" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61">
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="73"/>
+    </row>
+    <row r="24" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="61">
         <f t="shared" si="1"/>
         <v>0.36468210626768915</v>
       </c>
-      <c r="B24" s="68">
+      <c r="C24" s="68">
         <f t="shared" si="2"/>
         <v>131.28555825636809</v>
       </c>
-      <c r="C24" s="61">
+      <c r="D24" s="61">
         <f t="shared" si="3"/>
         <v>-0.18055555555555555</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="I24" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="I24" s="69">
+      <c r="J24" s="69">
         <v>360</v>
       </c>
-      <c r="J24" s="63">
+      <c r="K24" s="63">
         <v>94</v>
       </c>
-      <c r="K24" s="59">
+      <c r="L24" s="59">
         <v>9</v>
       </c>
-      <c r="L24" s="58" t="s">
+      <c r="M24" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="M24" s="59">
+      <c r="N24" s="59">
         <v>295</v>
       </c>
-      <c r="N24" s="68">
+      <c r="O24" s="68">
         <v>36</v>
       </c>
-      <c r="O24" s="59">
+      <c r="P24" s="59">
         <v>8</v>
       </c>
-      <c r="P24" s="59" t="s">
+      <c r="Q24" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Q24" s="59">
+      <c r="R24" s="59">
         <v>1</v>
       </c>
-      <c r="R24" s="59" t="s">
+      <c r="S24" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S24" s="58" t="s">
+      <c r="T24" s="58" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61">
+    <row r="25" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="61">
         <f t="shared" si="1"/>
         <v>0.38375612642394952</v>
       </c>
-      <c r="B25" s="63">
+      <c r="C25" s="63">
         <f t="shared" si="2"/>
         <v>127779.27741538247</v>
       </c>
-      <c r="C25" s="61">
+      <c r="D25" s="61">
         <f t="shared" si="3"/>
         <v>4.5589692765113973E-2</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="I25" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="I25" s="59">
+      <c r="J25" s="59">
         <v>332970</v>
       </c>
-      <c r="J25" s="63">
-        <f>(357910-I25)*SQRT(K25)</f>
+      <c r="K25" s="63">
+        <f>(357910-J25)*SQRT(L25)</f>
         <v>70540.972491169989</v>
       </c>
-      <c r="K25" s="59">
+      <c r="L25" s="59">
         <v>8</v>
       </c>
-      <c r="L25" s="58" t="s">
+      <c r="M25" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="M25" s="59">
+      <c r="N25" s="59">
         <v>348150</v>
       </c>
-      <c r="N25" s="59">
-        <f>(378520-M25)*SQRT(O25)</f>
+      <c r="O25" s="59">
+        <f>(378520-N25)*SQRT(P25)</f>
         <v>74391.003488325106</v>
       </c>
-      <c r="O25" s="59">
+      <c r="P25" s="59">
         <v>6</v>
       </c>
-      <c r="P25" s="59" t="s">
+      <c r="Q25" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q25" s="59">
+      <c r="R25" s="59">
         <v>12</v>
       </c>
-      <c r="R25" s="59" t="s">
+      <c r="S25" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S25" s="58" t="s">
+      <c r="T25" s="58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61">
+    <row r="26" spans="2:37" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="61">
         <f t="shared" si="1"/>
         <v>0.43866397912473509</v>
       </c>
-      <c r="B26" s="63">
+      <c r="C26" s="63">
         <f t="shared" si="2"/>
         <v>147.87362736294821</v>
       </c>
-      <c r="C26" s="61">
+      <c r="D26" s="61">
         <f t="shared" si="3"/>
         <v>1.0382675763868287E-2</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="I26" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="I26" s="59">
+      <c r="J26" s="59">
         <v>337.1</v>
       </c>
-      <c r="J26" s="68">
-        <f>(379.1-I26)*SQRT(K26)</f>
+      <c r="K26" s="68">
+        <f>(379.1-J26)*SQRT(L26)</f>
         <v>118.79393923933999</v>
       </c>
-      <c r="K26" s="59">
+      <c r="L26" s="59">
         <v>8</v>
       </c>
-      <c r="L26" s="58" t="s">
+      <c r="M26" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="M26" s="59">
+      <c r="N26" s="59">
         <v>340.6</v>
       </c>
-      <c r="N26" s="68">
-        <f>(366.2-340.6)*SQRT(O26)</f>
+      <c r="O26" s="68">
+        <f>(366.2-340.6)*SQRT(P26)</f>
         <v>72.40773439350238</v>
       </c>
-      <c r="O26" s="59">
+      <c r="P26" s="59">
         <v>8</v>
       </c>
-      <c r="P26" s="59" t="s">
+      <c r="Q26" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q26" s="59">
+      <c r="R26" s="59">
         <v>15</v>
       </c>
-      <c r="R26" s="59" t="s">
+      <c r="S26" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S26" s="58" t="s">
+      <c r="T26" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="T26" s="60"/>
       <c r="U26" s="60"/>
       <c r="V26" s="60"/>
       <c r="W26" s="60"/>
@@ -15099,59 +14860,59 @@
       <c r="AH26" s="60"/>
       <c r="AI26" s="60"/>
       <c r="AJ26" s="60"/>
-    </row>
-    <row r="27" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61">
+      <c r="AK26" s="60"/>
+    </row>
+    <row r="27" spans="2:37" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="61">
         <f t="shared" si="1"/>
         <v>0.54447029123354107</v>
       </c>
-      <c r="B27" s="63">
+      <c r="C27" s="63">
         <f t="shared" si="2"/>
         <v>65064.199802408162</v>
       </c>
-      <c r="C27" s="61">
+      <c r="D27" s="61">
         <f t="shared" si="3"/>
         <v>-7.364016736401674E-2</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="I27" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="I27" s="59">
+      <c r="J27" s="59">
         <v>119500</v>
       </c>
-      <c r="J27" s="59">
-        <f>(135500-I27)*SQRT(K27)</f>
+      <c r="K27" s="59">
+        <f>(135500-J27)*SQRT(L27)</f>
         <v>50596.442562694072</v>
       </c>
-      <c r="K27" s="59">
+      <c r="L27" s="59">
         <v>10</v>
       </c>
-      <c r="L27" s="58" t="s">
+      <c r="M27" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="M27" s="59">
+      <c r="N27" s="59">
         <v>110700</v>
       </c>
-      <c r="N27" s="59">
-        <f>(124800-M27)*SQRT(O27)</f>
+      <c r="O27" s="59">
+        <f>(124800-N27)*SQRT(P27)</f>
         <v>66134.862213510365</v>
       </c>
-      <c r="O27" s="59">
+      <c r="P27" s="59">
         <v>22</v>
       </c>
-      <c r="P27" s="59" t="s">
+      <c r="Q27" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q27" s="59">
+      <c r="R27" s="59">
         <v>6</v>
       </c>
-      <c r="R27" s="59" t="s">
+      <c r="S27" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S27" s="58" t="s">
+      <c r="T27" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="T27" s="60"/>
       <c r="U27" s="60"/>
       <c r="V27" s="60"/>
       <c r="W27" s="60"/>
@@ -15168,59 +14929,59 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="60"/>
       <c r="AJ27" s="60"/>
-    </row>
-    <row r="28" spans="1:36" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61">
+      <c r="AK27" s="60"/>
+    </row>
+    <row r="28" spans="2:37" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="61">
         <f t="shared" si="1"/>
         <v>0.59465772165882236</v>
       </c>
-      <c r="B28" s="67">
+      <c r="C28" s="67">
         <f t="shared" si="2"/>
         <v>0.42399095554274036</v>
       </c>
-      <c r="C28" s="61">
+      <c r="D28" s="61">
         <f t="shared" si="3"/>
         <v>-1.542776998597477E-2</v>
       </c>
-      <c r="H28" s="58" t="s">
+      <c r="I28" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="59">
+      <c r="J28" s="59">
         <v>0.71299999999999997</v>
       </c>
-      <c r="J28" s="62">
-        <f>0.105*SQRT(K28)</f>
+      <c r="K28" s="62">
+        <f>0.105*SQRT(L28)</f>
         <v>0.29698484809834996</v>
       </c>
-      <c r="K28" s="59">
+      <c r="L28" s="59">
         <v>8</v>
       </c>
-      <c r="L28" s="58" t="s">
+      <c r="M28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="M28" s="59">
+      <c r="N28" s="59">
         <v>0.70199999999999996</v>
       </c>
-      <c r="N28" s="62">
-        <f>0.112*SQRT(O28)</f>
+      <c r="O28" s="62">
+        <f>0.112*SQRT(P28)</f>
         <v>0.31678383797157333</v>
       </c>
-      <c r="O28" s="59">
+      <c r="P28" s="59">
         <v>8</v>
       </c>
-      <c r="P28" s="59" t="s">
+      <c r="Q28" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Q28" s="59">
+      <c r="R28" s="59">
         <v>7</v>
       </c>
-      <c r="R28" s="59" t="s">
+      <c r="S28" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="S28" s="58" t="s">
+      <c r="T28" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="T28" s="60"/>
       <c r="U28" s="60"/>
       <c r="V28" s="60"/>
       <c r="W28" s="60"/>
@@ -15237,2226 +14998,2264 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="60"/>
       <c r="AJ28" s="60"/>
-    </row>
-    <row r="29" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61">
+      <c r="AK28" s="60"/>
+    </row>
+    <row r="29" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="61">
         <f t="shared" si="1"/>
         <v>0.62604580322464665</v>
       </c>
-      <c r="B29" s="67">
+      <c r="C29" s="67">
         <f t="shared" si="2"/>
         <v>5.5718076486993548E-2</v>
       </c>
-      <c r="C29" s="61">
+      <c r="D29" s="61">
         <f t="shared" si="3"/>
         <v>-0.3146067415730337</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="I29" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="I29" s="59">
+      <c r="J29" s="59">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="J29" s="62">
-        <f>0.01*SQRT(K29)</f>
+      <c r="K29" s="62">
+        <f>0.01*SQRT(L29)</f>
         <v>3.7416573867739417E-2</v>
       </c>
-      <c r="K29" s="59">
+      <c r="L29" s="59">
         <v>14</v>
       </c>
-      <c r="L29" s="58" t="s">
+      <c r="M29" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="M29" s="59">
+      <c r="N29" s="59">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N29" s="62">
-        <f>0.01*SQRT(O29)</f>
+      <c r="O29" s="62">
+        <f>0.01*SQRT(P29)</f>
         <v>3.7416573867739417E-2</v>
       </c>
-      <c r="O29" s="59">
+      <c r="P29" s="59">
         <v>14</v>
       </c>
-      <c r="P29" s="59" t="s">
+      <c r="Q29" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Q29" s="59">
+      <c r="R29" s="59">
         <v>1</v>
       </c>
-      <c r="R29" s="59" t="s">
+      <c r="S29" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S29" s="58" t="s">
+      <c r="T29" s="58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="61">
+    <row r="30" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="61">
         <f t="shared" si="1"/>
         <v>0.64173877726018158</v>
       </c>
-      <c r="B30" s="67">
+      <c r="C30" s="67">
         <f t="shared" si="2"/>
         <v>14.824165754710195</v>
       </c>
-      <c r="C30" s="61">
+      <c r="D30" s="61">
         <f t="shared" si="3"/>
         <v>-0.16017316017316027</v>
       </c>
-      <c r="H30" s="85" t="s">
+      <c r="I30" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="I30" s="66">
+      <c r="J30" s="66">
         <v>23.1</v>
       </c>
-      <c r="J30" s="66">
+      <c r="K30" s="66">
         <v>11.3</v>
       </c>
-      <c r="K30" s="66">
+      <c r="L30" s="66">
         <v>7</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="M30" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="M30" s="66">
+      <c r="N30" s="66">
         <v>19.399999999999999</v>
       </c>
-      <c r="N30" s="86">
+      <c r="O30" s="86">
         <v>7.15</v>
       </c>
-      <c r="O30" s="66">
+      <c r="P30" s="66">
         <v>8</v>
       </c>
-      <c r="P30" s="66" t="s">
+      <c r="Q30" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" s="66">
+      <c r="R30" s="66">
         <v>2</v>
       </c>
-      <c r="R30" s="66" t="s">
+      <c r="S30" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="S30" s="65" t="s">
+      <c r="T30" s="65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61">
+    <row r="31" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="61">
         <f t="shared" si="1"/>
         <v>0.72845716036649566</v>
       </c>
-      <c r="B31" s="63">
+      <c r="C31" s="63">
         <f t="shared" si="2"/>
         <v>47087.470846090277</v>
       </c>
-      <c r="C31" s="61">
+      <c r="D31" s="61">
         <f t="shared" si="3"/>
         <v>-0.16615099009900991</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="I31" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="I31" s="59">
+      <c r="J31" s="59">
         <v>64640</v>
       </c>
-      <c r="J31" s="59">
+      <c r="K31" s="59">
         <v>34390</v>
       </c>
-      <c r="K31" s="59">
+      <c r="L31" s="59">
         <v>9</v>
       </c>
-      <c r="L31" s="58" t="s">
+      <c r="M31" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="M31" s="59">
+      <c r="N31" s="59">
         <v>53900</v>
       </c>
-      <c r="N31" s="59">
+      <c r="O31" s="59">
         <v>10830</v>
       </c>
-      <c r="O31" s="59">
+      <c r="P31" s="59">
         <v>10</v>
       </c>
-      <c r="P31" s="59" t="s">
+      <c r="Q31" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q31" s="59">
+      <c r="R31" s="59">
         <v>21</v>
       </c>
-      <c r="R31" s="59" t="s">
+      <c r="S31" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S31" s="58" t="s">
+      <c r="T31" s="58" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="61">
+    <row r="32" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="61">
         <f t="shared" si="1"/>
         <v>0.87193649776221871</v>
       </c>
-      <c r="B32" s="63">
+      <c r="C32" s="63">
         <f t="shared" si="2"/>
         <v>265755.7812799511</v>
       </c>
-      <c r="C32" s="61">
+      <c r="D32" s="61">
         <f t="shared" si="3"/>
         <v>1.8032205992361904E-2</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="I32" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="I32" s="59">
+      <c r="J32" s="59">
         <v>304788</v>
       </c>
-      <c r="J32" s="59">
+      <c r="K32" s="59">
         <v>113425</v>
       </c>
-      <c r="K32" s="59">
+      <c r="L32" s="59">
         <v>4</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="M32" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="M32" s="59">
+      <c r="N32" s="59">
         <v>310284</v>
       </c>
-      <c r="N32" s="59">
+      <c r="O32" s="59">
         <v>160647</v>
       </c>
-      <c r="O32" s="59">
+      <c r="P32" s="59">
         <v>3</v>
       </c>
-      <c r="P32" s="59" t="s">
+      <c r="Q32" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q32" s="59">
+      <c r="R32" s="59">
         <v>3</v>
       </c>
-      <c r="R32" s="59" t="s">
+      <c r="S32" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="S32" s="71" t="s">
+      <c r="T32" s="71" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61">
+    <row r="33" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="61">
         <f t="shared" si="1"/>
         <v>0.90104148622149904</v>
       </c>
-      <c r="B33" s="63">
+      <c r="C33" s="63">
         <f t="shared" si="2"/>
         <v>202294.53605041257</v>
       </c>
-      <c r="C33" s="61">
+      <c r="D33" s="61">
         <f t="shared" si="3"/>
         <v>-0.22222385539474743</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="I33" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="I33" s="59">
+      <c r="J33" s="59">
         <v>224511.9</v>
       </c>
-      <c r="J33" s="63">
-        <f>(258134.5-I33)*SQRT(K33)</f>
+      <c r="K33" s="63">
+        <f>(258134.5-J33)*SQRT(L33)</f>
         <v>82358.213825701692</v>
       </c>
-      <c r="K33" s="59">
+      <c r="L33" s="59">
         <v>6</v>
       </c>
-      <c r="L33" s="58" t="s">
+      <c r="M33" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="M33" s="59">
+      <c r="N33" s="59">
         <v>174620</v>
       </c>
-      <c r="N33" s="63">
-        <f>(215835-M33)*SQRT(O33)</f>
+      <c r="O33" s="63">
+        <f>(215835-N33)*SQRT(P33)</f>
         <v>109044.6402855271</v>
       </c>
-      <c r="O33" s="59">
+      <c r="P33" s="59">
         <v>7</v>
       </c>
-      <c r="P33" s="59" t="s">
+      <c r="Q33" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q33" s="59">
+      <c r="R33" s="59">
         <v>12</v>
       </c>
-      <c r="R33" s="59" t="s">
+      <c r="S33" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S33" s="58" t="s">
+      <c r="T33" s="58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="61">
+    <row r="34" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="61">
         <f t="shared" si="1"/>
         <v>0.93271875715240415</v>
       </c>
-      <c r="B34" s="63">
+      <c r="C34" s="63">
         <f t="shared" si="2"/>
         <v>60253.631712045302</v>
       </c>
-      <c r="C34" s="61">
+      <c r="D34" s="61">
         <f t="shared" si="3"/>
         <v>-0.16563467492260053</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="I34" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="I34" s="59">
+      <c r="J34" s="59">
         <f>64.6*1000</f>
         <v>64599.999999999993</v>
       </c>
-      <c r="J34" s="59">
+      <c r="K34" s="59">
         <f>34.4*1000</f>
         <v>34400</v>
       </c>
-      <c r="K34" s="59">
+      <c r="L34" s="59">
         <v>9</v>
       </c>
-      <c r="L34" s="58" t="s">
+      <c r="M34" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="M34" s="59">
+      <c r="N34" s="59">
         <f>53.9*1000</f>
         <v>53900</v>
       </c>
-      <c r="N34" s="59">
+      <c r="O34" s="59">
         <f>34.8*1000</f>
         <v>34800</v>
       </c>
-      <c r="O34" s="59">
+      <c r="P34" s="59">
         <v>9</v>
       </c>
-      <c r="P34" s="59" t="s">
+      <c r="Q34" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="R34" s="59">
         <v>21</v>
       </c>
-      <c r="R34" s="59" t="s">
+      <c r="S34" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S34" s="58" t="s">
+      <c r="T34" s="58" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61">
+    <row r="35" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="61">
         <f t="shared" si="1"/>
         <v>0.96814672232900045</v>
       </c>
-      <c r="B35" s="67">
+      <c r="C35" s="67">
         <f t="shared" si="2"/>
         <v>34.853282003844015</v>
       </c>
-      <c r="C35" s="61">
+      <c r="D35" s="61">
         <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="I35" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="I35" s="59">
+      <c r="J35" s="59">
         <v>36</v>
       </c>
-      <c r="J35" s="63">
-        <f>6*SQRT(K35)</f>
+      <c r="K35" s="63">
+        <f>6*SQRT(L35)</f>
         <v>23.237900077244504</v>
       </c>
-      <c r="K35" s="59">
+      <c r="L35" s="59">
         <v>15</v>
       </c>
-      <c r="L35" s="58" t="s">
+      <c r="M35" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="M35" s="59">
+      <c r="N35" s="59">
         <v>41</v>
       </c>
-      <c r="N35" s="63">
-        <f>14*SQRT(O35)</f>
+      <c r="O35" s="63">
+        <f>14*SQRT(P35)</f>
         <v>50.47771785649585</v>
       </c>
-      <c r="O35" s="59">
+      <c r="P35" s="59">
         <v>13</v>
       </c>
-      <c r="P35" s="59" t="s">
+      <c r="Q35" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" s="59">
+      <c r="R35" s="59">
         <v>1</v>
       </c>
-      <c r="R35" s="59" t="s">
+      <c r="S35" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="S35" s="60" t="s">
+      <c r="T35" s="60" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="61">
+    <row r="36" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="61">
         <f t="shared" si="1"/>
         <v>1.0072498831657288</v>
       </c>
-      <c r="B36" s="63">
+      <c r="C36" s="63">
         <f t="shared" si="2"/>
         <v>391.71947956315188</v>
       </c>
-      <c r="C36" s="61">
+      <c r="D36" s="61">
         <f t="shared" si="3"/>
         <v>-0.25739264592440209</v>
       </c>
-      <c r="H36" s="58" t="s">
+      <c r="I36" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="I36" s="59">
+      <c r="J36" s="59">
         <v>388.9</v>
       </c>
-      <c r="J36" s="59">
+      <c r="K36" s="59">
         <v>347.3</v>
       </c>
-      <c r="K36" s="59">
+      <c r="L36" s="59">
         <v>6</v>
       </c>
-      <c r="L36" s="58" t="s">
+      <c r="M36" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="M36" s="59">
+      <c r="N36" s="59">
         <v>288.8</v>
       </c>
-      <c r="N36" s="59">
+      <c r="O36" s="59">
         <v>110.5</v>
       </c>
-      <c r="O36" s="59">
+      <c r="P36" s="59">
         <v>6</v>
       </c>
-      <c r="P36" s="59" t="s">
+      <c r="Q36" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Q36" s="59">
+      <c r="R36" s="59">
         <v>1</v>
       </c>
-      <c r="R36" s="59" t="s">
+      <c r="S36" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S36" s="58" t="s">
+      <c r="T36" s="58" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61">
+    <row r="37" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="61">
         <f t="shared" si="1"/>
         <v>1.0221261204613394</v>
       </c>
-      <c r="B37" s="63">
+      <c r="C37" s="63">
         <f t="shared" si="2"/>
         <v>38503.49095777866</v>
       </c>
-      <c r="C37" s="61">
+      <c r="D37" s="61">
         <f t="shared" si="3"/>
         <v>-0.2808601008760287</v>
       </c>
-      <c r="H37" s="58" t="s">
+      <c r="I37" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="I37" s="87">
+      <c r="J37" s="87">
         <v>37670</v>
       </c>
-      <c r="J37" s="63">
+      <c r="K37" s="63">
         <v>29510</v>
       </c>
-      <c r="K37" s="59">
+      <c r="L37" s="59">
         <v>9</v>
       </c>
-      <c r="L37" s="58" t="s">
+      <c r="M37" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="M37" s="59">
+      <c r="N37" s="59">
         <v>27090</v>
       </c>
-      <c r="N37" s="63">
+      <c r="O37" s="63">
         <v>29150</v>
       </c>
-      <c r="O37" s="59">
+      <c r="P37" s="59">
         <v>8</v>
       </c>
-      <c r="P37" s="59" t="s">
+      <c r="Q37" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q37" s="59">
+      <c r="R37" s="59">
         <v>1</v>
       </c>
-      <c r="R37" s="59" t="s">
+      <c r="S37" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S37" s="58" t="s">
+      <c r="T37" s="58" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="61">
+    <row r="38" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="61">
         <f t="shared" si="1"/>
         <v>1.0559803904811791</v>
       </c>
-      <c r="B38" s="63">
+      <c r="C38" s="63">
         <f t="shared" si="2"/>
         <v>68258.572440703414</v>
       </c>
-      <c r="C38" s="61">
+      <c r="D38" s="61">
         <f t="shared" si="3"/>
         <v>-0.45730198019801982</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="I38" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="I38" s="59">
+      <c r="J38" s="59">
         <v>64640</v>
       </c>
-      <c r="J38" s="59">
+      <c r="K38" s="59">
         <v>34390</v>
       </c>
-      <c r="K38" s="59">
+      <c r="L38" s="59">
         <v>9</v>
       </c>
-      <c r="L38" s="58" t="s">
+      <c r="M38" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="M38" s="59">
+      <c r="N38" s="59">
         <v>35080</v>
       </c>
-      <c r="N38" s="59">
+      <c r="O38" s="59">
         <v>18420</v>
       </c>
-      <c r="O38" s="59">
+      <c r="P38" s="59">
         <v>11</v>
       </c>
-      <c r="P38" s="59" t="s">
+      <c r="Q38" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q38" s="59">
+      <c r="R38" s="59">
         <v>21</v>
       </c>
-      <c r="R38" s="59" t="s">
+      <c r="S38" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S38" s="58" t="s">
+      <c r="T38" s="58" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="61">
+    <row r="39" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="61">
         <v>1.0644902360012614</v>
       </c>
-      <c r="B39" s="59">
+      <c r="C39" s="59">
         <v>26665.480411831599</v>
       </c>
-      <c r="C39" s="59">
+      <c r="D39" s="59">
         <v>0.36167664670658684</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="I39" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="I39" s="59">
+      <c r="J39" s="59">
         <v>25050</v>
       </c>
-      <c r="J39" s="59">
+      <c r="K39" s="59">
         <v>22192.377069615592</v>
       </c>
-      <c r="K39" s="59">
+      <c r="L39" s="59">
         <v>24</v>
       </c>
-      <c r="L39" s="58" t="s">
+      <c r="M39" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="M39" s="59">
+      <c r="N39" s="59">
         <v>34110</v>
       </c>
-      <c r="N39" s="59">
+      <c r="O39" s="59">
         <v>22454.620905283617</v>
       </c>
-      <c r="O39" s="59">
+      <c r="P39" s="59">
         <v>21</v>
       </c>
-      <c r="P39" s="59" t="s">
+      <c r="Q39" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="Q39" s="59">
+      <c r="R39" s="59">
         <v>6</v>
       </c>
-      <c r="R39" s="59" t="s">
+      <c r="S39" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S39" s="58" t="s">
+      <c r="T39" s="58" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="61">
-        <f>B40/I40</f>
+    <row r="40" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="61">
+        <f>C40/J40</f>
         <v>1.1601979569426732</v>
       </c>
-      <c r="B40" s="68">
-        <f>ABS(M40-I40) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q40)/2))*SQRT(J40^2/K40+N40^2/O40)</f>
+      <c r="C40" s="68">
+        <f>ABS(N40-J40) + ABS(_xlfn.NORM.S.INV(1-(0.05/R40)/2))*SQRT(K40^2/L40+O40^2/P40)</f>
         <v>24.654206585031805</v>
       </c>
-      <c r="C40" s="61">
-        <f>-(I40-M40)/I40</f>
+      <c r="D40" s="61">
+        <f>-(J40-N40)/J40</f>
         <v>-0.34211764705882353</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="I40" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="I40" s="59">
+      <c r="J40" s="59">
         <v>21.25</v>
       </c>
-      <c r="J40" s="68">
-        <f>(28.63-I40)*SQRT(K40)</f>
+      <c r="K40" s="68">
+        <f>(28.63-J40)*SQRT(L40)</f>
         <v>18.07723430173985</v>
       </c>
-      <c r="K40" s="59">
+      <c r="L40" s="59">
         <v>6</v>
       </c>
-      <c r="L40" s="58" t="s">
+      <c r="M40" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="M40" s="59">
+      <c r="N40" s="59">
         <v>13.98</v>
       </c>
-      <c r="N40" s="68">
-        <f>(18.9-M40)*SQRT(O40)</f>
+      <c r="O40" s="68">
+        <f>(18.9-N40)*SQRT(P40)</f>
         <v>12.05148953449323</v>
       </c>
-      <c r="O40" s="59">
+      <c r="P40" s="59">
         <v>6</v>
       </c>
-      <c r="P40" s="59" t="s">
+      <c r="Q40" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q40" s="59">
+      <c r="R40" s="59">
         <v>1</v>
       </c>
-      <c r="R40" s="59" t="s">
+      <c r="S40" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S40" s="58" t="s">
+      <c r="T40" s="58" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="61">
-        <f>B41/I41</f>
+    <row r="41" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="61">
+        <f>C41/J41</f>
         <v>1.3730702180767695</v>
       </c>
-      <c r="B41" s="67">
-        <f>ABS(M41-I41) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q41)/2))*SQRT(J41^2/K41+N41^2/O41)</f>
+      <c r="C41" s="67">
+        <f>ABS(N41-J41) + ABS(_xlfn.NORM.S.INV(1-(0.05/R41)/2))*SQRT(K41^2/L41+O41^2/P41)</f>
         <v>0.23754114772728113</v>
       </c>
-      <c r="C41" s="61">
-        <f>-(I41-M41)/I41</f>
+      <c r="D41" s="61">
+        <f>-(J41-N41)/J41</f>
         <v>-0.51445086705202303</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="I41" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="I41" s="59">
+      <c r="J41" s="59">
         <v>0.17299999999999999</v>
       </c>
-      <c r="J41" s="62">
-        <f>(0.226-I41)*SQRT(K41)</f>
+      <c r="K41" s="62">
+        <f>(0.226-J41)*SQRT(L41)</f>
         <v>0.14990663761154813</v>
       </c>
-      <c r="K41" s="59">
+      <c r="L41" s="59">
         <v>8</v>
       </c>
-      <c r="L41" s="58" t="s">
+      <c r="M41" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="M41" s="59">
+      <c r="N41" s="59">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="N41" s="67">
-        <f>(0.103-M41)*SQRT(O41)</f>
+      <c r="O41" s="67">
+        <f>(0.103-N41)*SQRT(P41)</f>
         <v>5.3740115370177588E-2</v>
       </c>
-      <c r="O41" s="59">
+      <c r="P41" s="59">
         <v>8</v>
       </c>
-      <c r="P41" s="59" t="s">
+      <c r="Q41" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Q41" s="59">
+      <c r="R41" s="59">
         <v>6</v>
       </c>
-      <c r="R41" s="59" t="s">
+      <c r="S41" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="S41" s="58" t="s">
+      <c r="T41" s="58" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="61">
-        <f>B42/I42</f>
+    <row r="42" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="61">
+        <f>C42/J42</f>
         <v>1.407364705439331</v>
       </c>
-      <c r="B42" s="68">
-        <f>ABS(M42-I42) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q42)/2))*SQRT(J42^2/K42+N42^2/O42)</f>
+      <c r="C42" s="68">
+        <f>ABS(N42-J42) + ABS(_xlfn.NORM.S.INV(1-(0.05/R42)/2))*SQRT(K42^2/L42+O42^2/P42)</f>
         <v>83.175254091464467</v>
       </c>
-      <c r="C42" s="61">
-        <f>-(I42-M42)/I42</f>
+      <c r="D42" s="61">
+        <f>-(J42-N42)/J42</f>
         <v>-8.1218274111675204E-2</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="I42" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="I42" s="59">
+      <c r="J42" s="59">
         <v>59.1</v>
       </c>
-      <c r="J42" s="63">
+      <c r="K42" s="63">
         <v>63.8</v>
       </c>
-      <c r="K42" s="59">
+      <c r="L42" s="59">
         <v>6</v>
       </c>
-      <c r="L42" s="58" t="s">
+      <c r="M42" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="M42" s="59">
+      <c r="N42" s="59">
         <v>54.3</v>
       </c>
-      <c r="N42" s="59">
+      <c r="O42" s="59">
         <v>56.1</v>
       </c>
-      <c r="O42" s="59">
+      <c r="P42" s="59">
         <v>8</v>
       </c>
-      <c r="P42" s="59" t="s">
+      <c r="Q42" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q42" s="59">
+      <c r="R42" s="59">
         <v>3</v>
       </c>
-      <c r="R42" s="59" t="s">
+      <c r="S42" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S42" s="58" t="s">
+      <c r="T42" s="58" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="61">
-        <f>B43/I43</f>
+    <row r="43" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="61">
+        <f>C43/J43</f>
         <v>1.8080937690781533</v>
       </c>
-      <c r="B43" s="63">
-        <f>ABS(M43-I43) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q43)/2))*SQRT(J43^2/K43+N43^2/O43)</f>
+      <c r="C43" s="63">
+        <f>ABS(N43-J43) + ABS(_xlfn.NORM.S.INV(1-(0.05/R43)/2))*SQRT(K43^2/L43+O43^2/P43)</f>
         <v>18001.381564942094</v>
       </c>
-      <c r="C43" s="61">
-        <f>-(I43-M43)/I43</f>
+      <c r="D43" s="61">
+        <f>-(J43-N43)/J43</f>
         <v>0.72719967858577739</v>
       </c>
-      <c r="H43" s="58" t="s">
+      <c r="I43" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="I43" s="59">
+      <c r="J43" s="59">
         <v>9956</v>
       </c>
-      <c r="J43" s="63">
-        <f>(12545-I43)*SQRT(K43)</f>
+      <c r="K43" s="63">
+        <f>(12545-J43)*SQRT(L43)</f>
         <v>11578.359987493912</v>
       </c>
-      <c r="K43" s="59">
+      <c r="L43" s="59">
         <v>20</v>
       </c>
-      <c r="L43" s="58" t="s">
+      <c r="M43" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="M43" s="59">
+      <c r="N43" s="59">
         <v>17196</v>
       </c>
-      <c r="N43" s="63">
-        <f>(20348-M43)*SQRT(O43)</f>
+      <c r="O43" s="63">
+        <f>(20348-N43)*SQRT(P43)</f>
         <v>13372.803445799986</v>
       </c>
-      <c r="O43" s="59">
+      <c r="P43" s="59">
         <v>18</v>
       </c>
-      <c r="P43" s="59" t="s">
+      <c r="Q43" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="Q43" s="59">
+      <c r="R43" s="59">
         <v>6</v>
       </c>
-      <c r="R43" s="59" t="s">
+      <c r="S43" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S43" s="58" t="s">
+      <c r="T43" s="58" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="61">
-        <f>B44/I44</f>
+    <row r="44" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="61">
+        <f>C44/J44</f>
         <v>0.91051281258890382</v>
       </c>
-      <c r="B44" s="68">
-        <f>ABS(M44-I44) + ABS(_xlfn.NORM.S.INV(1-(0.05/Q44)/2))*SQRT(J44^2/K44+N44^2/O44)</f>
+      <c r="C44" s="68">
+        <f>ABS(N44-J44) + ABS(_xlfn.NORM.S.INV(1-(0.05/R44)/2))*SQRT(K44^2/L44+O44^2/P44)</f>
         <v>10.052061450981498</v>
       </c>
-      <c r="C44" s="61">
-        <f>-(I44-M44)/I44</f>
+      <c r="D44" s="61">
+        <f>-(J44-N44)/J44</f>
         <v>-0.30706521739130427</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="I44" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="I44" s="59">
+      <c r="J44" s="59">
         <v>11.04</v>
       </c>
-      <c r="J44" s="59">
-        <f>(15-I44)</f>
+      <c r="K44" s="59">
+        <f>(15-J44)</f>
         <v>3.9600000000000009</v>
       </c>
-      <c r="K44" s="59">
+      <c r="L44" s="59">
         <v>6</v>
       </c>
-      <c r="L44" s="58" t="s">
+      <c r="M44" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="M44" s="59">
+      <c r="N44" s="59">
         <v>7.65</v>
       </c>
-      <c r="N44" s="68">
-        <f>(10.64-M44)*SQRT(O44)</f>
+      <c r="O44" s="68">
+        <f>(10.64-N44)*SQRT(P44)</f>
         <v>7.3239743309217022</v>
       </c>
-      <c r="O44" s="59">
+      <c r="P44" s="59">
         <v>6</v>
       </c>
-      <c r="P44" s="59" t="s">
+      <c r="Q44" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q44" s="59">
+      <c r="R44" s="59">
         <v>1</v>
       </c>
-      <c r="R44" s="59" t="s">
+      <c r="S44" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="S44" s="58" t="s">
+      <c r="T44" s="58" t="s">
         <v>295</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H23:O26 Q23:Q26 H27:Q27 H28:O28 I29:O29 I31:K31 M31:O31 H32:H33 H33:O33 I35:K35 M35:Q35 H36:O36 I37:K38 Q28 J32:Q32 H22:Q22 Q31 Q36 M37:Q38 Q33:Q34 U39:XFD39 K40:O40 H41:O41 Q40 H42:Q42 S36:S38 S21:S22 S28:S34 T41:XFD1048576 T21:XFD38 S40:XFD40 S19:XFD20 I43:K43 M43:R43 Q44 K44:O44 B12 U15:XFD15 U8:U11 X3:XFD6 X8:AB11 Y7:XFD7 U5:W6 V8:W10 V7 H40:I40 H19:Q20 B1:C1 H1:XFD1 H45:S1048576 H16:XFD18 H39:S39 S5 D3 H6:O7 Q6:Q7 H11:S11 D5:D7 P2:S2 U2:XFD2 V4:W4 H14:XFD14 H12:AB13 AH8:XFD13 A45:C1048576 A16:C19 A39:C40 A3:B3 G3:G8 D8:F8 G11:G12 A5:B11 D11:D12 D11:F11 A13:G14 D16:G1048576 D9:G10">
-    <cfRule type="expression" dxfId="557" priority="512">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21 R5:R7 R11 A20:C22 A5:C6 A3:C3 A2:G2">
-    <cfRule type="expression" dxfId="556" priority="506">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="555" priority="507">
+  <conditionalFormatting sqref="I23:P26 R23:R26 I27:R27 I28:P28 J29:P29 J31:L31 N31:P31 I32:I33 I33:P33 J35:L35 N35:R35 I36:P36 J37:L38 R28 K32:R32 I22:R22 R31 R36 N37:R38 R33:R34 V39:XFD39 L40:P40 I41:P41 R40 I42:R42 T36:T38 T21:T22 T28:T34 U41:XFD1048576 U21:XFD38 T40:XFD40 T19:XFD20 J43:L43 N43:S43 R44 L44:P44 C12 V15:XFD15 V8:V11 Y3:Y6 Y8:Y11 V5:X6 W7 I40:J40 I19:R20 C1:D1 I1:XFD1 I45:T1048576 I16:XFD18 I39:T39 T5 E3 I6:P7 R6:R7 I11:T11 E5:E7 Q2:T2 V2:XFD2 W4:X4 I14:XFD14 I12:AC13 AI8:XFD13 B45:D1048576 B16:D19 B39:D40 B3:C3 H3:H8 E8:G8 H11:H12 E11:E12 E11:G11 B13:H14 E16:H1048576 E9:H10 AA8:AC11 AA3:XFD7 W8:X10 B5:C11">
+    <cfRule type="expression" dxfId="566" priority="521">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21 S5:S7 S11 B20:D22 B5:D6 B3:D3 B2:H2">
+    <cfRule type="expression" dxfId="565" priority="515">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="564" priority="516">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="563" priority="507">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="562" priority="508">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="expression" dxfId="561" priority="505">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="560" priority="506">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="554" priority="498">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="553" priority="499">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="552" priority="496">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="551" priority="497">
+    <cfRule type="expression" dxfId="559" priority="503">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="558" priority="504">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="550" priority="494">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="549" priority="495">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="548" priority="492">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="493">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="546" priority="490">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="545" priority="491">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="544" priority="488">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="543" priority="489">
+    <cfRule type="expression" dxfId="557" priority="501">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="556" priority="502">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="expression" dxfId="555" priority="499">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="554" priority="500">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="expression" dxfId="553" priority="497">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="552" priority="498">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="551" priority="495">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="550" priority="496">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="542" priority="486">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="487">
+    <cfRule type="expression" dxfId="549" priority="493">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="548" priority="494">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="540" priority="484">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="539" priority="485">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="538" priority="482">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="537" priority="483">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="536" priority="480">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="481">
+    <cfRule type="expression" dxfId="547" priority="491">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="546" priority="492">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="expression" dxfId="545" priority="489">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="544" priority="490">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="543" priority="487">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="542" priority="488">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="534" priority="478">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="479">
+    <cfRule type="expression" dxfId="541" priority="485">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="540" priority="486">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="532" priority="476">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="531" priority="477">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="530" priority="474">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="475">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
-    <cfRule type="expression" dxfId="528" priority="472">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="473">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="526" priority="470">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="471">
+    <cfRule type="expression" dxfId="539" priority="483">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="538" priority="484">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="expression" dxfId="537" priority="481">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="536" priority="482">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="expression" dxfId="535" priority="479">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="534" priority="480">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="533" priority="477">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="532" priority="478">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="524" priority="468">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="469">
+    <cfRule type="expression" dxfId="531" priority="475">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="530" priority="476">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="522" priority="466">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="467">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="520" priority="464">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="519" priority="465">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="expression" dxfId="518" priority="462">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="463">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="expression" dxfId="516" priority="460">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="461">
+    <cfRule type="expression" dxfId="529" priority="473">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="528" priority="474">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="expression" dxfId="527" priority="471">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="526" priority="472">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="expression" dxfId="525" priority="469">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="524" priority="470">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="523" priority="467">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="522" priority="468">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="514" priority="458">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="459">
+    <cfRule type="expression" dxfId="521" priority="465">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="520" priority="466">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="512" priority="456">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="457">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="510" priority="454">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="455">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="508" priority="452">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="453">
+    <cfRule type="expression" dxfId="519" priority="463">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="518" priority="464">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="expression" dxfId="517" priority="461">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="516" priority="462">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="515" priority="459">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="514" priority="460">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="506" priority="450">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="451">
+    <cfRule type="expression" dxfId="513" priority="457">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="512" priority="458">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="511" priority="455">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="510" priority="456">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="509" priority="453">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="508" priority="454">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29">
+    <cfRule type="expression" dxfId="507" priority="451">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="506" priority="452">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="expression" dxfId="505" priority="447">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="504" priority="448">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="449">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="503" priority="445">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="502" priority="446">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="447">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="501" priority="443">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="500" priority="444">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="445">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P29">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="499" priority="441">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="498" priority="442">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="443">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="497" priority="437">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="496" priority="438">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="439">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="495" priority="435">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="494" priority="436">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="437">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="493" priority="433">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="492" priority="434">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="435">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30">
+    <cfRule type="expression" dxfId="491" priority="431">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="490" priority="432">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="433">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="488" priority="428">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="429">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="486" priority="426">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="427">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="484" priority="424">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="425">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="482" priority="422">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="423">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="480" priority="420">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="421">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="478" priority="418">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="419">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="476" priority="416">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="417">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30">
+    <cfRule type="expression" dxfId="489" priority="429">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="488" priority="430">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="expression" dxfId="487" priority="427">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="428">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="expression" dxfId="485" priority="425">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="484" priority="426">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="483" priority="423">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="482" priority="424">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="474" priority="414">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="415">
+    <cfRule type="expression" dxfId="481" priority="421">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="480" priority="422">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="472" priority="412">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="413">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="470" priority="410">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="411">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="468" priority="408">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="409">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="466" priority="406">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="407">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="464" priority="404">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="405">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="462" priority="402">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="403">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="460" priority="400">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="401">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="458" priority="398">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="399">
+    <cfRule type="expression" dxfId="479" priority="419">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="478" priority="420">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="477" priority="417">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="476" priority="418">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="475" priority="415">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="416">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31">
+    <cfRule type="expression" dxfId="473" priority="413">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="472" priority="414">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31">
+    <cfRule type="expression" dxfId="471" priority="411">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="470" priority="412">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="expression" dxfId="469" priority="409">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="468" priority="410">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="expression" dxfId="467" priority="407">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="466" priority="408">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="465" priority="405">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="464" priority="406">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="456" priority="396">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="397">
+    <cfRule type="expression" dxfId="463" priority="403">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="462" priority="404">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="454" priority="394">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="395">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="452" priority="392">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="393">
+    <cfRule type="expression" dxfId="461" priority="401">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="460" priority="402">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="459" priority="399">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="458" priority="400">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="450" priority="390">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="391">
+    <cfRule type="expression" dxfId="457" priority="397">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="456" priority="398">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="448" priority="388">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="389">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="446" priority="386">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="387">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="444" priority="384">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="385">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="442" priority="382">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="383">
+    <cfRule type="expression" dxfId="455" priority="395">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="454" priority="396">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="expression" dxfId="453" priority="393">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="452" priority="394">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="expression" dxfId="451" priority="391">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="450" priority="392">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="449" priority="389">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="448" priority="390">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="440" priority="380">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="381">
+    <cfRule type="expression" dxfId="447" priority="387">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="446" priority="388">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="438" priority="378">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="379">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="436" priority="376">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="377">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:K34 M34:O34">
-    <cfRule type="expression" dxfId="434" priority="366">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="367">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="432" priority="364">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="365">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="430" priority="362">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="363">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="428" priority="358">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="385">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="444" priority="386">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:L34 N34:P34">
+    <cfRule type="expression" dxfId="443" priority="375">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="442" priority="376">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="441" priority="373">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="440" priority="374">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="439" priority="371">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="372">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="expression" dxfId="437" priority="367">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="436" priority="368">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="expression" dxfId="435" priority="369">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="434" priority="370">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="expression" dxfId="433" priority="365">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="432" priority="366">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="431" priority="363">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="364">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="429" priority="361">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="428" priority="362">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
     <cfRule type="expression" dxfId="427" priority="359">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="426" priority="360">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="425" priority="361">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34">
-    <cfRule type="expression" dxfId="424" priority="356">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="357">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="422" priority="354">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="355">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="420" priority="352">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="419" priority="353">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
+    <cfRule type="expression" dxfId="425" priority="357">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="424" priority="358">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="423" priority="355">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="422" priority="356">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="421" priority="353">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="420" priority="354">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
+    <cfRule type="expression" dxfId="419" priority="349">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="418" priority="350">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
     <cfRule type="expression" dxfId="417" priority="351">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="416" priority="348">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="349">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="414" priority="346">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="347">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="412" priority="344">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="345">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="410" priority="340">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="416" priority="352">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="415" priority="347">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="414" priority="348">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="413" priority="345">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="346">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="411" priority="343">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="344">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
     <cfRule type="expression" dxfId="409" priority="341">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="408" priority="342">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="407" priority="343">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="406" priority="338">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="339">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="404" priority="336">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="337">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="402" priority="334">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="335">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="400" priority="332">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="333">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36">
-    <cfRule type="expression" dxfId="398" priority="330">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="331">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="expression" dxfId="407" priority="339">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="340">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="405" priority="337">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="404" priority="338">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="396" priority="328">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="329">
+    <cfRule type="expression" dxfId="403" priority="335">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="336">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="394" priority="326">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="327">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="392" priority="324">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="325">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="390" priority="322">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="323">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="388" priority="320">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="321">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="386" priority="318">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="319">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="384" priority="316">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="317">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="382" priority="314">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="315">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="380" priority="312">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="313">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="378" priority="310">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="311">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="376" priority="308">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="309">
+    <cfRule type="expression" dxfId="401" priority="333">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="400" priority="334">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="399" priority="331">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="332">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="397" priority="329">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="330">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
+    <cfRule type="expression" dxfId="395" priority="327">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="328">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
+    <cfRule type="expression" dxfId="393" priority="325">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="326">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="391" priority="323">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="324">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="389" priority="321">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="322">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="expression" dxfId="387" priority="319">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="320">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="expression" dxfId="385" priority="317">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="318">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="383" priority="315">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="316">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="374" priority="306">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="307">
+    <cfRule type="expression" dxfId="381" priority="313">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="314">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="372" priority="304">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="305">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="370" priority="302">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="303">
+    <cfRule type="expression" dxfId="379" priority="311">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="312">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="377" priority="309">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="310">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="368" priority="300">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="301">
+    <cfRule type="expression" dxfId="375" priority="307">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="308">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="366" priority="298">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="299">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="364" priority="296">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="297">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S41">
-    <cfRule type="expression" dxfId="362" priority="286">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="287">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40">
-    <cfRule type="expression" dxfId="360" priority="284">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="285">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41">
+    <cfRule type="expression" dxfId="373" priority="305">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="306">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41">
+    <cfRule type="expression" dxfId="371" priority="295">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="296">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="expression" dxfId="369" priority="293">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="294">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="expression" dxfId="367" priority="291">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="292">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="365" priority="289">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="290">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="363" priority="287">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="288">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="361" priority="285">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="286">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="359" priority="281">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="358" priority="282">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="283">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="357" priority="279">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="356" priority="280">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="281">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="355" priority="277">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="354" priority="278">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="279">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T42">
+    <cfRule type="expression" dxfId="353" priority="275">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="352" priority="276">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="277">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="350" priority="272">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="273">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="348" priority="270">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="271">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="346" priority="268">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="269">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S42">
-    <cfRule type="expression" dxfId="344" priority="266">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="267">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42 R40 R19:R38">
-    <cfRule type="expression" dxfId="342" priority="264">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="265">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43">
-    <cfRule type="expression" dxfId="340" priority="262">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="263">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="338" priority="260">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="261">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="336" priority="250">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="251">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S42 S40 S19:S38">
+    <cfRule type="expression" dxfId="351" priority="273">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="274">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="expression" dxfId="349" priority="271">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="272">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="347" priority="269">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="270">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="345" priority="259">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="260">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="expression" dxfId="343" priority="265">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="266">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="341" priority="263">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="264">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="339" priority="261">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="262">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="expression" dxfId="337" priority="257">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="258">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:T44">
+    <cfRule type="expression" dxfId="335" priority="255">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="334" priority="256">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="257">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44">
+    <cfRule type="expression" dxfId="333" priority="253">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="332" priority="254">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="255">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44">
+    <cfRule type="expression" dxfId="331" priority="251">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="330" priority="252">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="253">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="328" priority="248">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="249">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R44:S44">
-    <cfRule type="expression" dxfId="326" priority="246">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="expression" dxfId="329" priority="249">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="250">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="327" priority="243">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="244">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="325" priority="247">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="324" priority="244">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="248">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="323" priority="245">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="322" priority="242">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="243">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:I44">
-    <cfRule type="expression" dxfId="320" priority="240">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="241">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="318" priority="234">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="235">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="316" priority="238">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="239">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="314" priority="236">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="237">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="312" priority="232">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="311" priority="229">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="230">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="309" priority="139">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="140">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:Q6 S6">
-    <cfRule type="expression" dxfId="307" priority="221">
-      <formula>MOD(ROW(),2)=0</formula>
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="246">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="321" priority="241">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="320" priority="238">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="239">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="318" priority="148">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="149">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:R6 T6">
+    <cfRule type="expression" dxfId="316" priority="230">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="expression" dxfId="315" priority="218">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="219">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="313" priority="216">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="217">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="311" priority="210">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="211">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:L12 N12:S12">
+    <cfRule type="expression" dxfId="309" priority="207">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12">
+    <cfRule type="expression" dxfId="308" priority="205">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="206">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="306" priority="203">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="204">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="304" priority="201">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="202">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="302" priority="199">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="200">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:P11 R11 T11">
+    <cfRule type="expression" dxfId="300" priority="180">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="299" priority="168">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="169">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="expression" dxfId="297" priority="162">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="163">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="expression" dxfId="295" priority="160">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="161">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="293" priority="158">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="159">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="291" priority="150">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="151">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="289" priority="142">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="143">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="287" priority="140">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="141">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="285" priority="138">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="139">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="expression" dxfId="283" priority="133">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="282" priority="107">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="108">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:H1 F5:G7 F7:F8">
+    <cfRule type="expression" dxfId="280" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="279" priority="97">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="expression" dxfId="278" priority="95">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="96">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="276" priority="93">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="94">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="expression" dxfId="274" priority="91">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="92">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:L11 N11:S11">
+    <cfRule type="expression" dxfId="272" priority="90">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11">
+    <cfRule type="expression" dxfId="271" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="89">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="269" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="87">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="267" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="85">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="265" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="83">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="263" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="71">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="261" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="65">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="259" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="60">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="257" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="58">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="255" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="56">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="253" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="41">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="251" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="39">
+      <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="306" priority="209">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="210">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="304" priority="207">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="208">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="302" priority="201">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="202">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:K12 M12:R12">
-    <cfRule type="expression" dxfId="300" priority="198">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="299" priority="196">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="197">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="297" priority="194">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="195">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="295" priority="192">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="193">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="293" priority="190">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="191">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:O11 Q11 S11">
-    <cfRule type="expression" dxfId="291" priority="171">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="290" priority="159">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="160">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="288" priority="153">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="154">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="286" priority="151">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="152">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="284" priority="149">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="150">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="282" priority="141">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="142">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="280" priority="133">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="134">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="278" priority="131">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="132">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="276" priority="129">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="130">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="274" priority="124">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="273" priority="98">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="99">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:G1 E5:F7 E7:E8">
-    <cfRule type="expression" dxfId="271" priority="91">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="270" priority="88">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="269" priority="86">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="87">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="267" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="85">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="265" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="83">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11 M11:R11">
-    <cfRule type="expression" dxfId="263" priority="81">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="262" priority="79">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="80">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="260" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="78">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="258" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="76">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="256" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="74">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="254" priority="61">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="62">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="252" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="56">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="250" priority="50">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="51">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="248" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="49">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="246" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="47">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="244" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="32">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="242" priority="29">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="30">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="240" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="28">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="238" priority="43">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="237" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="42">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="235" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="40">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="233" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="38">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="231" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="36">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="229" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="34">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="expression" dxfId="227" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="26">
+    <cfRule type="expression" dxfId="249" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="37">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="expression" dxfId="247" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="246" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="51">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="244" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="49">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" dxfId="242" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="47">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" dxfId="240" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="45">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="238" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="43">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2">
+    <cfRule type="expression" dxfId="236" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="35">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="expression" dxfId="234" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="33">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="expression" dxfId="232" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="31">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="expression" dxfId="230" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="29">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="expression" dxfId="225" priority="23">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="24">
+    <cfRule type="expression" dxfId="228" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="27">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="expression" dxfId="226" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="25">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="223" priority="21">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="22">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="221" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="20">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="expression" dxfId="219" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="18">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6">
-    <cfRule type="expression" dxfId="217" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="16">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="expression" dxfId="215" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="14">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="213" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="12">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="211" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="10">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
+    <cfRule type="expression" dxfId="224" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="23">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="expression" dxfId="222" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="21">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="expression" dxfId="220" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="19">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="expression" dxfId="218" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="17">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="expression" dxfId="216" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="15">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="expression" dxfId="214" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="13">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:P2">
+    <cfRule type="expression" dxfId="212" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="11">
+      <formula>"MOD(ROW(),2)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3 Z5:Z11">
+    <cfRule type="expression" dxfId="210" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z6 Z3">
     <cfRule type="expression" dxfId="209" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -17464,7 +17263,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9">
+  <conditionalFormatting sqref="Z10">
     <cfRule type="expression" dxfId="207" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -17472,7 +17271,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T11">
+  <conditionalFormatting sqref="Z8">
     <cfRule type="expression" dxfId="205" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -17480,7 +17279,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O2">
+  <conditionalFormatting sqref="X9">
     <cfRule type="expression" dxfId="203" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -17544,28 +17343,28 @@
         <v>361</v>
       </c>
       <c r="B2" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="108" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="108" t="s">
+      <c r="F2" s="109" t="s">
         <v>429</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="G2" s="108" t="s">
         <v>424</v>
       </c>
-      <c r="F2" s="109" t="s">
-        <v>430</v>
-      </c>
-      <c r="G2" s="108" t="s">
+      <c r="H2" s="108" t="s">
         <v>425</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="I2" s="108" t="s">
         <v>426</v>
-      </c>
-      <c r="I2" s="108" t="s">
-        <v>427</v>
       </c>
       <c r="J2" s="108" t="s">
         <v>47</v>
@@ -19683,31 +19482,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="H2" s="112" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="H2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112" t="s">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="122"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
     </row>
     <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
